--- a/PAGU OPD.xlsx
+++ b/PAGU OPD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\bpkad\sipd-ri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9E2E92-D634-4EC6-88FD-49D8DB8BCE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540338F-B40A-4D04-BEF8-F80E21AAB5FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7976,9 +7976,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{68AEF279-E886-459D-9036-894A6AA2448C}" name="Table1" displayName="Table1" ref="A1:I2255" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I2255" xr:uid="{68AEF279-E886-459D-9036-894A6AA2448C}">
-    <filterColumn colId="3">
+    <filterColumn colId="7">
       <filters>
-        <filter val="Dana Transfer Umum-Dana Alokasi Umum"/>
+        <filter val="kesehatan, pu"/>
+        <filter val="pendidikan, kesehatan"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -8321,8 +8322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A671" workbookViewId="0">
-      <selection activeCell="F714" sqref="F714"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="L930" sqref="L930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8890,7 +8891,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="24">
+    <row r="20" spans="1:9" ht="24" hidden="1">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -9961,7 +9962,7 @@
         <v>210000600</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="24">
+    <row r="57" spans="1:9" ht="24" hidden="1">
       <c r="A57" s="2" t="s">
         <v>99</v>
       </c>
@@ -10539,7 +10540,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="24">
+    <row r="77" spans="1:9" ht="24" hidden="1">
       <c r="A77" s="2" t="s">
         <v>133</v>
       </c>
@@ -11053,7 +11054,7 @@
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" ht="24">
+    <row r="95" spans="1:9" ht="24" hidden="1">
       <c r="A95" s="2" t="s">
         <v>162</v>
       </c>
@@ -11701,7 +11702,7 @@
       </c>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" ht="24">
+    <row r="119" spans="1:9" ht="24" hidden="1">
       <c r="A119" s="2" t="s">
         <v>209</v>
       </c>
@@ -11728,7 +11729,7 @@
       </c>
       <c r="I119" s="4"/>
     </row>
-    <row r="120" spans="1:9" ht="24">
+    <row r="120" spans="1:9" ht="24" hidden="1">
       <c r="A120" s="2" t="s">
         <v>211</v>
       </c>
@@ -11755,7 +11756,7 @@
       </c>
       <c r="I120" s="4"/>
     </row>
-    <row r="121" spans="1:9" ht="24">
+    <row r="121" spans="1:9" ht="24" hidden="1">
       <c r="A121" s="2" t="s">
         <v>213</v>
       </c>
@@ -11782,7 +11783,7 @@
       </c>
       <c r="I121" s="4"/>
     </row>
-    <row r="122" spans="1:9" ht="24">
+    <row r="122" spans="1:9" ht="24" hidden="1">
       <c r="A122" s="2" t="s">
         <v>215</v>
       </c>
@@ -11809,7 +11810,7 @@
       </c>
       <c r="I122" s="4"/>
     </row>
-    <row r="123" spans="1:9" ht="24">
+    <row r="123" spans="1:9" ht="24" hidden="1">
       <c r="A123" s="2" t="s">
         <v>217</v>
       </c>
@@ -11836,7 +11837,7 @@
       </c>
       <c r="I123" s="4"/>
     </row>
-    <row r="124" spans="1:9" ht="24">
+    <row r="124" spans="1:9" ht="24" hidden="1">
       <c r="A124" s="2" t="s">
         <v>219</v>
       </c>
@@ -11890,7 +11891,7 @@
       </c>
       <c r="I125" s="4"/>
     </row>
-    <row r="126" spans="1:9" ht="24">
+    <row r="126" spans="1:9" ht="24" hidden="1">
       <c r="A126" s="2" t="s">
         <v>223</v>
       </c>
@@ -11944,7 +11945,7 @@
       </c>
       <c r="I127" s="4"/>
     </row>
-    <row r="128" spans="1:9" ht="24">
+    <row r="128" spans="1:9" ht="24" hidden="1">
       <c r="A128" s="2" t="s">
         <v>227</v>
       </c>
@@ -11998,7 +11999,7 @@
       </c>
       <c r="I129" s="4"/>
     </row>
-    <row r="130" spans="1:9" ht="24">
+    <row r="130" spans="1:9" ht="24" hidden="1">
       <c r="A130" s="2" t="s">
         <v>231</v>
       </c>
@@ -12025,7 +12026,7 @@
       </c>
       <c r="I130" s="4"/>
     </row>
-    <row r="131" spans="1:9" ht="24">
+    <row r="131" spans="1:9" ht="24" hidden="1">
       <c r="A131" s="2" t="s">
         <v>233</v>
       </c>
@@ -12417,7 +12418,7 @@
       </c>
       <c r="I144" s="4"/>
     </row>
-    <row r="145" spans="1:9" ht="24">
+    <row r="145" spans="1:9" ht="24" hidden="1">
       <c r="A145" s="2" t="s">
         <v>209</v>
       </c>
@@ -12471,7 +12472,7 @@
       </c>
       <c r="I146" s="4"/>
     </row>
-    <row r="147" spans="1:9" ht="24">
+    <row r="147" spans="1:9" ht="24" hidden="1">
       <c r="A147" s="2" t="s">
         <v>221</v>
       </c>
@@ -12498,7 +12499,7 @@
       </c>
       <c r="I147" s="4"/>
     </row>
-    <row r="148" spans="1:9" ht="24">
+    <row r="148" spans="1:9" ht="24" hidden="1">
       <c r="A148" s="2" t="s">
         <v>223</v>
       </c>
@@ -12525,7 +12526,7 @@
       </c>
       <c r="I148" s="4"/>
     </row>
-    <row r="149" spans="1:9" ht="24">
+    <row r="149" spans="1:9" ht="24" hidden="1">
       <c r="A149" s="2" t="s">
         <v>227</v>
       </c>
@@ -13331,7 +13332,7 @@
         <v>30100000</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="24">
+    <row r="177" spans="1:9" ht="24" hidden="1">
       <c r="A177" s="2" t="s">
         <v>316</v>
       </c>
@@ -13418,7 +13419,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" s="2" t="s">
         <v>322</v>
       </c>
@@ -13476,7 +13477,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="24.5" hidden="1">
+    <row r="182" spans="1:9" ht="24.5">
       <c r="A182" s="2" t="s">
         <v>324</v>
       </c>
@@ -13853,7 +13854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195" s="2" t="s">
         <v>353</v>
       </c>
@@ -13998,7 +13999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200" s="2" t="s">
         <v>361</v>
       </c>
@@ -14433,7 +14434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" hidden="1">
       <c r="A215" s="2" t="s">
         <v>389</v>
       </c>
@@ -14487,7 +14488,7 @@
       </c>
       <c r="I216" s="4"/>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" hidden="1">
       <c r="A217" s="2" t="s">
         <v>392</v>
       </c>
@@ -14703,7 +14704,7 @@
       </c>
       <c r="I224" s="4"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" s="2" t="s">
         <v>401</v>
       </c>
@@ -14757,7 +14758,7 @@
       </c>
       <c r="I226" s="4"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227" s="2" t="s">
         <v>403</v>
       </c>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="I233" s="4"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" s="2" t="s">
         <v>412</v>
       </c>
@@ -14973,7 +14974,7 @@
       </c>
       <c r="I234" s="4"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235" s="2" t="s">
         <v>413</v>
       </c>
@@ -15027,7 +15028,7 @@
       </c>
       <c r="I236" s="4"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237" s="2" t="s">
         <v>415</v>
       </c>
@@ -15081,7 +15082,7 @@
       </c>
       <c r="I238" s="4"/>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" s="2" t="s">
         <v>417</v>
       </c>
@@ -15108,7 +15109,7 @@
       </c>
       <c r="I239" s="4"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" s="2" t="s">
         <v>418</v>
       </c>
@@ -15189,7 +15190,7 @@
       </c>
       <c r="I242" s="4"/>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" s="2" t="s">
         <v>423</v>
       </c>
@@ -15243,7 +15244,7 @@
       </c>
       <c r="I244" s="4"/>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245" s="2" t="s">
         <v>425</v>
       </c>
@@ -15270,7 +15271,7 @@
       </c>
       <c r="I245" s="4"/>
     </row>
-    <row r="246" spans="1:9" ht="24">
+    <row r="246" spans="1:9" ht="24" hidden="1">
       <c r="A246" s="2" t="s">
         <v>426</v>
       </c>
@@ -15297,7 +15298,7 @@
       </c>
       <c r="I246" s="4"/>
     </row>
-    <row r="247" spans="1:9" ht="24">
+    <row r="247" spans="1:9" ht="24" hidden="1">
       <c r="A247" s="2" t="s">
         <v>428</v>
       </c>
@@ -15324,7 +15325,7 @@
       </c>
       <c r="I247" s="4"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248" s="2" t="s">
         <v>429</v>
       </c>
@@ -15351,7 +15352,7 @@
       </c>
       <c r="I248" s="4"/>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249" s="2" t="s">
         <v>430</v>
       </c>
@@ -15838,7 +15839,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="24.5" hidden="1">
+    <row r="266" spans="1:9" ht="24.5">
       <c r="A266" s="2" t="s">
         <v>324</v>
       </c>
@@ -16723,7 +16724,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="24.5" hidden="1">
+    <row r="297" spans="1:9" ht="24.5">
       <c r="A297" s="2" t="s">
         <v>324</v>
       </c>
@@ -17608,7 +17609,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="24.5" hidden="1">
+    <row r="328" spans="1:9" ht="24.5">
       <c r="A328" s="2" t="s">
         <v>324</v>
       </c>
@@ -18493,7 +18494,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="24.5" hidden="1">
+    <row r="359" spans="1:9" ht="24.5">
       <c r="A359" s="2" t="s">
         <v>324</v>
       </c>
@@ -19351,7 +19352,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="24.5" hidden="1">
+    <row r="389" spans="1:9" ht="24.5">
       <c r="A389" s="2" t="s">
         <v>324</v>
       </c>
@@ -20263,7 +20264,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="24.5" hidden="1">
+    <row r="421" spans="1:9" ht="24.5">
       <c r="A421" s="2" t="s">
         <v>324</v>
       </c>
@@ -21148,7 +21149,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="24.5" hidden="1">
+    <row r="452" spans="1:9" ht="24.5">
       <c r="A452" s="2" t="s">
         <v>324</v>
       </c>
@@ -21917,7 +21918,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="24.5" hidden="1">
+    <row r="479" spans="1:9" ht="24.5">
       <c r="A479" s="2" t="s">
         <v>324</v>
       </c>
@@ -22713,7 +22714,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="507" spans="1:9" ht="24.5" hidden="1">
+    <row r="507" spans="1:9" ht="24.5">
       <c r="A507" s="2" t="s">
         <v>324</v>
       </c>
@@ -23455,7 +23456,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="533" spans="1:9" ht="24.5" hidden="1">
+    <row r="533" spans="1:9" ht="24.5">
       <c r="A533" s="2" t="s">
         <v>324</v>
       </c>
@@ -24197,7 +24198,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="559" spans="1:9" ht="24.5" hidden="1">
+    <row r="559" spans="1:9" ht="24.5">
       <c r="A559" s="2" t="s">
         <v>324</v>
       </c>
@@ -25223,7 +25224,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="595" spans="1:9" ht="24.5" hidden="1">
+    <row r="595" spans="1:9" ht="24.5">
       <c r="A595" s="2" t="s">
         <v>324</v>
       </c>
@@ -26112,7 +26113,7 @@
         <v>312473000</v>
       </c>
     </row>
-    <row r="626" spans="1:9" ht="24.5" hidden="1">
+    <row r="626" spans="1:9" ht="24.5">
       <c r="A626" s="2" t="s">
         <v>324</v>
       </c>
@@ -26593,7 +26594,7 @@
         <v>100076000</v>
       </c>
     </row>
-    <row r="643" spans="1:9">
+    <row r="643" spans="1:9" hidden="1">
       <c r="A643" s="2" t="s">
         <v>276</v>
       </c>
@@ -26941,7 +26942,7 @@
         <v>5690700</v>
       </c>
     </row>
-    <row r="655" spans="1:9">
+    <row r="655" spans="1:9" hidden="1">
       <c r="A655" s="2" t="s">
         <v>389</v>
       </c>
@@ -26968,7 +26969,7 @@
       </c>
       <c r="I655" s="4"/>
     </row>
-    <row r="656" spans="1:9" ht="24">
+    <row r="656" spans="1:9" ht="24" hidden="1">
       <c r="A656" s="2" t="s">
         <v>476</v>
       </c>
@@ -26995,7 +26996,7 @@
       </c>
       <c r="I656" s="4"/>
     </row>
-    <row r="657" spans="1:9">
+    <row r="657" spans="1:9" hidden="1">
       <c r="A657" s="2" t="s">
         <v>392</v>
       </c>
@@ -27103,7 +27104,7 @@
       </c>
       <c r="I660" s="4"/>
     </row>
-    <row r="661" spans="1:9">
+    <row r="661" spans="1:9" hidden="1">
       <c r="A661" s="2" t="s">
         <v>404</v>
       </c>
@@ -27130,7 +27131,7 @@
       </c>
       <c r="I661" s="4"/>
     </row>
-    <row r="662" spans="1:9" ht="24">
+    <row r="662" spans="1:9" ht="24" hidden="1">
       <c r="A662" s="2" t="s">
         <v>407</v>
       </c>
@@ -27157,7 +27158,7 @@
       </c>
       <c r="I662" s="4"/>
     </row>
-    <row r="663" spans="1:9">
+    <row r="663" spans="1:9" hidden="1">
       <c r="A663" s="2" t="s">
         <v>412</v>
       </c>
@@ -27184,7 +27185,7 @@
       </c>
       <c r="I663" s="4"/>
     </row>
-    <row r="664" spans="1:9">
+    <row r="664" spans="1:9" hidden="1">
       <c r="A664" s="2" t="s">
         <v>413</v>
       </c>
@@ -27211,7 +27212,7 @@
       </c>
       <c r="I664" s="4"/>
     </row>
-    <row r="665" spans="1:9">
+    <row r="665" spans="1:9" hidden="1">
       <c r="A665" s="2" t="s">
         <v>414</v>
       </c>
@@ -27238,7 +27239,7 @@
       </c>
       <c r="I665" s="4"/>
     </row>
-    <row r="666" spans="1:9">
+    <row r="666" spans="1:9" hidden="1">
       <c r="A666" s="2" t="s">
         <v>477</v>
       </c>
@@ -27265,7 +27266,7 @@
       </c>
       <c r="I666" s="4"/>
     </row>
-    <row r="667" spans="1:9">
+    <row r="667" spans="1:9" hidden="1">
       <c r="A667" s="2" t="s">
         <v>415</v>
       </c>
@@ -27319,7 +27320,7 @@
       </c>
       <c r="I668" s="4"/>
     </row>
-    <row r="669" spans="1:9">
+    <row r="669" spans="1:9" hidden="1">
       <c r="A669" s="2" t="s">
         <v>418</v>
       </c>
@@ -27346,7 +27347,7 @@
       </c>
       <c r="I669" s="4"/>
     </row>
-    <row r="670" spans="1:9" ht="24">
+    <row r="670" spans="1:9" ht="24" hidden="1">
       <c r="A670" s="2" t="s">
         <v>478</v>
       </c>
@@ -27373,7 +27374,7 @@
       </c>
       <c r="I670" s="4"/>
     </row>
-    <row r="671" spans="1:9">
+    <row r="671" spans="1:9" hidden="1">
       <c r="A671" s="2" t="s">
         <v>423</v>
       </c>
@@ -27400,7 +27401,7 @@
       </c>
       <c r="I671" s="4"/>
     </row>
-    <row r="672" spans="1:9">
+    <row r="672" spans="1:9" hidden="1">
       <c r="A672" s="2" t="s">
         <v>425</v>
       </c>
@@ -27427,7 +27428,7 @@
       </c>
       <c r="I672" s="4"/>
     </row>
-    <row r="673" spans="1:9" ht="24">
+    <row r="673" spans="1:9" ht="24" hidden="1">
       <c r="A673" s="2" t="s">
         <v>428</v>
       </c>
@@ -27454,7 +27455,7 @@
       </c>
       <c r="I673" s="4"/>
     </row>
-    <row r="674" spans="1:9">
+    <row r="674" spans="1:9" hidden="1">
       <c r="A674" s="2" t="s">
         <v>429</v>
       </c>
@@ -27481,7 +27482,7 @@
       </c>
       <c r="I674" s="4"/>
     </row>
-    <row r="675" spans="1:9" ht="24">
+    <row r="675" spans="1:9" ht="24" hidden="1">
       <c r="A675" s="2" t="s">
         <v>431</v>
       </c>
@@ -27738,7 +27739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="684" spans="1:9" ht="36">
+    <row r="684" spans="1:9" ht="36" hidden="1">
       <c r="A684" s="2" t="s">
         <v>500</v>
       </c>
@@ -27912,7 +27913,7 @@
         <v>826000000</v>
       </c>
     </row>
-    <row r="690" spans="1:9" ht="36" hidden="1">
+    <row r="690" spans="1:9" ht="36">
       <c r="A690" s="2" t="s">
         <v>510</v>
       </c>
@@ -27941,7 +27942,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="691" spans="1:9" ht="36" hidden="1">
+    <row r="691" spans="1:9" ht="36">
       <c r="A691" s="2" t="s">
         <v>514</v>
       </c>
@@ -28111,7 +28112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="697" spans="1:9" ht="36">
+    <row r="697" spans="1:9" ht="36" hidden="1">
       <c r="A697" s="2" t="s">
         <v>528</v>
       </c>
@@ -28482,7 +28483,7 @@
       </c>
       <c r="I709" s="4"/>
     </row>
-    <row r="710" spans="1:9" ht="36">
+    <row r="710" spans="1:9" ht="36" hidden="1">
       <c r="A710" s="2" t="s">
         <v>552</v>
       </c>
@@ -28536,7 +28537,7 @@
       </c>
       <c r="I711" s="4"/>
     </row>
-    <row r="712" spans="1:9" ht="36">
+    <row r="712" spans="1:9" ht="36" hidden="1">
       <c r="A712" s="2" t="s">
         <v>555</v>
       </c>
@@ -28563,7 +28564,7 @@
       </c>
       <c r="I712" s="4"/>
     </row>
-    <row r="713" spans="1:9" ht="36">
+    <row r="713" spans="1:9" ht="36" hidden="1">
       <c r="A713" s="2" t="s">
         <v>557</v>
       </c>
@@ -28590,7 +28591,7 @@
       </c>
       <c r="I713" s="4"/>
     </row>
-    <row r="714" spans="1:9" ht="36">
+    <row r="714" spans="1:9" ht="36" hidden="1">
       <c r="A714" s="2" t="s">
         <v>558</v>
       </c>
@@ -28617,7 +28618,7 @@
       </c>
       <c r="I714" s="4"/>
     </row>
-    <row r="715" spans="1:9" ht="36">
+    <row r="715" spans="1:9" ht="36" hidden="1">
       <c r="A715" s="2" t="s">
         <v>559</v>
       </c>
@@ -28644,7 +28645,7 @@
       </c>
       <c r="I715" s="4"/>
     </row>
-    <row r="716" spans="1:9" ht="36">
+    <row r="716" spans="1:9" ht="36" hidden="1">
       <c r="A716" s="2" t="s">
         <v>560</v>
       </c>
@@ -28752,7 +28753,7 @@
       </c>
       <c r="I719" s="4"/>
     </row>
-    <row r="720" spans="1:9" ht="36">
+    <row r="720" spans="1:9" ht="36" hidden="1">
       <c r="A720" s="2" t="s">
         <v>564</v>
       </c>
@@ -28779,7 +28780,7 @@
       </c>
       <c r="I720" s="4"/>
     </row>
-    <row r="721" spans="1:9" ht="36">
+    <row r="721" spans="1:9" ht="36" hidden="1">
       <c r="A721" s="2" t="s">
         <v>565</v>
       </c>
@@ -28806,7 +28807,7 @@
       </c>
       <c r="I721" s="4"/>
     </row>
-    <row r="722" spans="1:9" ht="36">
+    <row r="722" spans="1:9" ht="36" hidden="1">
       <c r="A722" s="2" t="s">
         <v>566</v>
       </c>
@@ -28833,7 +28834,7 @@
       </c>
       <c r="I722" s="4"/>
     </row>
-    <row r="723" spans="1:9" ht="36">
+    <row r="723" spans="1:9" ht="36" hidden="1">
       <c r="A723" s="2" t="s">
         <v>567</v>
       </c>
@@ -28887,7 +28888,7 @@
       </c>
       <c r="I724" s="4"/>
     </row>
-    <row r="725" spans="1:9" ht="36">
+    <row r="725" spans="1:9" ht="36" hidden="1">
       <c r="A725" s="2" t="s">
         <v>569</v>
       </c>
@@ -28941,7 +28942,7 @@
       </c>
       <c r="I726" s="4"/>
     </row>
-    <row r="727" spans="1:9" ht="36">
+    <row r="727" spans="1:9" ht="36" hidden="1">
       <c r="A727" s="2" t="s">
         <v>571</v>
       </c>
@@ -28968,7 +28969,7 @@
       </c>
       <c r="I727" s="4"/>
     </row>
-    <row r="728" spans="1:9" ht="36">
+    <row r="728" spans="1:9" ht="36" hidden="1">
       <c r="A728" s="2" t="s">
         <v>572</v>
       </c>
@@ -29238,7 +29239,7 @@
       </c>
       <c r="I737" s="4"/>
     </row>
-    <row r="738" spans="1:9" ht="36">
+    <row r="738" spans="1:9" ht="36" hidden="1">
       <c r="A738" s="2" t="s">
         <v>590</v>
       </c>
@@ -29265,7 +29266,7 @@
       </c>
       <c r="I738" s="4"/>
     </row>
-    <row r="739" spans="1:9" ht="36">
+    <row r="739" spans="1:9" ht="36" hidden="1">
       <c r="A739" s="2" t="s">
         <v>592</v>
       </c>
@@ -29697,7 +29698,7 @@
       </c>
       <c r="I754" s="4"/>
     </row>
-    <row r="755" spans="1:9" ht="36">
+    <row r="755" spans="1:9" ht="36" hidden="1">
       <c r="A755" s="2" t="s">
         <v>624</v>
       </c>
@@ -30210,7 +30211,7 @@
       </c>
       <c r="I773" s="4"/>
     </row>
-    <row r="774" spans="1:9" ht="36">
+    <row r="774" spans="1:9" ht="36" hidden="1">
       <c r="A774" s="2" t="s">
         <v>662</v>
       </c>
@@ -30291,7 +30292,7 @@
       </c>
       <c r="I776" s="4"/>
     </row>
-    <row r="777" spans="1:9" ht="36">
+    <row r="777" spans="1:9" ht="36" hidden="1">
       <c r="A777" s="2" t="s">
         <v>668</v>
       </c>
@@ -30318,7 +30319,7 @@
       </c>
       <c r="I777" s="4"/>
     </row>
-    <row r="778" spans="1:9" ht="36">
+    <row r="778" spans="1:9" ht="36" hidden="1">
       <c r="A778" s="2" t="s">
         <v>669</v>
       </c>
@@ -30480,7 +30481,7 @@
       </c>
       <c r="I783" s="4"/>
     </row>
-    <row r="784" spans="1:9" ht="36">
+    <row r="784" spans="1:9" ht="36" hidden="1">
       <c r="A784" s="2" t="s">
         <v>678</v>
       </c>
@@ -30507,7 +30508,7 @@
       </c>
       <c r="I784" s="4"/>
     </row>
-    <row r="785" spans="1:9" ht="36">
+    <row r="785" spans="1:9" ht="36" hidden="1">
       <c r="A785" s="2" t="s">
         <v>679</v>
       </c>
@@ -30534,7 +30535,7 @@
       </c>
       <c r="I785" s="4"/>
     </row>
-    <row r="786" spans="1:9" ht="36">
+    <row r="786" spans="1:9" ht="36" hidden="1">
       <c r="A786" s="2" t="s">
         <v>680</v>
       </c>
@@ -30561,7 +30562,7 @@
       </c>
       <c r="I786" s="4"/>
     </row>
-    <row r="787" spans="1:9" ht="36">
+    <row r="787" spans="1:9" ht="36" hidden="1">
       <c r="A787" s="2" t="s">
         <v>681</v>
       </c>
@@ -30615,7 +30616,7 @@
       </c>
       <c r="I788" s="4"/>
     </row>
-    <row r="789" spans="1:9" ht="36">
+    <row r="789" spans="1:9" ht="36" hidden="1">
       <c r="A789" s="2" t="s">
         <v>683</v>
       </c>
@@ -30696,7 +30697,7 @@
       </c>
       <c r="I791" s="4"/>
     </row>
-    <row r="792" spans="1:9" ht="36">
+    <row r="792" spans="1:9" ht="36" hidden="1">
       <c r="A792" s="2" t="s">
         <v>686</v>
       </c>
@@ -30858,7 +30859,7 @@
       </c>
       <c r="I797" s="4"/>
     </row>
-    <row r="798" spans="1:9" ht="36">
+    <row r="798" spans="1:9" ht="36" hidden="1">
       <c r="A798" s="2" t="s">
         <v>692</v>
       </c>
@@ -30885,7 +30886,7 @@
       </c>
       <c r="I798" s="4"/>
     </row>
-    <row r="799" spans="1:9" ht="36">
+    <row r="799" spans="1:9" ht="36" hidden="1">
       <c r="A799" s="2" t="s">
         <v>693</v>
       </c>
@@ -30912,7 +30913,7 @@
       </c>
       <c r="I799" s="4"/>
     </row>
-    <row r="800" spans="1:9" ht="36">
+    <row r="800" spans="1:9" ht="36" hidden="1">
       <c r="A800" s="2" t="s">
         <v>694</v>
       </c>
@@ -30939,7 +30940,7 @@
       </c>
       <c r="I800" s="4"/>
     </row>
-    <row r="801" spans="1:9" ht="36">
+    <row r="801" spans="1:9" ht="36" hidden="1">
       <c r="A801" s="2" t="s">
         <v>695</v>
       </c>
@@ -30993,7 +30994,7 @@
       </c>
       <c r="I802" s="4"/>
     </row>
-    <row r="803" spans="1:9" ht="36">
+    <row r="803" spans="1:9" ht="36" hidden="1">
       <c r="A803" s="2" t="s">
         <v>698</v>
       </c>
@@ -31020,7 +31021,7 @@
       </c>
       <c r="I803" s="4"/>
     </row>
-    <row r="804" spans="1:9" ht="36">
+    <row r="804" spans="1:9" ht="36" hidden="1">
       <c r="A804" s="2" t="s">
         <v>699</v>
       </c>
@@ -31074,7 +31075,7 @@
       </c>
       <c r="I805" s="4"/>
     </row>
-    <row r="806" spans="1:9" ht="36">
+    <row r="806" spans="1:9" ht="36" hidden="1">
       <c r="A806" s="2" t="s">
         <v>702</v>
       </c>
@@ -31155,7 +31156,7 @@
       </c>
       <c r="I808" s="4"/>
     </row>
-    <row r="809" spans="1:9" ht="36">
+    <row r="809" spans="1:9" ht="36" hidden="1">
       <c r="A809" s="2" t="s">
         <v>707</v>
       </c>
@@ -31182,7 +31183,7 @@
       </c>
       <c r="I809" s="4"/>
     </row>
-    <row r="810" spans="1:9" ht="36">
+    <row r="810" spans="1:9" ht="36" hidden="1">
       <c r="A810" s="2" t="s">
         <v>708</v>
       </c>
@@ -31344,7 +31345,7 @@
       </c>
       <c r="I815" s="4"/>
     </row>
-    <row r="816" spans="1:9" ht="36">
+    <row r="816" spans="1:9" ht="36" hidden="1">
       <c r="A816" s="2" t="s">
         <v>715</v>
       </c>
@@ -31371,7 +31372,7 @@
       </c>
       <c r="I816" s="4"/>
     </row>
-    <row r="817" spans="1:9" ht="36">
+    <row r="817" spans="1:9" ht="36" hidden="1">
       <c r="A817" s="2" t="s">
         <v>716</v>
       </c>
@@ -31398,7 +31399,7 @@
       </c>
       <c r="I817" s="4"/>
     </row>
-    <row r="818" spans="1:9" ht="36">
+    <row r="818" spans="1:9" ht="36" hidden="1">
       <c r="A818" s="2" t="s">
         <v>717</v>
       </c>
@@ -31452,7 +31453,7 @@
       </c>
       <c r="I819" s="4"/>
     </row>
-    <row r="820" spans="1:9" ht="36">
+    <row r="820" spans="1:9" ht="36" hidden="1">
       <c r="A820" s="2" t="s">
         <v>719</v>
       </c>
@@ -31506,7 +31507,7 @@
       </c>
       <c r="I821" s="4"/>
     </row>
-    <row r="822" spans="1:9" ht="36">
+    <row r="822" spans="1:9" ht="36" hidden="1">
       <c r="A822" s="2" t="s">
         <v>722</v>
       </c>
@@ -31560,7 +31561,7 @@
       </c>
       <c r="I823" s="4"/>
     </row>
-    <row r="824" spans="1:9" ht="36">
+    <row r="824" spans="1:9" ht="36" hidden="1">
       <c r="A824" s="2" t="s">
         <v>724</v>
       </c>
@@ -31695,7 +31696,7 @@
       </c>
       <c r="I828" s="4"/>
     </row>
-    <row r="829" spans="1:9" ht="24">
+    <row r="829" spans="1:9" ht="24" hidden="1">
       <c r="A829" s="2" t="s">
         <v>731</v>
       </c>
@@ -31803,7 +31804,7 @@
       </c>
       <c r="I832" s="4"/>
     </row>
-    <row r="833" spans="1:9" ht="36">
+    <row r="833" spans="1:9" ht="36" hidden="1">
       <c r="A833" s="2" t="s">
         <v>739</v>
       </c>
@@ -31938,7 +31939,7 @@
       </c>
       <c r="I837" s="4"/>
     </row>
-    <row r="838" spans="1:9" ht="24">
+    <row r="838" spans="1:9" ht="24" hidden="1">
       <c r="A838" s="2" t="s">
         <v>749</v>
       </c>
@@ -31965,7 +31966,7 @@
       </c>
       <c r="I838" s="4"/>
     </row>
-    <row r="839" spans="1:9" ht="24">
+    <row r="839" spans="1:9" ht="24" hidden="1">
       <c r="A839" s="2" t="s">
         <v>751</v>
       </c>
@@ -32019,7 +32020,7 @@
       </c>
       <c r="I840" s="4"/>
     </row>
-    <row r="841" spans="1:9" ht="24">
+    <row r="841" spans="1:9" ht="24" hidden="1">
       <c r="A841" s="2" t="s">
         <v>755</v>
       </c>
@@ -32075,7 +32076,7 @@
         <v>700000000</v>
       </c>
     </row>
-    <row r="843" spans="1:9" ht="24">
+    <row r="843" spans="1:9" ht="24" hidden="1">
       <c r="A843" s="2" t="s">
         <v>759</v>
       </c>
@@ -32102,7 +32103,7 @@
       </c>
       <c r="I843" s="4"/>
     </row>
-    <row r="844" spans="1:9" ht="24">
+    <row r="844" spans="1:9" ht="24" hidden="1">
       <c r="A844" s="2" t="s">
         <v>760</v>
       </c>
@@ -32129,7 +32130,7 @@
       </c>
       <c r="I844" s="4"/>
     </row>
-    <row r="845" spans="1:9" ht="24">
+    <row r="845" spans="1:9" ht="24" hidden="1">
       <c r="A845" s="2" t="s">
         <v>761</v>
       </c>
@@ -32156,7 +32157,7 @@
       </c>
       <c r="I845" s="4"/>
     </row>
-    <row r="846" spans="1:9" ht="24">
+    <row r="846" spans="1:9" ht="24" hidden="1">
       <c r="A846" s="2" t="s">
         <v>762</v>
       </c>
@@ -32183,7 +32184,7 @@
       </c>
       <c r="I846" s="4"/>
     </row>
-    <row r="847" spans="1:9" ht="24">
+    <row r="847" spans="1:9" ht="24" hidden="1">
       <c r="A847" s="2" t="s">
         <v>763</v>
       </c>
@@ -32210,7 +32211,7 @@
       </c>
       <c r="I847" s="4"/>
     </row>
-    <row r="848" spans="1:9" ht="24">
+    <row r="848" spans="1:9" ht="24" hidden="1">
       <c r="A848" s="2" t="s">
         <v>764</v>
       </c>
@@ -32237,7 +32238,7 @@
       </c>
       <c r="I848" s="4"/>
     </row>
-    <row r="849" spans="1:9" ht="24">
+    <row r="849" spans="1:9" ht="24" hidden="1">
       <c r="A849" s="2" t="s">
         <v>765</v>
       </c>
@@ -32318,7 +32319,7 @@
       </c>
       <c r="I851" s="4"/>
     </row>
-    <row r="852" spans="1:9" ht="24">
+    <row r="852" spans="1:9" ht="24" hidden="1">
       <c r="A852" s="2" t="s">
         <v>768</v>
       </c>
@@ -32345,7 +32346,7 @@
       </c>
       <c r="I852" s="4"/>
     </row>
-    <row r="853" spans="1:9" ht="24">
+    <row r="853" spans="1:9" ht="24" hidden="1">
       <c r="A853" s="2" t="s">
         <v>769</v>
       </c>
@@ -32372,7 +32373,7 @@
       </c>
       <c r="I853" s="4"/>
     </row>
-    <row r="854" spans="1:9" ht="24">
+    <row r="854" spans="1:9" ht="24" hidden="1">
       <c r="A854" s="2" t="s">
         <v>770</v>
       </c>
@@ -32399,7 +32400,7 @@
       </c>
       <c r="I854" s="4"/>
     </row>
-    <row r="855" spans="1:9" ht="24">
+    <row r="855" spans="1:9" ht="24" hidden="1">
       <c r="A855" s="2" t="s">
         <v>771</v>
       </c>
@@ -32480,7 +32481,7 @@
       </c>
       <c r="I857" s="4"/>
     </row>
-    <row r="858" spans="1:9" ht="24">
+    <row r="858" spans="1:9" ht="24" hidden="1">
       <c r="A858" s="2" t="s">
         <v>774</v>
       </c>
@@ -32534,7 +32535,7 @@
       </c>
       <c r="I859" s="4"/>
     </row>
-    <row r="860" spans="1:9" ht="24">
+    <row r="860" spans="1:9" ht="24" hidden="1">
       <c r="A860" s="2" t="s">
         <v>776</v>
       </c>
@@ -32561,7 +32562,7 @@
       </c>
       <c r="I860" s="4"/>
     </row>
-    <row r="861" spans="1:9" ht="24">
+    <row r="861" spans="1:9" ht="24" hidden="1">
       <c r="A861" s="2" t="s">
         <v>777</v>
       </c>
@@ -32588,7 +32589,7 @@
       </c>
       <c r="I861" s="4"/>
     </row>
-    <row r="862" spans="1:9" ht="24">
+    <row r="862" spans="1:9" ht="24" hidden="1">
       <c r="A862" s="2" t="s">
         <v>778</v>
       </c>
@@ -32615,7 +32616,7 @@
       </c>
       <c r="I862" s="4"/>
     </row>
-    <row r="863" spans="1:9" ht="24">
+    <row r="863" spans="1:9" ht="24" hidden="1">
       <c r="A863" s="2" t="s">
         <v>779</v>
       </c>
@@ -33132,7 +33133,7 @@
       </c>
       <c r="I881" s="4"/>
     </row>
-    <row r="882" spans="1:9" ht="36">
+    <row r="882" spans="1:9" ht="36" hidden="1">
       <c r="A882" s="2" t="s">
         <v>815</v>
       </c>
@@ -33350,7 +33351,7 @@
       </c>
       <c r="I889" s="4"/>
     </row>
-    <row r="890" spans="1:9" ht="36">
+    <row r="890" spans="1:9" ht="36" hidden="1">
       <c r="A890" s="2" t="s">
         <v>831</v>
       </c>
@@ -33377,7 +33378,7 @@
       </c>
       <c r="I890" s="4"/>
     </row>
-    <row r="891" spans="1:9" ht="36">
+    <row r="891" spans="1:9" ht="36" hidden="1">
       <c r="A891" s="2" t="s">
         <v>759</v>
       </c>
@@ -33404,7 +33405,7 @@
       </c>
       <c r="I891" s="4"/>
     </row>
-    <row r="892" spans="1:9" ht="36">
+    <row r="892" spans="1:9" ht="36" hidden="1">
       <c r="A892" s="2" t="s">
         <v>761</v>
       </c>
@@ -33431,7 +33432,7 @@
       </c>
       <c r="I892" s="4"/>
     </row>
-    <row r="893" spans="1:9" ht="36">
+    <row r="893" spans="1:9" ht="36" hidden="1">
       <c r="A893" s="2" t="s">
         <v>762</v>
       </c>
@@ -33458,7 +33459,7 @@
       </c>
       <c r="I893" s="4"/>
     </row>
-    <row r="894" spans="1:9" ht="36">
+    <row r="894" spans="1:9" ht="36" hidden="1">
       <c r="A894" s="2" t="s">
         <v>763</v>
       </c>
@@ -33512,7 +33513,7 @@
       </c>
       <c r="I895" s="4"/>
     </row>
-    <row r="896" spans="1:9" ht="36">
+    <row r="896" spans="1:9" ht="36" hidden="1">
       <c r="A896" s="2" t="s">
         <v>768</v>
       </c>
@@ -33566,7 +33567,7 @@
       </c>
       <c r="I897" s="4"/>
     </row>
-    <row r="898" spans="1:9" ht="36">
+    <row r="898" spans="1:9" ht="36" hidden="1">
       <c r="A898" s="2" t="s">
         <v>770</v>
       </c>
@@ -33593,7 +33594,7 @@
       </c>
       <c r="I898" s="4"/>
     </row>
-    <row r="899" spans="1:9" ht="36">
+    <row r="899" spans="1:9" ht="36" hidden="1">
       <c r="A899" s="2" t="s">
         <v>771</v>
       </c>
@@ -33647,7 +33648,7 @@
       </c>
       <c r="I900" s="4"/>
     </row>
-    <row r="901" spans="1:9" ht="36">
+    <row r="901" spans="1:9" ht="36" hidden="1">
       <c r="A901" s="2" t="s">
         <v>776</v>
       </c>
@@ -33701,7 +33702,7 @@
       </c>
       <c r="I902" s="4"/>
     </row>
-    <row r="903" spans="1:9" ht="36">
+    <row r="903" spans="1:9" ht="36" hidden="1">
       <c r="A903" s="2" t="s">
         <v>777</v>
       </c>
@@ -33728,7 +33729,7 @@
       </c>
       <c r="I903" s="4"/>
     </row>
-    <row r="904" spans="1:9" ht="36">
+    <row r="904" spans="1:9" ht="36" hidden="1">
       <c r="A904" s="2" t="s">
         <v>778</v>
       </c>
@@ -34027,7 +34028,7 @@
       </c>
       <c r="I914" s="4"/>
     </row>
-    <row r="915" spans="1:9" ht="24.5" hidden="1">
+    <row r="915" spans="1:9" ht="24.5">
       <c r="A915" s="2" t="s">
         <v>851</v>
       </c>
@@ -34056,7 +34057,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="916" spans="1:9" ht="36" hidden="1">
+    <row r="916" spans="1:9" ht="36">
       <c r="A916" s="2" t="s">
         <v>855</v>
       </c>
@@ -34413,7 +34414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="929" spans="1:12" ht="24.5" hidden="1">
+    <row r="929" spans="1:12" ht="24.5">
       <c r="A929" s="2" t="s">
         <v>878</v>
       </c>
@@ -34442,7 +34443,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="930" spans="1:12" ht="36" hidden="1">
+    <row r="930" spans="1:12" ht="36">
       <c r="A930" s="2" t="s">
         <v>881</v>
       </c>
@@ -34915,7 +34916,7 @@
       </c>
       <c r="I946" s="4"/>
     </row>
-    <row r="947" spans="1:9">
+    <row r="947" spans="1:9" hidden="1">
       <c r="A947" s="2" t="s">
         <v>911</v>
       </c>
@@ -34942,7 +34943,7 @@
       </c>
       <c r="I947" s="4"/>
     </row>
-    <row r="948" spans="1:9">
+    <row r="948" spans="1:9" hidden="1">
       <c r="A948" s="2" t="s">
         <v>913</v>
       </c>
@@ -34996,7 +34997,7 @@
       </c>
       <c r="I949" s="4"/>
     </row>
-    <row r="950" spans="1:9">
+    <row r="950" spans="1:9" hidden="1">
       <c r="A950" s="2" t="s">
         <v>915</v>
       </c>
@@ -35023,7 +35024,7 @@
       </c>
       <c r="I950" s="4"/>
     </row>
-    <row r="951" spans="1:9">
+    <row r="951" spans="1:9" hidden="1">
       <c r="A951" s="2" t="s">
         <v>916</v>
       </c>
@@ -35158,7 +35159,7 @@
       </c>
       <c r="I955" s="4"/>
     </row>
-    <row r="956" spans="1:9">
+    <row r="956" spans="1:9" hidden="1">
       <c r="A956" s="2" t="s">
         <v>921</v>
       </c>
@@ -35185,7 +35186,7 @@
       </c>
       <c r="I956" s="4"/>
     </row>
-    <row r="957" spans="1:9">
+    <row r="957" spans="1:9" hidden="1">
       <c r="A957" s="2" t="s">
         <v>922</v>
       </c>
@@ -35266,7 +35267,7 @@
       </c>
       <c r="I959" s="4"/>
     </row>
-    <row r="960" spans="1:9">
+    <row r="960" spans="1:9" hidden="1">
       <c r="A960" s="2" t="s">
         <v>925</v>
       </c>
@@ -35293,7 +35294,7 @@
       </c>
       <c r="I960" s="4"/>
     </row>
-    <row r="961" spans="1:9">
+    <row r="961" spans="1:9" hidden="1">
       <c r="A961" s="2" t="s">
         <v>926</v>
       </c>
@@ -35320,7 +35321,7 @@
       </c>
       <c r="I961" s="4"/>
     </row>
-    <row r="962" spans="1:9" ht="24">
+    <row r="962" spans="1:9" ht="24" hidden="1">
       <c r="A962" s="2" t="s">
         <v>927</v>
       </c>
@@ -35347,7 +35348,7 @@
       </c>
       <c r="I962" s="4"/>
     </row>
-    <row r="963" spans="1:9">
+    <row r="963" spans="1:9" hidden="1">
       <c r="A963" s="2" t="s">
         <v>928</v>
       </c>
@@ -35374,7 +35375,7 @@
       </c>
       <c r="I963" s="4"/>
     </row>
-    <row r="964" spans="1:9">
+    <row r="964" spans="1:9" hidden="1">
       <c r="A964" s="2" t="s">
         <v>929</v>
       </c>
@@ -35401,7 +35402,7 @@
       </c>
       <c r="I964" s="4"/>
     </row>
-    <row r="965" spans="1:9" ht="24">
+    <row r="965" spans="1:9" ht="24" hidden="1">
       <c r="A965" s="2" t="s">
         <v>930</v>
       </c>
@@ -35428,7 +35429,7 @@
       </c>
       <c r="I965" s="4"/>
     </row>
-    <row r="966" spans="1:9">
+    <row r="966" spans="1:9" hidden="1">
       <c r="A966" s="2" t="s">
         <v>931</v>
       </c>
@@ -35455,7 +35456,7 @@
       </c>
       <c r="I966" s="4"/>
     </row>
-    <row r="967" spans="1:9" ht="24">
+    <row r="967" spans="1:9" ht="24" hidden="1">
       <c r="A967" s="2" t="s">
         <v>932</v>
       </c>
@@ -35482,7 +35483,7 @@
       </c>
       <c r="I967" s="4"/>
     </row>
-    <row r="968" spans="1:9" ht="24">
+    <row r="968" spans="1:9" ht="24" hidden="1">
       <c r="A968" s="2" t="s">
         <v>933</v>
       </c>
@@ -35536,7 +35537,7 @@
       </c>
       <c r="I969" s="4"/>
     </row>
-    <row r="970" spans="1:9" ht="24">
+    <row r="970" spans="1:9" ht="24" hidden="1">
       <c r="A970" s="2" t="s">
         <v>938</v>
       </c>
@@ -35563,7 +35564,7 @@
       </c>
       <c r="I970" s="4"/>
     </row>
-    <row r="971" spans="1:9" ht="24">
+    <row r="971" spans="1:9" ht="24" hidden="1">
       <c r="A971" s="2" t="s">
         <v>940</v>
       </c>
@@ -35590,7 +35591,7 @@
       </c>
       <c r="I971" s="4"/>
     </row>
-    <row r="972" spans="1:9" ht="24">
+    <row r="972" spans="1:9" ht="24" hidden="1">
       <c r="A972" s="2" t="s">
         <v>942</v>
       </c>
@@ -35644,7 +35645,7 @@
       </c>
       <c r="I973" s="4"/>
     </row>
-    <row r="974" spans="1:9" ht="24">
+    <row r="974" spans="1:9" ht="24" hidden="1">
       <c r="A974" s="2" t="s">
         <v>946</v>
       </c>
@@ -35671,7 +35672,7 @@
       </c>
       <c r="I974" s="4"/>
     </row>
-    <row r="975" spans="1:9" ht="24">
+    <row r="975" spans="1:9" ht="24" hidden="1">
       <c r="A975" s="2" t="s">
         <v>947</v>
       </c>
@@ -35698,7 +35699,7 @@
       </c>
       <c r="I975" s="4"/>
     </row>
-    <row r="976" spans="1:9" ht="24">
+    <row r="976" spans="1:9" ht="24" hidden="1">
       <c r="A976" s="2" t="s">
         <v>948</v>
       </c>
@@ -35725,7 +35726,7 @@
       </c>
       <c r="I976" s="4"/>
     </row>
-    <row r="977" spans="1:9" ht="24">
+    <row r="977" spans="1:9" ht="24" hidden="1">
       <c r="A977" s="2" t="s">
         <v>949</v>
       </c>
@@ -35752,7 +35753,7 @@
       </c>
       <c r="I977" s="4"/>
     </row>
-    <row r="978" spans="1:9" ht="24">
+    <row r="978" spans="1:9" ht="24" hidden="1">
       <c r="A978" s="2" t="s">
         <v>950</v>
       </c>
@@ -35806,7 +35807,7 @@
       </c>
       <c r="I979" s="4"/>
     </row>
-    <row r="980" spans="1:9" ht="24">
+    <row r="980" spans="1:9" ht="24" hidden="1">
       <c r="A980" s="2" t="s">
         <v>952</v>
       </c>
@@ -35833,7 +35834,7 @@
       </c>
       <c r="I980" s="4"/>
     </row>
-    <row r="981" spans="1:9" ht="24">
+    <row r="981" spans="1:9" ht="24" hidden="1">
       <c r="A981" s="2" t="s">
         <v>953</v>
       </c>
@@ -35860,7 +35861,7 @@
       </c>
       <c r="I981" s="4"/>
     </row>
-    <row r="982" spans="1:9" ht="24">
+    <row r="982" spans="1:9" ht="24" hidden="1">
       <c r="A982" s="2" t="s">
         <v>954</v>
       </c>
@@ -35914,7 +35915,7 @@
       </c>
       <c r="I983" s="4"/>
     </row>
-    <row r="984" spans="1:9" ht="24">
+    <row r="984" spans="1:9" ht="24" hidden="1">
       <c r="A984" s="2" t="s">
         <v>956</v>
       </c>
@@ -35941,7 +35942,7 @@
       </c>
       <c r="I984" s="4"/>
     </row>
-    <row r="985" spans="1:9" ht="24">
+    <row r="985" spans="1:9" ht="24" hidden="1">
       <c r="A985" s="2" t="s">
         <v>957</v>
       </c>
@@ -35968,7 +35969,7 @@
       </c>
       <c r="I985" s="4"/>
     </row>
-    <row r="986" spans="1:9" ht="24">
+    <row r="986" spans="1:9" ht="24" hidden="1">
       <c r="A986" s="2" t="s">
         <v>958</v>
       </c>
@@ -35995,7 +35996,7 @@
       </c>
       <c r="I986" s="4"/>
     </row>
-    <row r="987" spans="1:9" ht="24">
+    <row r="987" spans="1:9" ht="24" hidden="1">
       <c r="A987" s="2" t="s">
         <v>959</v>
       </c>
@@ -36022,7 +36023,7 @@
       </c>
       <c r="I987" s="4"/>
     </row>
-    <row r="988" spans="1:9" ht="24">
+    <row r="988" spans="1:9" ht="24" hidden="1">
       <c r="A988" s="2" t="s">
         <v>960</v>
       </c>
@@ -36049,7 +36050,7 @@
       </c>
       <c r="I988" s="4"/>
     </row>
-    <row r="989" spans="1:9" ht="24">
+    <row r="989" spans="1:9" ht="24" hidden="1">
       <c r="A989" s="2" t="s">
         <v>961</v>
       </c>
@@ -36076,7 +36077,7 @@
       </c>
       <c r="I989" s="4"/>
     </row>
-    <row r="990" spans="1:9" ht="24">
+    <row r="990" spans="1:9" ht="24" hidden="1">
       <c r="A990" s="2" t="s">
         <v>962</v>
       </c>
@@ -36103,7 +36104,7 @@
       </c>
       <c r="I990" s="4"/>
     </row>
-    <row r="991" spans="1:9" ht="24">
+    <row r="991" spans="1:9" ht="24" hidden="1">
       <c r="A991" s="2" t="s">
         <v>963</v>
       </c>
@@ -36130,7 +36131,7 @@
       </c>
       <c r="I991" s="4"/>
     </row>
-    <row r="992" spans="1:9" ht="24">
+    <row r="992" spans="1:9" ht="24" hidden="1">
       <c r="A992" s="2" t="s">
         <v>964</v>
       </c>
@@ -36184,7 +36185,7 @@
       </c>
       <c r="I993" s="4"/>
     </row>
-    <row r="994" spans="1:9" ht="24">
+    <row r="994" spans="1:9" ht="24" hidden="1">
       <c r="A994" s="2" t="s">
         <v>968</v>
       </c>
@@ -36211,7 +36212,7 @@
       </c>
       <c r="I994" s="4"/>
     </row>
-    <row r="995" spans="1:9" ht="36">
+    <row r="995" spans="1:9" ht="36" hidden="1">
       <c r="A995" s="2" t="s">
         <v>970</v>
       </c>
@@ -36267,7 +36268,7 @@
         <v>300000000</v>
       </c>
     </row>
-    <row r="997" spans="1:9" ht="36">
+    <row r="997" spans="1:9" ht="36" hidden="1">
       <c r="A997" s="2" t="s">
         <v>975</v>
       </c>
@@ -36321,7 +36322,7 @@
       </c>
       <c r="I998" s="4"/>
     </row>
-    <row r="999" spans="1:9" ht="36">
+    <row r="999" spans="1:9" ht="36" hidden="1">
       <c r="A999" s="2" t="s">
         <v>977</v>
       </c>
@@ -36350,7 +36351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1000" spans="1:9" ht="36">
+    <row r="1000" spans="1:9" ht="36" hidden="1">
       <c r="A1000" s="2" t="s">
         <v>979</v>
       </c>
@@ -36377,7 +36378,7 @@
       </c>
       <c r="I1000" s="4"/>
     </row>
-    <row r="1001" spans="1:9" ht="36">
+    <row r="1001" spans="1:9" ht="36" hidden="1">
       <c r="A1001" s="2" t="s">
         <v>981</v>
       </c>
@@ -36433,7 +36434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1003" spans="1:9" ht="36">
+    <row r="1003" spans="1:9" ht="36" hidden="1">
       <c r="A1003" s="2" t="s">
         <v>985</v>
       </c>
@@ -36460,7 +36461,7 @@
       </c>
       <c r="I1003" s="4"/>
     </row>
-    <row r="1004" spans="1:9" ht="36">
+    <row r="1004" spans="1:9" ht="36" hidden="1">
       <c r="A1004" s="2" t="s">
         <v>987</v>
       </c>
@@ -36487,7 +36488,7 @@
       </c>
       <c r="I1004" s="4"/>
     </row>
-    <row r="1005" spans="1:9" ht="36">
+    <row r="1005" spans="1:9" ht="36" hidden="1">
       <c r="A1005" s="2" t="s">
         <v>989</v>
       </c>
@@ -36514,7 +36515,7 @@
       </c>
       <c r="I1005" s="4"/>
     </row>
-    <row r="1006" spans="1:9" ht="36">
+    <row r="1006" spans="1:9" ht="36" hidden="1">
       <c r="A1006" s="2" t="s">
         <v>991</v>
       </c>
@@ -36622,7 +36623,7 @@
       </c>
       <c r="I1009" s="4"/>
     </row>
-    <row r="1010" spans="1:9" ht="36">
+    <row r="1010" spans="1:9" ht="36" hidden="1">
       <c r="A1010" s="2" t="s">
         <v>995</v>
       </c>
@@ -36649,7 +36650,7 @@
       </c>
       <c r="I1010" s="4"/>
     </row>
-    <row r="1011" spans="1:9" ht="36">
+    <row r="1011" spans="1:9" ht="36" hidden="1">
       <c r="A1011" s="2" t="s">
         <v>996</v>
       </c>
@@ -36676,7 +36677,7 @@
       </c>
       <c r="I1011" s="4"/>
     </row>
-    <row r="1012" spans="1:9" ht="36">
+    <row r="1012" spans="1:9" ht="36" hidden="1">
       <c r="A1012" s="2" t="s">
         <v>997</v>
       </c>
@@ -36703,7 +36704,7 @@
       </c>
       <c r="I1012" s="4"/>
     </row>
-    <row r="1013" spans="1:9" ht="36">
+    <row r="1013" spans="1:9" ht="36" hidden="1">
       <c r="A1013" s="2" t="s">
         <v>998</v>
       </c>
@@ -36730,7 +36731,7 @@
       </c>
       <c r="I1013" s="4"/>
     </row>
-    <row r="1014" spans="1:9" ht="36">
+    <row r="1014" spans="1:9" ht="36" hidden="1">
       <c r="A1014" s="2" t="s">
         <v>999</v>
       </c>
@@ -36757,7 +36758,7 @@
       </c>
       <c r="I1014" s="4"/>
     </row>
-    <row r="1015" spans="1:9" ht="36">
+    <row r="1015" spans="1:9" ht="36" hidden="1">
       <c r="A1015" s="2" t="s">
         <v>1000</v>
       </c>
@@ -36784,7 +36785,7 @@
       </c>
       <c r="I1015" s="4"/>
     </row>
-    <row r="1016" spans="1:9" ht="36">
+    <row r="1016" spans="1:9" ht="36" hidden="1">
       <c r="A1016" s="2" t="s">
         <v>1001</v>
       </c>
@@ -36811,7 +36812,7 @@
       </c>
       <c r="I1016" s="4"/>
     </row>
-    <row r="1017" spans="1:9" ht="36">
+    <row r="1017" spans="1:9" ht="36" hidden="1">
       <c r="A1017" s="2" t="s">
         <v>1002</v>
       </c>
@@ -36838,7 +36839,7 @@
       </c>
       <c r="I1017" s="4"/>
     </row>
-    <row r="1018" spans="1:9" ht="36">
+    <row r="1018" spans="1:9" ht="36" hidden="1">
       <c r="A1018" s="2" t="s">
         <v>1003</v>
       </c>
@@ -36865,7 +36866,7 @@
       </c>
       <c r="I1018" s="4"/>
     </row>
-    <row r="1019" spans="1:9" ht="36">
+    <row r="1019" spans="1:9" ht="36" hidden="1">
       <c r="A1019" s="2" t="s">
         <v>1004</v>
       </c>
@@ -37540,7 +37541,7 @@
       </c>
       <c r="I1043" s="4"/>
     </row>
-    <row r="1044" spans="1:9" ht="24">
+    <row r="1044" spans="1:9" ht="24" hidden="1">
       <c r="A1044" s="2" t="s">
         <v>1047</v>
       </c>
@@ -37675,7 +37676,7 @@
       </c>
       <c r="I1048" s="4"/>
     </row>
-    <row r="1049" spans="1:9" ht="24">
+    <row r="1049" spans="1:9" ht="24" hidden="1">
       <c r="A1049" s="2" t="s">
         <v>1052</v>
       </c>
@@ -37729,7 +37730,7 @@
       </c>
       <c r="I1050" s="4"/>
     </row>
-    <row r="1051" spans="1:9" ht="24">
+    <row r="1051" spans="1:9" ht="24" hidden="1">
       <c r="A1051" s="2" t="s">
         <v>1054</v>
       </c>
@@ -37837,7 +37838,7 @@
       </c>
       <c r="I1054" s="4"/>
     </row>
-    <row r="1055" spans="1:9" ht="24">
+    <row r="1055" spans="1:9" ht="24" hidden="1">
       <c r="A1055" s="2" t="s">
         <v>1058</v>
       </c>
@@ -37891,7 +37892,7 @@
       </c>
       <c r="I1056" s="4"/>
     </row>
-    <row r="1057" spans="1:9" ht="24">
+    <row r="1057" spans="1:9" ht="24" hidden="1">
       <c r="A1057" s="2" t="s">
         <v>1060</v>
       </c>
@@ -37918,7 +37919,7 @@
       </c>
       <c r="I1057" s="4"/>
     </row>
-    <row r="1058" spans="1:9" ht="24">
+    <row r="1058" spans="1:9" ht="24" hidden="1">
       <c r="A1058" s="2" t="s">
         <v>1061</v>
       </c>
@@ -38304,7 +38305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1072" spans="1:9" ht="24">
+    <row r="1072" spans="1:9" ht="24" hidden="1">
       <c r="A1072" s="2" t="s">
         <v>1086</v>
       </c>
@@ -38358,7 +38359,7 @@
       </c>
       <c r="I1073" s="4"/>
     </row>
-    <row r="1074" spans="1:9" ht="24">
+    <row r="1074" spans="1:9" ht="24" hidden="1">
       <c r="A1074" s="2" t="s">
         <v>1090</v>
       </c>
@@ -38412,7 +38413,7 @@
       </c>
       <c r="I1075" s="4"/>
     </row>
-    <row r="1076" spans="1:9" ht="24">
+    <row r="1076" spans="1:9" ht="24" hidden="1">
       <c r="A1076" s="2" t="s">
         <v>1094</v>
       </c>
@@ -38493,7 +38494,7 @@
       </c>
       <c r="I1078" s="4"/>
     </row>
-    <row r="1079" spans="1:9" ht="24">
+    <row r="1079" spans="1:9" ht="24" hidden="1">
       <c r="A1079" s="2" t="s">
         <v>1100</v>
       </c>
@@ -38520,7 +38521,7 @@
       </c>
       <c r="I1079" s="4"/>
     </row>
-    <row r="1080" spans="1:9" ht="24">
+    <row r="1080" spans="1:9" ht="24" hidden="1">
       <c r="A1080" s="2" t="s">
         <v>1101</v>
       </c>
@@ -38574,7 +38575,7 @@
       </c>
       <c r="I1081" s="4"/>
     </row>
-    <row r="1082" spans="1:9" ht="24">
+    <row r="1082" spans="1:9" ht="24" hidden="1">
       <c r="A1082" s="2" t="s">
         <v>1103</v>
       </c>
@@ -38763,7 +38764,7 @@
       </c>
       <c r="I1088" s="4"/>
     </row>
-    <row r="1089" spans="1:9" ht="24">
+    <row r="1089" spans="1:9" ht="24" hidden="1">
       <c r="A1089" s="2" t="s">
         <v>1110</v>
       </c>
@@ -38790,7 +38791,7 @@
       </c>
       <c r="I1089" s="4"/>
     </row>
-    <row r="1090" spans="1:9" ht="24">
+    <row r="1090" spans="1:9" ht="24" hidden="1">
       <c r="A1090" s="2" t="s">
         <v>1111</v>
       </c>
@@ -38844,7 +38845,7 @@
       </c>
       <c r="I1091" s="4"/>
     </row>
-    <row r="1092" spans="1:9" ht="24">
+    <row r="1092" spans="1:9" ht="24" hidden="1">
       <c r="A1092" s="2" t="s">
         <v>1113</v>
       </c>
@@ -38871,7 +38872,7 @@
       </c>
       <c r="I1092" s="4"/>
     </row>
-    <row r="1093" spans="1:9" ht="24">
+    <row r="1093" spans="1:9" ht="24" hidden="1">
       <c r="A1093" s="2" t="s">
         <v>1114</v>
       </c>
@@ -38979,7 +38980,7 @@
       </c>
       <c r="I1096" s="4"/>
     </row>
-    <row r="1097" spans="1:9" ht="24">
+    <row r="1097" spans="1:9" ht="24" hidden="1">
       <c r="A1097" s="2" t="s">
         <v>1118</v>
       </c>
@@ -39006,7 +39007,7 @@
       </c>
       <c r="I1097" s="4"/>
     </row>
-    <row r="1098" spans="1:9" ht="24">
+    <row r="1098" spans="1:9" ht="24" hidden="1">
       <c r="A1098" s="2" t="s">
         <v>1119</v>
       </c>
@@ -39033,7 +39034,7 @@
       </c>
       <c r="I1098" s="4"/>
     </row>
-    <row r="1099" spans="1:9" ht="24">
+    <row r="1099" spans="1:9" ht="24" hidden="1">
       <c r="A1099" s="2" t="s">
         <v>1120</v>
       </c>
@@ -39060,7 +39061,7 @@
       </c>
       <c r="I1099" s="4"/>
     </row>
-    <row r="1100" spans="1:9" ht="24">
+    <row r="1100" spans="1:9" ht="24" hidden="1">
       <c r="A1100" s="2" t="s">
         <v>1121</v>
       </c>
@@ -39087,7 +39088,7 @@
       </c>
       <c r="I1100" s="4"/>
     </row>
-    <row r="1101" spans="1:9" ht="24">
+    <row r="1101" spans="1:9" ht="24" hidden="1">
       <c r="A1101" s="2" t="s">
         <v>1122</v>
       </c>
@@ -40412,7 +40413,7 @@
       </c>
       <c r="I1149" s="4"/>
     </row>
-    <row r="1150" spans="1:9" ht="24">
+    <row r="1150" spans="1:9" ht="24" hidden="1">
       <c r="A1150" s="2" t="s">
         <v>1220</v>
       </c>
@@ -40466,7 +40467,7 @@
       </c>
       <c r="I1151" s="4"/>
     </row>
-    <row r="1152" spans="1:9" ht="24">
+    <row r="1152" spans="1:9" ht="24" hidden="1">
       <c r="A1152" s="2" t="s">
         <v>1224</v>
       </c>
@@ -40547,7 +40548,7 @@
       </c>
       <c r="I1154" s="4"/>
     </row>
-    <row r="1155" spans="1:9" ht="24">
+    <row r="1155" spans="1:9" ht="24" hidden="1">
       <c r="A1155" s="2" t="s">
         <v>1227</v>
       </c>
@@ -40817,7 +40818,7 @@
       </c>
       <c r="I1164" s="4"/>
     </row>
-    <row r="1165" spans="1:9" ht="24">
+    <row r="1165" spans="1:9" ht="24" hidden="1">
       <c r="A1165" s="2" t="s">
         <v>1237</v>
       </c>
@@ -40844,7 +40845,7 @@
       </c>
       <c r="I1165" s="4"/>
     </row>
-    <row r="1166" spans="1:9" ht="24">
+    <row r="1166" spans="1:9" ht="24" hidden="1">
       <c r="A1166" s="2" t="s">
         <v>1238</v>
       </c>
@@ -40898,7 +40899,7 @@
       </c>
       <c r="I1167" s="4"/>
     </row>
-    <row r="1168" spans="1:9" ht="24">
+    <row r="1168" spans="1:9" ht="24" hidden="1">
       <c r="A1168" s="2" t="s">
         <v>1240</v>
       </c>
@@ -40979,7 +40980,7 @@
       </c>
       <c r="I1170" s="4"/>
     </row>
-    <row r="1171" spans="1:9" ht="24">
+    <row r="1171" spans="1:9" ht="24" hidden="1">
       <c r="A1171" s="2" t="s">
         <v>1243</v>
       </c>
@@ -41060,7 +41061,7 @@
       </c>
       <c r="I1173" s="4"/>
     </row>
-    <row r="1174" spans="1:9" ht="24">
+    <row r="1174" spans="1:9" ht="24" hidden="1">
       <c r="A1174" s="2" t="s">
         <v>1246</v>
       </c>
@@ -41087,7 +41088,7 @@
       </c>
       <c r="I1174" s="4"/>
     </row>
-    <row r="1175" spans="1:9" ht="24">
+    <row r="1175" spans="1:9" ht="24" hidden="1">
       <c r="A1175" s="2" t="s">
         <v>1247</v>
       </c>
@@ -41114,7 +41115,7 @@
       </c>
       <c r="I1175" s="4"/>
     </row>
-    <row r="1176" spans="1:9" ht="24">
+    <row r="1176" spans="1:9" ht="24" hidden="1">
       <c r="A1176" s="2" t="s">
         <v>1248</v>
       </c>
@@ -41465,7 +41466,7 @@
       </c>
       <c r="I1188" s="4"/>
     </row>
-    <row r="1189" spans="1:9" ht="36">
+    <row r="1189" spans="1:9" ht="36" hidden="1">
       <c r="A1189" s="2" t="s">
         <v>1272</v>
       </c>
@@ -41546,7 +41547,7 @@
       </c>
       <c r="I1191" s="4"/>
     </row>
-    <row r="1192" spans="1:9" ht="36">
+    <row r="1192" spans="1:9" ht="36" hidden="1">
       <c r="A1192" s="2" t="s">
         <v>1278</v>
       </c>
@@ -41600,7 +41601,7 @@
       </c>
       <c r="I1193" s="4"/>
     </row>
-    <row r="1194" spans="1:9" ht="36">
+    <row r="1194" spans="1:9" ht="36" hidden="1">
       <c r="A1194" s="2" t="s">
         <v>1282</v>
       </c>
@@ -41762,7 +41763,7 @@
       </c>
       <c r="I1199" s="4"/>
     </row>
-    <row r="1200" spans="1:9" ht="48">
+    <row r="1200" spans="1:9" ht="48" hidden="1">
       <c r="A1200" s="2" t="s">
         <v>1294</v>
       </c>
@@ -42007,7 +42008,7 @@
       </c>
       <c r="I1208" s="4"/>
     </row>
-    <row r="1209" spans="1:9" ht="36">
+    <row r="1209" spans="1:9" ht="36" hidden="1">
       <c r="A1209" s="2" t="s">
         <v>1311</v>
       </c>
@@ -42034,7 +42035,7 @@
       </c>
       <c r="I1209" s="4"/>
     </row>
-    <row r="1210" spans="1:9" ht="36">
+    <row r="1210" spans="1:9" ht="36" hidden="1">
       <c r="A1210" s="2" t="s">
         <v>1312</v>
       </c>
@@ -42277,7 +42278,7 @@
       </c>
       <c r="I1218" s="4"/>
     </row>
-    <row r="1219" spans="1:9" ht="36">
+    <row r="1219" spans="1:9" ht="36" hidden="1">
       <c r="A1219" s="2" t="s">
         <v>1321</v>
       </c>
@@ -42304,7 +42305,7 @@
       </c>
       <c r="I1219" s="4"/>
     </row>
-    <row r="1220" spans="1:9" ht="36">
+    <row r="1220" spans="1:9" ht="36" hidden="1">
       <c r="A1220" s="2" t="s">
         <v>1322</v>
       </c>
@@ -42331,7 +42332,7 @@
       </c>
       <c r="I1220" s="4"/>
     </row>
-    <row r="1221" spans="1:9" ht="36">
+    <row r="1221" spans="1:9" ht="36" hidden="1">
       <c r="A1221" s="2" t="s">
         <v>1323</v>
       </c>
@@ -42412,7 +42413,7 @@
       </c>
       <c r="I1223" s="4"/>
     </row>
-    <row r="1224" spans="1:9" ht="36">
+    <row r="1224" spans="1:9" ht="36" hidden="1">
       <c r="A1224" s="2" t="s">
         <v>1326</v>
       </c>
@@ -42547,7 +42548,7 @@
       </c>
       <c r="I1228" s="4"/>
     </row>
-    <row r="1229" spans="1:9" ht="36">
+    <row r="1229" spans="1:9" ht="36" hidden="1">
       <c r="A1229" s="2" t="s">
         <v>1331</v>
       </c>
@@ -42601,7 +42602,7 @@
       </c>
       <c r="I1230" s="4"/>
     </row>
-    <row r="1231" spans="1:9" ht="36">
+    <row r="1231" spans="1:9" ht="36" hidden="1">
       <c r="A1231" s="2" t="s">
         <v>1333</v>
       </c>
@@ -42628,7 +42629,7 @@
       </c>
       <c r="I1231" s="4"/>
     </row>
-    <row r="1232" spans="1:9" ht="36">
+    <row r="1232" spans="1:9" ht="36" hidden="1">
       <c r="A1232" s="2" t="s">
         <v>1334</v>
       </c>
@@ -42682,7 +42683,7 @@
       </c>
       <c r="I1233" s="4"/>
     </row>
-    <row r="1234" spans="1:9" ht="36">
+    <row r="1234" spans="1:9" ht="36" hidden="1">
       <c r="A1234" s="2" t="s">
         <v>1336</v>
       </c>
@@ -42819,7 +42820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1239" spans="1:9" ht="36">
+    <row r="1239" spans="1:9" ht="36" hidden="1">
       <c r="A1239" s="2" t="s">
         <v>1345</v>
       </c>
@@ -43076,7 +43077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1248" spans="1:9" ht="36">
+    <row r="1248" spans="1:9" ht="36" hidden="1">
       <c r="A1248" s="2" t="s">
         <v>1363</v>
       </c>
@@ -43244,7 +43245,7 @@
       </c>
       <c r="I1253" s="4"/>
     </row>
-    <row r="1254" spans="1:9" ht="60">
+    <row r="1254" spans="1:9" ht="60" hidden="1">
       <c r="A1254" s="2" t="s">
         <v>1375</v>
       </c>
@@ -43271,7 +43272,7 @@
       </c>
       <c r="I1254" s="4"/>
     </row>
-    <row r="1255" spans="1:9" ht="36">
+    <row r="1255" spans="1:9" ht="36" hidden="1">
       <c r="A1255" s="2" t="s">
         <v>1377</v>
       </c>
@@ -43298,7 +43299,7 @@
       </c>
       <c r="I1255" s="4"/>
     </row>
-    <row r="1256" spans="1:9" ht="36">
+    <row r="1256" spans="1:9" ht="36" hidden="1">
       <c r="A1256" s="2" t="s">
         <v>1378</v>
       </c>
@@ -43325,7 +43326,7 @@
       </c>
       <c r="I1256" s="4"/>
     </row>
-    <row r="1257" spans="1:9" ht="36">
+    <row r="1257" spans="1:9" ht="36" hidden="1">
       <c r="A1257" s="2" t="s">
         <v>1379</v>
       </c>
@@ -43352,7 +43353,7 @@
       </c>
       <c r="I1257" s="4"/>
     </row>
-    <row r="1258" spans="1:9" ht="36">
+    <row r="1258" spans="1:9" ht="36" hidden="1">
       <c r="A1258" s="2" t="s">
         <v>1380</v>
       </c>
@@ -43379,7 +43380,7 @@
       </c>
       <c r="I1258" s="4"/>
     </row>
-    <row r="1259" spans="1:9" ht="36">
+    <row r="1259" spans="1:9" ht="36" hidden="1">
       <c r="A1259" s="2" t="s">
         <v>1381</v>
       </c>
@@ -43406,7 +43407,7 @@
       </c>
       <c r="I1259" s="4"/>
     </row>
-    <row r="1260" spans="1:9" ht="36">
+    <row r="1260" spans="1:9" ht="36" hidden="1">
       <c r="A1260" s="2" t="s">
         <v>1382</v>
       </c>
@@ -43433,7 +43434,7 @@
       </c>
       <c r="I1260" s="4"/>
     </row>
-    <row r="1261" spans="1:9" ht="36">
+    <row r="1261" spans="1:9" ht="36" hidden="1">
       <c r="A1261" s="2" t="s">
         <v>1383</v>
       </c>
@@ -43460,7 +43461,7 @@
       </c>
       <c r="I1261" s="4"/>
     </row>
-    <row r="1262" spans="1:9" ht="36">
+    <row r="1262" spans="1:9" ht="36" hidden="1">
       <c r="A1262" s="2" t="s">
         <v>1384</v>
       </c>
@@ -43487,7 +43488,7 @@
       </c>
       <c r="I1262" s="4"/>
     </row>
-    <row r="1263" spans="1:9" ht="36">
+    <row r="1263" spans="1:9" ht="36" hidden="1">
       <c r="A1263" s="2" t="s">
         <v>1385</v>
       </c>
@@ -43514,7 +43515,7 @@
       </c>
       <c r="I1263" s="4"/>
     </row>
-    <row r="1264" spans="1:9" ht="36">
+    <row r="1264" spans="1:9" ht="36" hidden="1">
       <c r="A1264" s="2" t="s">
         <v>1386</v>
       </c>
@@ -43541,7 +43542,7 @@
       </c>
       <c r="I1264" s="4"/>
     </row>
-    <row r="1265" spans="1:9" ht="36">
+    <row r="1265" spans="1:9" ht="36" hidden="1">
       <c r="A1265" s="2" t="s">
         <v>1387</v>
       </c>
@@ -43622,7 +43623,7 @@
       </c>
       <c r="I1267" s="4"/>
     </row>
-    <row r="1268" spans="1:9" ht="24">
+    <row r="1268" spans="1:9" ht="24" hidden="1">
       <c r="A1268" s="2" t="s">
         <v>1393</v>
       </c>
@@ -43730,7 +43731,7 @@
       </c>
       <c r="I1271" s="4"/>
     </row>
-    <row r="1272" spans="1:9">
+    <row r="1272" spans="1:9" hidden="1">
       <c r="A1272" s="2" t="s">
         <v>1401</v>
       </c>
@@ -43757,7 +43758,7 @@
       </c>
       <c r="I1272" s="4"/>
     </row>
-    <row r="1273" spans="1:9">
+    <row r="1273" spans="1:9" hidden="1">
       <c r="A1273" s="2" t="s">
         <v>1403</v>
       </c>
@@ -43811,7 +43812,7 @@
       </c>
       <c r="I1274" s="4"/>
     </row>
-    <row r="1275" spans="1:9">
+    <row r="1275" spans="1:9" hidden="1">
       <c r="A1275" s="2" t="s">
         <v>1405</v>
       </c>
@@ -43865,7 +43866,7 @@
       </c>
       <c r="I1276" s="4"/>
     </row>
-    <row r="1277" spans="1:9">
+    <row r="1277" spans="1:9" hidden="1">
       <c r="A1277" s="2" t="s">
         <v>1407</v>
       </c>
@@ -43892,7 +43893,7 @@
       </c>
       <c r="I1277" s="4"/>
     </row>
-    <row r="1278" spans="1:9">
+    <row r="1278" spans="1:9" hidden="1">
       <c r="A1278" s="2" t="s">
         <v>1408</v>
       </c>
@@ -43919,7 +43920,7 @@
       </c>
       <c r="I1278" s="4"/>
     </row>
-    <row r="1279" spans="1:9">
+    <row r="1279" spans="1:9" hidden="1">
       <c r="A1279" s="2" t="s">
         <v>1409</v>
       </c>
@@ -43946,7 +43947,7 @@
       </c>
       <c r="I1279" s="4"/>
     </row>
-    <row r="1280" spans="1:9">
+    <row r="1280" spans="1:9" hidden="1">
       <c r="A1280" s="2" t="s">
         <v>1410</v>
       </c>
@@ -43973,7 +43974,7 @@
       </c>
       <c r="I1280" s="4"/>
     </row>
-    <row r="1281" spans="1:9" ht="24">
+    <row r="1281" spans="1:9" ht="24" hidden="1">
       <c r="A1281" s="2" t="s">
         <v>1411</v>
       </c>
@@ -44054,7 +44055,7 @@
       </c>
       <c r="I1283" s="4"/>
     </row>
-    <row r="1284" spans="1:9" ht="24">
+    <row r="1284" spans="1:9" ht="24" hidden="1">
       <c r="A1284" s="2" t="s">
         <v>1417</v>
       </c>
@@ -44108,7 +44109,7 @@
       </c>
       <c r="I1285" s="4"/>
     </row>
-    <row r="1286" spans="1:9" ht="24">
+    <row r="1286" spans="1:9" ht="24" hidden="1">
       <c r="A1286" s="2" t="s">
         <v>1421</v>
       </c>
@@ -44135,7 +44136,7 @@
       </c>
       <c r="I1286" s="4"/>
     </row>
-    <row r="1287" spans="1:9" ht="24">
+    <row r="1287" spans="1:9" ht="24" hidden="1">
       <c r="A1287" s="2" t="s">
         <v>1423</v>
       </c>
@@ -44189,7 +44190,7 @@
       </c>
       <c r="I1288" s="4"/>
     </row>
-    <row r="1289" spans="1:9" ht="24">
+    <row r="1289" spans="1:9" ht="24" hidden="1">
       <c r="A1289" s="2" t="s">
         <v>1427</v>
       </c>
@@ -44216,7 +44217,7 @@
       </c>
       <c r="I1289" s="4"/>
     </row>
-    <row r="1290" spans="1:9" ht="24">
+    <row r="1290" spans="1:9" ht="24" hidden="1">
       <c r="A1290" s="2" t="s">
         <v>1429</v>
       </c>
@@ -44243,7 +44244,7 @@
       </c>
       <c r="I1290" s="4"/>
     </row>
-    <row r="1291" spans="1:9" ht="24">
+    <row r="1291" spans="1:9" ht="24" hidden="1">
       <c r="A1291" s="2" t="s">
         <v>1431</v>
       </c>
@@ -44270,7 +44271,7 @@
       </c>
       <c r="I1291" s="4"/>
     </row>
-    <row r="1292" spans="1:9" ht="24">
+    <row r="1292" spans="1:9" ht="24" hidden="1">
       <c r="A1292" s="2" t="s">
         <v>1432</v>
       </c>
@@ -44324,7 +44325,7 @@
       </c>
       <c r="I1293" s="4"/>
     </row>
-    <row r="1294" spans="1:9" ht="24">
+    <row r="1294" spans="1:9" ht="24" hidden="1">
       <c r="A1294" s="2" t="s">
         <v>1434</v>
       </c>
@@ -44459,7 +44460,7 @@
       </c>
       <c r="I1298" s="4"/>
     </row>
-    <row r="1299" spans="1:9" ht="24">
+    <row r="1299" spans="1:9" ht="24" hidden="1">
       <c r="A1299" s="2" t="s">
         <v>1439</v>
       </c>
@@ -44486,7 +44487,7 @@
       </c>
       <c r="I1299" s="4"/>
     </row>
-    <row r="1300" spans="1:9" ht="24">
+    <row r="1300" spans="1:9" ht="24" hidden="1">
       <c r="A1300" s="2" t="s">
         <v>1440</v>
       </c>
@@ -44513,7 +44514,7 @@
       </c>
       <c r="I1300" s="4"/>
     </row>
-    <row r="1301" spans="1:9" ht="24">
+    <row r="1301" spans="1:9" ht="24" hidden="1">
       <c r="A1301" s="2" t="s">
         <v>1441</v>
       </c>
@@ -44567,7 +44568,7 @@
       </c>
       <c r="I1302" s="4"/>
     </row>
-    <row r="1303" spans="1:9" ht="24">
+    <row r="1303" spans="1:9" ht="24" hidden="1">
       <c r="A1303" s="2" t="s">
         <v>1443</v>
       </c>
@@ -44675,7 +44676,7 @@
       </c>
       <c r="I1306" s="4"/>
     </row>
-    <row r="1307" spans="1:9" ht="24">
+    <row r="1307" spans="1:9" ht="24" hidden="1">
       <c r="A1307" s="2" t="s">
         <v>1447</v>
       </c>
@@ -44729,7 +44730,7 @@
       </c>
       <c r="I1308" s="4"/>
     </row>
-    <row r="1309" spans="1:9" ht="24">
+    <row r="1309" spans="1:9" ht="24" hidden="1">
       <c r="A1309" s="2" t="s">
         <v>1449</v>
       </c>
@@ -44783,7 +44784,7 @@
       </c>
       <c r="I1310" s="4"/>
     </row>
-    <row r="1311" spans="1:9" ht="24">
+    <row r="1311" spans="1:9" ht="24" hidden="1">
       <c r="A1311" s="2" t="s">
         <v>1451</v>
       </c>
@@ -44810,7 +44811,7 @@
       </c>
       <c r="I1311" s="4"/>
     </row>
-    <row r="1312" spans="1:9" ht="24">
+    <row r="1312" spans="1:9" ht="24" hidden="1">
       <c r="A1312" s="2" t="s">
         <v>1452</v>
       </c>
@@ -44918,7 +44919,7 @@
       </c>
       <c r="I1315" s="4"/>
     </row>
-    <row r="1316" spans="1:9" ht="24">
+    <row r="1316" spans="1:9" ht="24" hidden="1">
       <c r="A1316" s="2" t="s">
         <v>1459</v>
       </c>
@@ -44945,7 +44946,7 @@
       </c>
       <c r="I1316" s="4"/>
     </row>
-    <row r="1317" spans="1:9" ht="36">
+    <row r="1317" spans="1:9" ht="36" hidden="1">
       <c r="A1317" s="2" t="s">
         <v>1461</v>
       </c>
@@ -44972,7 +44973,7 @@
       </c>
       <c r="I1317" s="4"/>
     </row>
-    <row r="1318" spans="1:9" ht="36">
+    <row r="1318" spans="1:9" ht="36" hidden="1">
       <c r="A1318" s="2" t="s">
         <v>1464</v>
       </c>
@@ -44999,7 +45000,7 @@
       </c>
       <c r="I1318" s="4"/>
     </row>
-    <row r="1319" spans="1:9" ht="36">
+    <row r="1319" spans="1:9" ht="36" hidden="1">
       <c r="A1319" s="2" t="s">
         <v>1466</v>
       </c>
@@ -45026,7 +45027,7 @@
       </c>
       <c r="I1319" s="4"/>
     </row>
-    <row r="1320" spans="1:9" ht="36">
+    <row r="1320" spans="1:9" ht="36" hidden="1">
       <c r="A1320" s="2" t="s">
         <v>1468</v>
       </c>
@@ -45053,7 +45054,7 @@
       </c>
       <c r="I1320" s="4"/>
     </row>
-    <row r="1321" spans="1:9" ht="36">
+    <row r="1321" spans="1:9" ht="36" hidden="1">
       <c r="A1321" s="2" t="s">
         <v>1470</v>
       </c>
@@ -45080,7 +45081,7 @@
       </c>
       <c r="I1321" s="4"/>
     </row>
-    <row r="1322" spans="1:9" ht="36">
+    <row r="1322" spans="1:9" ht="36" hidden="1">
       <c r="A1322" s="2" t="s">
         <v>1472</v>
       </c>
@@ -45107,7 +45108,7 @@
       </c>
       <c r="I1322" s="4"/>
     </row>
-    <row r="1323" spans="1:9" ht="36">
+    <row r="1323" spans="1:9" ht="36" hidden="1">
       <c r="A1323" s="2" t="s">
         <v>1474</v>
       </c>
@@ -45134,7 +45135,7 @@
       </c>
       <c r="I1323" s="4"/>
     </row>
-    <row r="1324" spans="1:9" ht="36">
+    <row r="1324" spans="1:9" ht="36" hidden="1">
       <c r="A1324" s="2" t="s">
         <v>1476</v>
       </c>
@@ -45161,7 +45162,7 @@
       </c>
       <c r="I1324" s="4"/>
     </row>
-    <row r="1325" spans="1:9" ht="36">
+    <row r="1325" spans="1:9" ht="36" hidden="1">
       <c r="A1325" s="2" t="s">
         <v>1478</v>
       </c>
@@ -45188,7 +45189,7 @@
       </c>
       <c r="I1325" s="4"/>
     </row>
-    <row r="1326" spans="1:9" ht="36">
+    <row r="1326" spans="1:9" ht="36" hidden="1">
       <c r="A1326" s="2" t="s">
         <v>1480</v>
       </c>
@@ -45215,7 +45216,7 @@
       </c>
       <c r="I1326" s="4"/>
     </row>
-    <row r="1327" spans="1:9" ht="36">
+    <row r="1327" spans="1:9" ht="36" hidden="1">
       <c r="A1327" s="2" t="s">
         <v>1482</v>
       </c>
@@ -45269,7 +45270,7 @@
       </c>
       <c r="I1328" s="4"/>
     </row>
-    <row r="1329" spans="1:9" ht="36">
+    <row r="1329" spans="1:9" ht="36" hidden="1">
       <c r="A1329" s="2" t="s">
         <v>1486</v>
       </c>
@@ -45296,7 +45297,7 @@
       </c>
       <c r="I1329" s="4"/>
     </row>
-    <row r="1330" spans="1:9" ht="36">
+    <row r="1330" spans="1:9" ht="36" hidden="1">
       <c r="A1330" s="2" t="s">
         <v>1488</v>
       </c>
@@ -45323,7 +45324,7 @@
       </c>
       <c r="I1330" s="4"/>
     </row>
-    <row r="1331" spans="1:9" ht="36">
+    <row r="1331" spans="1:9" ht="36" hidden="1">
       <c r="A1331" s="2" t="s">
         <v>1490</v>
       </c>
@@ -45350,7 +45351,7 @@
       </c>
       <c r="I1331" s="4"/>
     </row>
-    <row r="1332" spans="1:9" ht="36">
+    <row r="1332" spans="1:9" ht="36" hidden="1">
       <c r="A1332" s="2" t="s">
         <v>1491</v>
       </c>
@@ -45377,7 +45378,7 @@
       </c>
       <c r="I1332" s="4"/>
     </row>
-    <row r="1333" spans="1:9" ht="36">
+    <row r="1333" spans="1:9" ht="36" hidden="1">
       <c r="A1333" s="2" t="s">
         <v>1492</v>
       </c>
@@ -45404,7 +45405,7 @@
       </c>
       <c r="I1333" s="4"/>
     </row>
-    <row r="1334" spans="1:9" ht="36">
+    <row r="1334" spans="1:9" ht="36" hidden="1">
       <c r="A1334" s="2" t="s">
         <v>1493</v>
       </c>
@@ -45431,7 +45432,7 @@
       </c>
       <c r="I1334" s="4"/>
     </row>
-    <row r="1335" spans="1:9" ht="36">
+    <row r="1335" spans="1:9" ht="36" hidden="1">
       <c r="A1335" s="2" t="s">
         <v>1494</v>
       </c>
@@ -45458,7 +45459,7 @@
       </c>
       <c r="I1335" s="4"/>
     </row>
-    <row r="1336" spans="1:9" ht="36">
+    <row r="1336" spans="1:9" ht="36" hidden="1">
       <c r="A1336" s="2" t="s">
         <v>1495</v>
       </c>
@@ -45485,7 +45486,7 @@
       </c>
       <c r="I1336" s="4"/>
     </row>
-    <row r="1337" spans="1:9" ht="36">
+    <row r="1337" spans="1:9" ht="36" hidden="1">
       <c r="A1337" s="2" t="s">
         <v>1496</v>
       </c>
@@ -45512,7 +45513,7 @@
       </c>
       <c r="I1337" s="4"/>
     </row>
-    <row r="1338" spans="1:9" ht="36">
+    <row r="1338" spans="1:9" ht="36" hidden="1">
       <c r="A1338" s="2" t="s">
         <v>1497</v>
       </c>
@@ -45539,7 +45540,7 @@
       </c>
       <c r="I1338" s="4"/>
     </row>
-    <row r="1339" spans="1:9" ht="36">
+    <row r="1339" spans="1:9" ht="36" hidden="1">
       <c r="A1339" s="2" t="s">
         <v>1498</v>
       </c>
@@ -45566,7 +45567,7 @@
       </c>
       <c r="I1339" s="4"/>
     </row>
-    <row r="1340" spans="1:9" ht="36">
+    <row r="1340" spans="1:9" ht="36" hidden="1">
       <c r="A1340" s="2" t="s">
         <v>1499</v>
       </c>
@@ -45593,7 +45594,7 @@
       </c>
       <c r="I1340" s="4"/>
     </row>
-    <row r="1341" spans="1:9" ht="36">
+    <row r="1341" spans="1:9" ht="36" hidden="1">
       <c r="A1341" s="2" t="s">
         <v>1500</v>
       </c>
@@ -45620,7 +45621,7 @@
       </c>
       <c r="I1341" s="4"/>
     </row>
-    <row r="1342" spans="1:9" ht="36">
+    <row r="1342" spans="1:9" ht="36" hidden="1">
       <c r="A1342" s="2" t="s">
         <v>1501</v>
       </c>
@@ -45647,7 +45648,7 @@
       </c>
       <c r="I1342" s="4"/>
     </row>
-    <row r="1343" spans="1:9" ht="36">
+    <row r="1343" spans="1:9" ht="36" hidden="1">
       <c r="A1343" s="2" t="s">
         <v>1502</v>
       </c>
@@ -45674,7 +45675,7 @@
       </c>
       <c r="I1343" s="4"/>
     </row>
-    <row r="1344" spans="1:9" ht="36">
+    <row r="1344" spans="1:9" ht="36" hidden="1">
       <c r="A1344" s="2" t="s">
         <v>1503</v>
       </c>
@@ -45701,7 +45702,7 @@
       </c>
       <c r="I1344" s="4"/>
     </row>
-    <row r="1345" spans="1:9" ht="36">
+    <row r="1345" spans="1:9" ht="36" hidden="1">
       <c r="A1345" s="2" t="s">
         <v>1504</v>
       </c>
@@ -45728,7 +45729,7 @@
       </c>
       <c r="I1345" s="4"/>
     </row>
-    <row r="1346" spans="1:9" ht="36">
+    <row r="1346" spans="1:9" ht="36" hidden="1">
       <c r="A1346" s="2" t="s">
         <v>1505</v>
       </c>
@@ -45755,7 +45756,7 @@
       </c>
       <c r="I1346" s="4"/>
     </row>
-    <row r="1347" spans="1:9" ht="36">
+    <row r="1347" spans="1:9" ht="36" hidden="1">
       <c r="A1347" s="2" t="s">
         <v>1506</v>
       </c>
@@ -45782,7 +45783,7 @@
       </c>
       <c r="I1347" s="4"/>
     </row>
-    <row r="1348" spans="1:9" ht="36">
+    <row r="1348" spans="1:9" ht="36" hidden="1">
       <c r="A1348" s="2" t="s">
         <v>1507</v>
       </c>
@@ -45809,7 +45810,7 @@
       </c>
       <c r="I1348" s="4"/>
     </row>
-    <row r="1349" spans="1:9" ht="36">
+    <row r="1349" spans="1:9" ht="36" hidden="1">
       <c r="A1349" s="2" t="s">
         <v>1508</v>
       </c>
@@ -45836,7 +45837,7 @@
       </c>
       <c r="I1349" s="4"/>
     </row>
-    <row r="1350" spans="1:9" ht="36">
+    <row r="1350" spans="1:9" ht="36" hidden="1">
       <c r="A1350" s="2" t="s">
         <v>1509</v>
       </c>
@@ -45863,7 +45864,7 @@
       </c>
       <c r="I1350" s="4"/>
     </row>
-    <row r="1351" spans="1:9" ht="36">
+    <row r="1351" spans="1:9" ht="36" hidden="1">
       <c r="A1351" s="2" t="s">
         <v>1510</v>
       </c>
@@ -45971,7 +45972,7 @@
       </c>
       <c r="I1354" s="4"/>
     </row>
-    <row r="1355" spans="1:9" ht="48">
+    <row r="1355" spans="1:9" ht="48" hidden="1">
       <c r="A1355" s="2" t="s">
         <v>1518</v>
       </c>
@@ -45998,7 +45999,7 @@
       </c>
       <c r="I1355" s="4"/>
     </row>
-    <row r="1356" spans="1:9" ht="48">
+    <row r="1356" spans="1:9" ht="48" hidden="1">
       <c r="A1356" s="2" t="s">
         <v>1520</v>
       </c>
@@ -46025,7 +46026,7 @@
       </c>
       <c r="I1356" s="4"/>
     </row>
-    <row r="1357" spans="1:9" ht="48">
+    <row r="1357" spans="1:9" ht="48" hidden="1">
       <c r="A1357" s="2" t="s">
         <v>1522</v>
       </c>
@@ -46052,7 +46053,7 @@
       </c>
       <c r="I1357" s="4"/>
     </row>
-    <row r="1358" spans="1:9" ht="48">
+    <row r="1358" spans="1:9" ht="48" hidden="1">
       <c r="A1358" s="2" t="s">
         <v>1524</v>
       </c>
@@ -46106,7 +46107,7 @@
       </c>
       <c r="I1359" s="4"/>
     </row>
-    <row r="1360" spans="1:9" ht="48">
+    <row r="1360" spans="1:9" ht="48" hidden="1">
       <c r="A1360" s="2" t="s">
         <v>1528</v>
       </c>
@@ -46160,7 +46161,7 @@
       </c>
       <c r="I1361" s="4"/>
     </row>
-    <row r="1362" spans="1:9" ht="48">
+    <row r="1362" spans="1:9" ht="48" hidden="1">
       <c r="A1362" s="2" t="s">
         <v>1532</v>
       </c>
@@ -46241,7 +46242,7 @@
       </c>
       <c r="I1364" s="4"/>
     </row>
-    <row r="1365" spans="1:9" ht="48">
+    <row r="1365" spans="1:9" ht="48" hidden="1">
       <c r="A1365" s="2" t="s">
         <v>1538</v>
       </c>
@@ -46268,7 +46269,7 @@
       </c>
       <c r="I1365" s="4"/>
     </row>
-    <row r="1366" spans="1:9" ht="48">
+    <row r="1366" spans="1:9" ht="48" hidden="1">
       <c r="A1366" s="2" t="s">
         <v>1540</v>
       </c>
@@ -46295,7 +46296,7 @@
       </c>
       <c r="I1366" s="4"/>
     </row>
-    <row r="1367" spans="1:9" ht="48">
+    <row r="1367" spans="1:9" ht="48" hidden="1">
       <c r="A1367" s="2" t="s">
         <v>1541</v>
       </c>
@@ -46322,7 +46323,7 @@
       </c>
       <c r="I1367" s="4"/>
     </row>
-    <row r="1368" spans="1:9" ht="48">
+    <row r="1368" spans="1:9" ht="48" hidden="1">
       <c r="A1368" s="2" t="s">
         <v>1542</v>
       </c>
@@ -46349,7 +46350,7 @@
       </c>
       <c r="I1368" s="4"/>
     </row>
-    <row r="1369" spans="1:9" ht="48">
+    <row r="1369" spans="1:9" ht="48" hidden="1">
       <c r="A1369" s="2" t="s">
         <v>1543</v>
       </c>
@@ -46376,7 +46377,7 @@
       </c>
       <c r="I1369" s="4"/>
     </row>
-    <row r="1370" spans="1:9" ht="48">
+    <row r="1370" spans="1:9" ht="48" hidden="1">
       <c r="A1370" s="2" t="s">
         <v>1544</v>
       </c>
@@ -46403,7 +46404,7 @@
       </c>
       <c r="I1370" s="4"/>
     </row>
-    <row r="1371" spans="1:9" ht="48">
+    <row r="1371" spans="1:9" ht="48" hidden="1">
       <c r="A1371" s="2" t="s">
         <v>1545</v>
       </c>
@@ -46484,7 +46485,7 @@
       </c>
       <c r="I1373" s="4"/>
     </row>
-    <row r="1374" spans="1:9" ht="48">
+    <row r="1374" spans="1:9" ht="48" hidden="1">
       <c r="A1374" s="2" t="s">
         <v>1548</v>
       </c>
@@ -46511,7 +46512,7 @@
       </c>
       <c r="I1374" s="4"/>
     </row>
-    <row r="1375" spans="1:9" ht="48">
+    <row r="1375" spans="1:9" ht="48" hidden="1">
       <c r="A1375" s="2" t="s">
         <v>1549</v>
       </c>
@@ -46538,7 +46539,7 @@
       </c>
       <c r="I1375" s="4"/>
     </row>
-    <row r="1376" spans="1:9" ht="48">
+    <row r="1376" spans="1:9" ht="48" hidden="1">
       <c r="A1376" s="2" t="s">
         <v>1550</v>
       </c>
@@ -46565,7 +46566,7 @@
       </c>
       <c r="I1376" s="4"/>
     </row>
-    <row r="1377" spans="1:9" ht="48">
+    <row r="1377" spans="1:9" ht="48" hidden="1">
       <c r="A1377" s="2" t="s">
         <v>1551</v>
       </c>
@@ -46592,7 +46593,7 @@
       </c>
       <c r="I1377" s="4"/>
     </row>
-    <row r="1378" spans="1:9" ht="48">
+    <row r="1378" spans="1:9" ht="48" hidden="1">
       <c r="A1378" s="2" t="s">
         <v>1552</v>
       </c>
@@ -46619,7 +46620,7 @@
       </c>
       <c r="I1378" s="4"/>
     </row>
-    <row r="1379" spans="1:9" ht="48">
+    <row r="1379" spans="1:9" ht="48" hidden="1">
       <c r="A1379" s="2" t="s">
         <v>1553</v>
       </c>
@@ -46673,7 +46674,7 @@
       </c>
       <c r="I1380" s="4"/>
     </row>
-    <row r="1381" spans="1:9" ht="48">
+    <row r="1381" spans="1:9" ht="48" hidden="1">
       <c r="A1381" s="2" t="s">
         <v>1555</v>
       </c>
@@ -46727,7 +46728,7 @@
       </c>
       <c r="I1382" s="4"/>
     </row>
-    <row r="1383" spans="1:9" ht="48">
+    <row r="1383" spans="1:9" ht="48" hidden="1">
       <c r="A1383" s="2" t="s">
         <v>1557</v>
       </c>
@@ -46835,7 +46836,7 @@
       </c>
       <c r="I1386" s="4"/>
     </row>
-    <row r="1387" spans="1:9" ht="48">
+    <row r="1387" spans="1:9" ht="48" hidden="1">
       <c r="A1387" s="2" t="s">
         <v>1562</v>
       </c>
@@ -46889,7 +46890,7 @@
       </c>
       <c r="I1388" s="4"/>
     </row>
-    <row r="1389" spans="1:9" ht="48">
+    <row r="1389" spans="1:9" ht="48" hidden="1">
       <c r="A1389" s="2" t="s">
         <v>1564</v>
       </c>
@@ -46943,7 +46944,7 @@
       </c>
       <c r="I1390" s="4"/>
     </row>
-    <row r="1391" spans="1:9" ht="48">
+    <row r="1391" spans="1:9" ht="48" hidden="1">
       <c r="A1391" s="2" t="s">
         <v>1566</v>
       </c>
@@ -46970,7 +46971,7 @@
       </c>
       <c r="I1391" s="4"/>
     </row>
-    <row r="1392" spans="1:9" ht="48">
+    <row r="1392" spans="1:9" ht="48" hidden="1">
       <c r="A1392" s="2" t="s">
         <v>1567</v>
       </c>
@@ -47078,7 +47079,7 @@
       </c>
       <c r="I1395" s="4"/>
     </row>
-    <row r="1396" spans="1:9" ht="48">
+    <row r="1396" spans="1:9" ht="48" hidden="1">
       <c r="A1396" s="2" t="s">
         <v>1573</v>
       </c>
@@ -47105,7 +47106,7 @@
       </c>
       <c r="I1396" s="4"/>
     </row>
-    <row r="1397" spans="1:9" ht="48">
+    <row r="1397" spans="1:9" ht="48" hidden="1">
       <c r="A1397" s="2" t="s">
         <v>1574</v>
       </c>
@@ -47132,7 +47133,7 @@
       </c>
       <c r="I1397" s="4"/>
     </row>
-    <row r="1398" spans="1:9" ht="48">
+    <row r="1398" spans="1:9" ht="48" hidden="1">
       <c r="A1398" s="2" t="s">
         <v>1575</v>
       </c>
@@ -47333,7 +47334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1405" spans="1:9" ht="24">
+    <row r="1405" spans="1:9" ht="24" hidden="1">
       <c r="A1405" s="2" t="s">
         <v>1589</v>
       </c>
@@ -47623,7 +47624,7 @@
         <v>250000000</v>
       </c>
     </row>
-    <row r="1415" spans="1:9" ht="24">
+    <row r="1415" spans="1:9" ht="24" hidden="1">
       <c r="A1415" s="2" t="s">
         <v>1607</v>
       </c>
@@ -47677,7 +47678,7 @@
       </c>
       <c r="I1416" s="4"/>
     </row>
-    <row r="1417" spans="1:9" ht="24">
+    <row r="1417" spans="1:9" ht="24" hidden="1">
       <c r="A1417" s="2" t="s">
         <v>1609</v>
       </c>
@@ -47731,7 +47732,7 @@
       </c>
       <c r="I1418" s="4"/>
     </row>
-    <row r="1419" spans="1:9" ht="24">
+    <row r="1419" spans="1:9" ht="24" hidden="1">
       <c r="A1419" s="2" t="s">
         <v>1611</v>
       </c>
@@ -47785,7 +47786,7 @@
       </c>
       <c r="I1420" s="4"/>
     </row>
-    <row r="1421" spans="1:9" ht="24">
+    <row r="1421" spans="1:9" ht="24" hidden="1">
       <c r="A1421" s="2" t="s">
         <v>1613</v>
       </c>
@@ -47812,7 +47813,7 @@
       </c>
       <c r="I1421" s="4"/>
     </row>
-    <row r="1422" spans="1:9" ht="24">
+    <row r="1422" spans="1:9" ht="24" hidden="1">
       <c r="A1422" s="2" t="s">
         <v>1614</v>
       </c>
@@ -47866,7 +47867,7 @@
       </c>
       <c r="I1423" s="4"/>
     </row>
-    <row r="1424" spans="1:9" ht="24">
+    <row r="1424" spans="1:9" ht="24" hidden="1">
       <c r="A1424" s="2" t="s">
         <v>1616</v>
       </c>
@@ -48471,7 +48472,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="1445" spans="1:9" ht="24">
+    <row r="1445" spans="1:9" ht="24" hidden="1">
       <c r="A1445" s="2" t="s">
         <v>1657</v>
       </c>
@@ -48498,7 +48499,7 @@
       </c>
       <c r="I1445" s="4"/>
     </row>
-    <row r="1446" spans="1:9" ht="24">
+    <row r="1446" spans="1:9" ht="24" hidden="1">
       <c r="A1446" s="2" t="s">
         <v>1658</v>
       </c>
@@ -48525,7 +48526,7 @@
       </c>
       <c r="I1446" s="4"/>
     </row>
-    <row r="1447" spans="1:9" ht="24">
+    <row r="1447" spans="1:9" ht="24" hidden="1">
       <c r="A1447" s="2" t="s">
         <v>1659</v>
       </c>
@@ -48552,7 +48553,7 @@
       </c>
       <c r="I1447" s="4"/>
     </row>
-    <row r="1448" spans="1:9" ht="24">
+    <row r="1448" spans="1:9" ht="24" hidden="1">
       <c r="A1448" s="2" t="s">
         <v>1660</v>
       </c>
@@ -48579,7 +48580,7 @@
       </c>
       <c r="I1448" s="4"/>
     </row>
-    <row r="1449" spans="1:9" ht="24">
+    <row r="1449" spans="1:9" ht="24" hidden="1">
       <c r="A1449" s="2" t="s">
         <v>1661</v>
       </c>
@@ -48606,7 +48607,7 @@
       </c>
       <c r="I1449" s="4"/>
     </row>
-    <row r="1450" spans="1:9" ht="24">
+    <row r="1450" spans="1:9" ht="24" hidden="1">
       <c r="A1450" s="2" t="s">
         <v>1662</v>
       </c>
@@ -48633,7 +48634,7 @@
       </c>
       <c r="I1450" s="4"/>
     </row>
-    <row r="1451" spans="1:9" ht="24">
+    <row r="1451" spans="1:9" ht="24" hidden="1">
       <c r="A1451" s="2" t="s">
         <v>1663</v>
       </c>
@@ -48660,7 +48661,7 @@
       </c>
       <c r="I1451" s="4"/>
     </row>
-    <row r="1452" spans="1:9" ht="24">
+    <row r="1452" spans="1:9" ht="24" hidden="1">
       <c r="A1452" s="2" t="s">
         <v>1664</v>
       </c>
@@ -48687,7 +48688,7 @@
       </c>
       <c r="I1452" s="4"/>
     </row>
-    <row r="1453" spans="1:9" ht="24">
+    <row r="1453" spans="1:9" ht="24" hidden="1">
       <c r="A1453" s="2" t="s">
         <v>1665</v>
       </c>
@@ -48714,7 +48715,7 @@
       </c>
       <c r="I1453" s="4"/>
     </row>
-    <row r="1454" spans="1:9" ht="24">
+    <row r="1454" spans="1:9" ht="24" hidden="1">
       <c r="A1454" s="2" t="s">
         <v>1666</v>
       </c>
@@ -48741,7 +48742,7 @@
       </c>
       <c r="I1454" s="4"/>
     </row>
-    <row r="1455" spans="1:9" ht="24">
+    <row r="1455" spans="1:9" ht="24" hidden="1">
       <c r="A1455" s="2" t="s">
         <v>1667</v>
       </c>
@@ -48768,7 +48769,7 @@
       </c>
       <c r="I1455" s="4"/>
     </row>
-    <row r="1456" spans="1:9" ht="24">
+    <row r="1456" spans="1:9" ht="24" hidden="1">
       <c r="A1456" s="2" t="s">
         <v>1668</v>
       </c>
@@ -48795,7 +48796,7 @@
       </c>
       <c r="I1456" s="4"/>
     </row>
-    <row r="1457" spans="1:9" ht="24">
+    <row r="1457" spans="1:9" ht="24" hidden="1">
       <c r="A1457" s="2" t="s">
         <v>1670</v>
       </c>
@@ -48822,7 +48823,7 @@
       </c>
       <c r="I1457" s="4"/>
     </row>
-    <row r="1458" spans="1:9">
+    <row r="1458" spans="1:9" hidden="1">
       <c r="A1458" s="2" t="s">
         <v>1672</v>
       </c>
@@ -48934,7 +48935,7 @@
         <v>147912000</v>
       </c>
     </row>
-    <row r="1462" spans="1:9" ht="24">
+    <row r="1462" spans="1:9" ht="24" hidden="1">
       <c r="A1462" s="2" t="s">
         <v>1679</v>
       </c>
@@ -48988,7 +48989,7 @@
       </c>
       <c r="I1463" s="4"/>
     </row>
-    <row r="1464" spans="1:9" ht="24">
+    <row r="1464" spans="1:9" ht="24" hidden="1">
       <c r="A1464" s="2" t="s">
         <v>1681</v>
       </c>
@@ -49015,7 +49016,7 @@
       </c>
       <c r="I1464" s="4"/>
     </row>
-    <row r="1465" spans="1:9" ht="24">
+    <row r="1465" spans="1:9" ht="24" hidden="1">
       <c r="A1465" s="2" t="s">
         <v>1683</v>
       </c>
@@ -49042,7 +49043,7 @@
       </c>
       <c r="I1465" s="4"/>
     </row>
-    <row r="1466" spans="1:9">
+    <row r="1466" spans="1:9" hidden="1">
       <c r="A1466" s="2" t="s">
         <v>1685</v>
       </c>
@@ -49069,7 +49070,7 @@
       </c>
       <c r="I1466" s="4"/>
     </row>
-    <row r="1467" spans="1:9" ht="24">
+    <row r="1467" spans="1:9" ht="24" hidden="1">
       <c r="A1467" s="2" t="s">
         <v>1686</v>
       </c>
@@ -49096,7 +49097,7 @@
       </c>
       <c r="I1467" s="4"/>
     </row>
-    <row r="1468" spans="1:9">
+    <row r="1468" spans="1:9" hidden="1">
       <c r="A1468" s="2" t="s">
         <v>1687</v>
       </c>
@@ -49123,7 +49124,7 @@
       </c>
       <c r="I1468" s="4"/>
     </row>
-    <row r="1469" spans="1:9">
+    <row r="1469" spans="1:9" hidden="1">
       <c r="A1469" s="2" t="s">
         <v>1688</v>
       </c>
@@ -49150,7 +49151,7 @@
       </c>
       <c r="I1469" s="4"/>
     </row>
-    <row r="1470" spans="1:9">
+    <row r="1470" spans="1:9" hidden="1">
       <c r="A1470" s="2" t="s">
         <v>1689</v>
       </c>
@@ -49177,7 +49178,7 @@
       </c>
       <c r="I1470" s="4"/>
     </row>
-    <row r="1471" spans="1:9">
+    <row r="1471" spans="1:9" hidden="1">
       <c r="A1471" s="2" t="s">
         <v>1690</v>
       </c>
@@ -49204,7 +49205,7 @@
       </c>
       <c r="I1471" s="4"/>
     </row>
-    <row r="1472" spans="1:9">
+    <row r="1472" spans="1:9" hidden="1">
       <c r="A1472" s="2" t="s">
         <v>1691</v>
       </c>
@@ -49231,7 +49232,7 @@
       </c>
       <c r="I1472" s="4"/>
     </row>
-    <row r="1473" spans="1:9">
+    <row r="1473" spans="1:9" hidden="1">
       <c r="A1473" s="2" t="s">
         <v>1692</v>
       </c>
@@ -49258,7 +49259,7 @@
       </c>
       <c r="I1473" s="4"/>
     </row>
-    <row r="1474" spans="1:9">
+    <row r="1474" spans="1:9" hidden="1">
       <c r="A1474" s="2" t="s">
         <v>1693</v>
       </c>
@@ -49285,7 +49286,7 @@
       </c>
       <c r="I1474" s="4"/>
     </row>
-    <row r="1475" spans="1:9">
+    <row r="1475" spans="1:9" hidden="1">
       <c r="A1475" s="2" t="s">
         <v>1694</v>
       </c>
@@ -49339,7 +49340,7 @@
       </c>
       <c r="I1476" s="4"/>
     </row>
-    <row r="1477" spans="1:9">
+    <row r="1477" spans="1:9" hidden="1">
       <c r="A1477" s="2" t="s">
         <v>1696</v>
       </c>
@@ -49366,7 +49367,7 @@
       </c>
       <c r="I1477" s="4"/>
     </row>
-    <row r="1478" spans="1:9">
+    <row r="1478" spans="1:9" hidden="1">
       <c r="A1478" s="2" t="s">
         <v>1697</v>
       </c>
@@ -49393,7 +49394,7 @@
       </c>
       <c r="I1478" s="4"/>
     </row>
-    <row r="1479" spans="1:9" ht="24">
+    <row r="1479" spans="1:9" ht="24" hidden="1">
       <c r="A1479" s="2" t="s">
         <v>1698</v>
       </c>
@@ -49420,7 +49421,7 @@
       </c>
       <c r="I1479" s="4"/>
     </row>
-    <row r="1480" spans="1:9">
+    <row r="1480" spans="1:9" hidden="1">
       <c r="A1480" s="2" t="s">
         <v>1699</v>
       </c>
@@ -49447,7 +49448,7 @@
       </c>
       <c r="I1480" s="4"/>
     </row>
-    <row r="1481" spans="1:9">
+    <row r="1481" spans="1:9" hidden="1">
       <c r="A1481" s="2" t="s">
         <v>1700</v>
       </c>
@@ -49748,7 +49749,7 @@
       </c>
       <c r="I1491" s="4"/>
     </row>
-    <row r="1492" spans="1:9">
+    <row r="1492" spans="1:9" hidden="1">
       <c r="A1492" s="2" t="s">
         <v>1721</v>
       </c>
@@ -49802,7 +49803,7 @@
       </c>
       <c r="I1493" s="4"/>
     </row>
-    <row r="1494" spans="1:9">
+    <row r="1494" spans="1:9" hidden="1">
       <c r="A1494" s="2" t="s">
         <v>1723</v>
       </c>
@@ -49829,7 +49830,7 @@
       </c>
       <c r="I1494" s="4"/>
     </row>
-    <row r="1495" spans="1:9">
+    <row r="1495" spans="1:9" hidden="1">
       <c r="A1495" s="2" t="s">
         <v>1724</v>
       </c>
@@ -49883,7 +49884,7 @@
       </c>
       <c r="I1496" s="4"/>
     </row>
-    <row r="1497" spans="1:9">
+    <row r="1497" spans="1:9" hidden="1">
       <c r="A1497" s="2" t="s">
         <v>1726</v>
       </c>
@@ -49910,7 +49911,7 @@
       </c>
       <c r="I1497" s="4"/>
     </row>
-    <row r="1498" spans="1:9">
+    <row r="1498" spans="1:9" hidden="1">
       <c r="A1498" s="2" t="s">
         <v>1727</v>
       </c>
@@ -49937,7 +49938,7 @@
       </c>
       <c r="I1498" s="4"/>
     </row>
-    <row r="1499" spans="1:9">
+    <row r="1499" spans="1:9" hidden="1">
       <c r="A1499" s="2" t="s">
         <v>1728</v>
       </c>
@@ -49964,7 +49965,7 @@
       </c>
       <c r="I1499" s="4"/>
     </row>
-    <row r="1500" spans="1:9">
+    <row r="1500" spans="1:9" hidden="1">
       <c r="A1500" s="2" t="s">
         <v>1729</v>
       </c>
@@ -49991,7 +49992,7 @@
       </c>
       <c r="I1500" s="4"/>
     </row>
-    <row r="1501" spans="1:9" ht="24">
+    <row r="1501" spans="1:9" ht="24" hidden="1">
       <c r="A1501" s="2" t="s">
         <v>1730</v>
       </c>
@@ -50018,7 +50019,7 @@
       </c>
       <c r="I1501" s="4"/>
     </row>
-    <row r="1502" spans="1:9">
+    <row r="1502" spans="1:9" hidden="1">
       <c r="A1502" s="2" t="s">
         <v>1731</v>
       </c>
@@ -50045,7 +50046,7 @@
       </c>
       <c r="I1502" s="4"/>
     </row>
-    <row r="1503" spans="1:9" ht="24">
+    <row r="1503" spans="1:9" ht="24" hidden="1">
       <c r="A1503" s="2" t="s">
         <v>1732</v>
       </c>
@@ -50072,7 +50073,7 @@
       </c>
       <c r="I1503" s="4"/>
     </row>
-    <row r="1504" spans="1:9" ht="24">
+    <row r="1504" spans="1:9" ht="24" hidden="1">
       <c r="A1504" s="2" t="s">
         <v>1733</v>
       </c>
@@ -50099,7 +50100,7 @@
       </c>
       <c r="I1504" s="4"/>
     </row>
-    <row r="1505" spans="1:9">
+    <row r="1505" spans="1:9" hidden="1">
       <c r="A1505" s="2" t="s">
         <v>1736</v>
       </c>
@@ -50126,7 +50127,7 @@
       </c>
       <c r="I1505" s="4"/>
     </row>
-    <row r="1506" spans="1:9" ht="24">
+    <row r="1506" spans="1:9" ht="24" hidden="1">
       <c r="A1506" s="2" t="s">
         <v>1738</v>
       </c>
@@ -50153,7 +50154,7 @@
       </c>
       <c r="I1506" s="4"/>
     </row>
-    <row r="1507" spans="1:9" ht="48">
+    <row r="1507" spans="1:9" ht="48" hidden="1">
       <c r="A1507" s="2" t="s">
         <v>1740</v>
       </c>
@@ -50288,7 +50289,7 @@
       </c>
       <c r="I1511" s="4"/>
     </row>
-    <row r="1512" spans="1:9" ht="24">
+    <row r="1512" spans="1:9" ht="24" hidden="1">
       <c r="A1512" s="2" t="s">
         <v>1752</v>
       </c>
@@ -50342,7 +50343,7 @@
       </c>
       <c r="I1513" s="4"/>
     </row>
-    <row r="1514" spans="1:9" ht="24">
+    <row r="1514" spans="1:9" ht="24" hidden="1">
       <c r="A1514" s="2" t="s">
         <v>1756</v>
       </c>
@@ -50369,7 +50370,7 @@
       </c>
       <c r="I1514" s="4"/>
     </row>
-    <row r="1515" spans="1:9" ht="24">
+    <row r="1515" spans="1:9" ht="24" hidden="1">
       <c r="A1515" s="2" t="s">
         <v>1758</v>
       </c>
@@ -50423,7 +50424,7 @@
       </c>
       <c r="I1516" s="4"/>
     </row>
-    <row r="1517" spans="1:9" ht="24">
+    <row r="1517" spans="1:9" ht="24" hidden="1">
       <c r="A1517" s="2" t="s">
         <v>1760</v>
       </c>
@@ -50477,7 +50478,7 @@
       </c>
       <c r="I1518" s="4"/>
     </row>
-    <row r="1519" spans="1:9" ht="24">
+    <row r="1519" spans="1:9" ht="24" hidden="1">
       <c r="A1519" s="2" t="s">
         <v>1764</v>
       </c>
@@ -50531,7 +50532,7 @@
       </c>
       <c r="I1520" s="4"/>
     </row>
-    <row r="1521" spans="1:9">
+    <row r="1521" spans="1:9" hidden="1">
       <c r="A1521" s="2" t="s">
         <v>1768</v>
       </c>
@@ -50558,7 +50559,7 @@
       </c>
       <c r="I1521" s="4"/>
     </row>
-    <row r="1522" spans="1:9">
+    <row r="1522" spans="1:9" hidden="1">
       <c r="A1522" s="2" t="s">
         <v>1769</v>
       </c>
@@ -50585,7 +50586,7 @@
       </c>
       <c r="I1522" s="4"/>
     </row>
-    <row r="1523" spans="1:9">
+    <row r="1523" spans="1:9" hidden="1">
       <c r="A1523" s="2" t="s">
         <v>1770</v>
       </c>
@@ -50612,7 +50613,7 @@
       </c>
       <c r="I1523" s="4"/>
     </row>
-    <row r="1524" spans="1:9" ht="24">
+    <row r="1524" spans="1:9" ht="24" hidden="1">
       <c r="A1524" s="2" t="s">
         <v>1771</v>
       </c>
@@ -50693,7 +50694,7 @@
       </c>
       <c r="I1526" s="4"/>
     </row>
-    <row r="1527" spans="1:9">
+    <row r="1527" spans="1:9" hidden="1">
       <c r="A1527" s="2" t="s">
         <v>1774</v>
       </c>
@@ -50720,7 +50721,7 @@
       </c>
       <c r="I1527" s="4"/>
     </row>
-    <row r="1528" spans="1:9">
+    <row r="1528" spans="1:9" hidden="1">
       <c r="A1528" s="2" t="s">
         <v>1775</v>
       </c>
@@ -50774,7 +50775,7 @@
       </c>
       <c r="I1529" s="4"/>
     </row>
-    <row r="1530" spans="1:9">
+    <row r="1530" spans="1:9" hidden="1">
       <c r="A1530" s="2" t="s">
         <v>1777</v>
       </c>
@@ -50801,7 +50802,7 @@
       </c>
       <c r="I1530" s="4"/>
     </row>
-    <row r="1531" spans="1:9" ht="24">
+    <row r="1531" spans="1:9" ht="24" hidden="1">
       <c r="A1531" s="2" t="s">
         <v>1778</v>
       </c>
@@ -50828,7 +50829,7 @@
       </c>
       <c r="I1531" s="4"/>
     </row>
-    <row r="1532" spans="1:9" ht="24">
+    <row r="1532" spans="1:9" ht="24" hidden="1">
       <c r="A1532" s="2" t="s">
         <v>1779</v>
       </c>
@@ -50855,7 +50856,7 @@
       </c>
       <c r="I1532" s="4"/>
     </row>
-    <row r="1533" spans="1:9">
+    <row r="1533" spans="1:9" hidden="1">
       <c r="A1533" s="2" t="s">
         <v>1780</v>
       </c>
@@ -50882,7 +50883,7 @@
       </c>
       <c r="I1533" s="4"/>
     </row>
-    <row r="1534" spans="1:9" ht="24">
+    <row r="1534" spans="1:9" ht="24" hidden="1">
       <c r="A1534" s="2" t="s">
         <v>1781</v>
       </c>
@@ -50909,7 +50910,7 @@
       </c>
       <c r="I1534" s="4"/>
     </row>
-    <row r="1535" spans="1:9" ht="24">
+    <row r="1535" spans="1:9" ht="24" hidden="1">
       <c r="A1535" s="2" t="s">
         <v>1782</v>
       </c>
@@ -50936,7 +50937,7 @@
       </c>
       <c r="I1535" s="4"/>
     </row>
-    <row r="1536" spans="1:9">
+    <row r="1536" spans="1:9" hidden="1">
       <c r="A1536" s="2" t="s">
         <v>1783</v>
       </c>
@@ -50963,7 +50964,7 @@
       </c>
       <c r="I1536" s="4"/>
     </row>
-    <row r="1537" spans="1:9" ht="24">
+    <row r="1537" spans="1:9" ht="24" hidden="1">
       <c r="A1537" s="2" t="s">
         <v>1784</v>
       </c>
@@ -51044,7 +51045,7 @@
       </c>
       <c r="I1539" s="4"/>
     </row>
-    <row r="1540" spans="1:9" ht="24">
+    <row r="1540" spans="1:9" ht="24" hidden="1">
       <c r="A1540" s="2" t="s">
         <v>1790</v>
       </c>
@@ -51071,7 +51072,7 @@
       </c>
       <c r="I1540" s="4"/>
     </row>
-    <row r="1541" spans="1:9" ht="24">
+    <row r="1541" spans="1:9" ht="24" hidden="1">
       <c r="A1541" s="2" t="s">
         <v>1792</v>
       </c>
@@ -51098,7 +51099,7 @@
       </c>
       <c r="I1541" s="4"/>
     </row>
-    <row r="1542" spans="1:9" ht="24">
+    <row r="1542" spans="1:9" ht="24" hidden="1">
       <c r="A1542" s="2" t="s">
         <v>1794</v>
       </c>
@@ -51125,7 +51126,7 @@
       </c>
       <c r="I1542" s="4"/>
     </row>
-    <row r="1543" spans="1:9" ht="24">
+    <row r="1543" spans="1:9" ht="24" hidden="1">
       <c r="A1543" s="2" t="s">
         <v>1796</v>
       </c>
@@ -51152,7 +51153,7 @@
       </c>
       <c r="I1543" s="4"/>
     </row>
-    <row r="1544" spans="1:9" ht="36">
+    <row r="1544" spans="1:9" ht="36" hidden="1">
       <c r="A1544" s="2" t="s">
         <v>1798</v>
       </c>
@@ -51179,7 +51180,7 @@
       </c>
       <c r="I1544" s="4"/>
     </row>
-    <row r="1545" spans="1:9" ht="36">
+    <row r="1545" spans="1:9" ht="36" hidden="1">
       <c r="A1545" s="2" t="s">
         <v>1800</v>
       </c>
@@ -51206,7 +51207,7 @@
       </c>
       <c r="I1545" s="4"/>
     </row>
-    <row r="1546" spans="1:9" ht="24">
+    <row r="1546" spans="1:9" ht="24" hidden="1">
       <c r="A1546" s="2" t="s">
         <v>1802</v>
       </c>
@@ -51287,7 +51288,7 @@
       </c>
       <c r="I1548" s="4"/>
     </row>
-    <row r="1549" spans="1:9" ht="24">
+    <row r="1549" spans="1:9" ht="24" hidden="1">
       <c r="A1549" s="2" t="s">
         <v>1808</v>
       </c>
@@ -51341,7 +51342,7 @@
       </c>
       <c r="I1550" s="4"/>
     </row>
-    <row r="1551" spans="1:9" ht="24">
+    <row r="1551" spans="1:9" ht="24" hidden="1">
       <c r="A1551" s="2" t="s">
         <v>1812</v>
       </c>
@@ -51395,7 +51396,7 @@
       </c>
       <c r="I1552" s="4"/>
     </row>
-    <row r="1553" spans="1:9" ht="24">
+    <row r="1553" spans="1:9" ht="24" hidden="1">
       <c r="A1553" s="2" t="s">
         <v>1816</v>
       </c>
@@ -51422,7 +51423,7 @@
       </c>
       <c r="I1553" s="4"/>
     </row>
-    <row r="1554" spans="1:9" ht="36">
+    <row r="1554" spans="1:9" ht="36" hidden="1">
       <c r="A1554" s="2" t="s">
         <v>1818</v>
       </c>
@@ -51449,7 +51450,7 @@
       </c>
       <c r="I1554" s="4"/>
     </row>
-    <row r="1555" spans="1:9" ht="24">
+    <row r="1555" spans="1:9" ht="24" hidden="1">
       <c r="A1555" s="2" t="s">
         <v>1820</v>
       </c>
@@ -51476,7 +51477,7 @@
       </c>
       <c r="I1555" s="4"/>
     </row>
-    <row r="1556" spans="1:9" ht="24">
+    <row r="1556" spans="1:9" ht="24" hidden="1">
       <c r="A1556" s="2" t="s">
         <v>1821</v>
       </c>
@@ -51503,7 +51504,7 @@
       </c>
       <c r="I1556" s="4"/>
     </row>
-    <row r="1557" spans="1:9" ht="24">
+    <row r="1557" spans="1:9" ht="24" hidden="1">
       <c r="A1557" s="2" t="s">
         <v>1822</v>
       </c>
@@ -51530,7 +51531,7 @@
       </c>
       <c r="I1557" s="4"/>
     </row>
-    <row r="1558" spans="1:9" ht="24">
+    <row r="1558" spans="1:9" ht="24" hidden="1">
       <c r="A1558" s="2" t="s">
         <v>1823</v>
       </c>
@@ -51584,7 +51585,7 @@
       </c>
       <c r="I1559" s="4"/>
     </row>
-    <row r="1560" spans="1:9" ht="24">
+    <row r="1560" spans="1:9" ht="24" hidden="1">
       <c r="A1560" s="2" t="s">
         <v>1825</v>
       </c>
@@ -51611,7 +51612,7 @@
       </c>
       <c r="I1560" s="4"/>
     </row>
-    <row r="1561" spans="1:9" ht="24">
+    <row r="1561" spans="1:9" ht="24" hidden="1">
       <c r="A1561" s="2" t="s">
         <v>1826</v>
       </c>
@@ -51665,7 +51666,7 @@
       </c>
       <c r="I1562" s="4"/>
     </row>
-    <row r="1563" spans="1:9" ht="24">
+    <row r="1563" spans="1:9" ht="24" hidden="1">
       <c r="A1563" s="2" t="s">
         <v>1828</v>
       </c>
@@ -51692,7 +51693,7 @@
       </c>
       <c r="I1563" s="4"/>
     </row>
-    <row r="1564" spans="1:9" ht="24">
+    <row r="1564" spans="1:9" ht="24" hidden="1">
       <c r="A1564" s="2" t="s">
         <v>1829</v>
       </c>
@@ -51719,7 +51720,7 @@
       </c>
       <c r="I1564" s="4"/>
     </row>
-    <row r="1565" spans="1:9" ht="24">
+    <row r="1565" spans="1:9" ht="24" hidden="1">
       <c r="A1565" s="2" t="s">
         <v>1830</v>
       </c>
@@ -51746,7 +51747,7 @@
       </c>
       <c r="I1565" s="4"/>
     </row>
-    <row r="1566" spans="1:9" ht="24">
+    <row r="1566" spans="1:9" ht="24" hidden="1">
       <c r="A1566" s="2" t="s">
         <v>1831</v>
       </c>
@@ -51800,7 +51801,7 @@
       </c>
       <c r="I1567" s="4"/>
     </row>
-    <row r="1568" spans="1:9" ht="24">
+    <row r="1568" spans="1:9" ht="24" hidden="1">
       <c r="A1568" s="2" t="s">
         <v>1833</v>
       </c>
@@ -51827,7 +51828,7 @@
       </c>
       <c r="I1568" s="4"/>
     </row>
-    <row r="1569" spans="1:9" ht="24">
+    <row r="1569" spans="1:9" ht="24" hidden="1">
       <c r="A1569" s="2" t="s">
         <v>1834</v>
       </c>
@@ -51854,7 +51855,7 @@
       </c>
       <c r="I1569" s="4"/>
     </row>
-    <row r="1570" spans="1:9" ht="24">
+    <row r="1570" spans="1:9" ht="24" hidden="1">
       <c r="A1570" s="2" t="s">
         <v>1835</v>
       </c>
@@ -51881,7 +51882,7 @@
       </c>
       <c r="I1570" s="4"/>
     </row>
-    <row r="1571" spans="1:9" ht="24">
+    <row r="1571" spans="1:9" ht="24" hidden="1">
       <c r="A1571" s="2" t="s">
         <v>1836</v>
       </c>
@@ -51908,7 +51909,7 @@
       </c>
       <c r="I1571" s="4"/>
     </row>
-    <row r="1572" spans="1:9" ht="24">
+    <row r="1572" spans="1:9" ht="24" hidden="1">
       <c r="A1572" s="2" t="s">
         <v>1837</v>
       </c>
@@ -53395,7 +53396,7 @@
       </c>
       <c r="I1626" s="4"/>
     </row>
-    <row r="1627" spans="1:9" ht="24">
+    <row r="1627" spans="1:9" ht="24" hidden="1">
       <c r="A1627" s="2" t="s">
         <v>1843</v>
       </c>
@@ -53422,7 +53423,7 @@
       </c>
       <c r="I1627" s="4"/>
     </row>
-    <row r="1628" spans="1:9" ht="24">
+    <row r="1628" spans="1:9" ht="24" hidden="1">
       <c r="A1628" s="2" t="s">
         <v>1877</v>
       </c>
@@ -53449,7 +53450,7 @@
       </c>
       <c r="I1628" s="4"/>
     </row>
-    <row r="1629" spans="1:9" ht="24">
+    <row r="1629" spans="1:9" ht="24" hidden="1">
       <c r="A1629" s="2" t="s">
         <v>1888</v>
       </c>
@@ -53476,7 +53477,7 @@
       </c>
       <c r="I1629" s="4"/>
     </row>
-    <row r="1630" spans="1:9">
+    <row r="1630" spans="1:9" hidden="1">
       <c r="A1630" s="2" t="s">
         <v>1849</v>
       </c>
@@ -53503,7 +53504,7 @@
       </c>
       <c r="I1630" s="4"/>
     </row>
-    <row r="1631" spans="1:9">
+    <row r="1631" spans="1:9" hidden="1">
       <c r="A1631" s="2" t="s">
         <v>1851</v>
       </c>
@@ -53530,7 +53531,7 @@
       </c>
       <c r="I1631" s="4"/>
     </row>
-    <row r="1632" spans="1:9" ht="24">
+    <row r="1632" spans="1:9" ht="24" hidden="1">
       <c r="A1632" s="2" t="s">
         <v>1853</v>
       </c>
@@ -53584,7 +53585,7 @@
       </c>
       <c r="I1633" s="4"/>
     </row>
-    <row r="1634" spans="1:9" ht="24">
+    <row r="1634" spans="1:9" ht="24" hidden="1">
       <c r="A1634" s="2" t="s">
         <v>1884</v>
       </c>
@@ -53611,7 +53612,7 @@
       </c>
       <c r="I1634" s="4"/>
     </row>
-    <row r="1635" spans="1:9" ht="24">
+    <row r="1635" spans="1:9" ht="24" hidden="1">
       <c r="A1635" s="2" t="s">
         <v>1886</v>
       </c>
@@ -53638,7 +53639,7 @@
       </c>
       <c r="I1635" s="4"/>
     </row>
-    <row r="1636" spans="1:9" ht="24">
+    <row r="1636" spans="1:9" ht="24" hidden="1">
       <c r="A1636" s="2" t="s">
         <v>1889</v>
       </c>
@@ -53665,7 +53666,7 @@
       </c>
       <c r="I1636" s="4"/>
     </row>
-    <row r="1637" spans="1:9" ht="24">
+    <row r="1637" spans="1:9" ht="24" hidden="1">
       <c r="A1637" s="2" t="s">
         <v>1890</v>
       </c>
@@ -53692,7 +53693,7 @@
       </c>
       <c r="I1637" s="4"/>
     </row>
-    <row r="1638" spans="1:9" ht="24">
+    <row r="1638" spans="1:9" ht="24" hidden="1">
       <c r="A1638" s="2" t="s">
         <v>1891</v>
       </c>
@@ -53719,7 +53720,7 @@
       </c>
       <c r="I1638" s="4"/>
     </row>
-    <row r="1639" spans="1:9" ht="24">
+    <row r="1639" spans="1:9" ht="24" hidden="1">
       <c r="A1639" s="2" t="s">
         <v>1892</v>
       </c>
@@ -53746,7 +53747,7 @@
       </c>
       <c r="I1639" s="4"/>
     </row>
-    <row r="1640" spans="1:9" ht="24">
+    <row r="1640" spans="1:9" ht="24" hidden="1">
       <c r="A1640" s="2" t="s">
         <v>1893</v>
       </c>
@@ -53773,7 +53774,7 @@
       </c>
       <c r="I1640" s="4"/>
     </row>
-    <row r="1641" spans="1:9" ht="24">
+    <row r="1641" spans="1:9" ht="24" hidden="1">
       <c r="A1641" s="2" t="s">
         <v>1894</v>
       </c>
@@ -53800,7 +53801,7 @@
       </c>
       <c r="I1641" s="4"/>
     </row>
-    <row r="1642" spans="1:9" ht="24">
+    <row r="1642" spans="1:9" ht="24" hidden="1">
       <c r="A1642" s="2" t="s">
         <v>1895</v>
       </c>
@@ -53827,7 +53828,7 @@
       </c>
       <c r="I1642" s="4"/>
     </row>
-    <row r="1643" spans="1:9" ht="24">
+    <row r="1643" spans="1:9" ht="24" hidden="1">
       <c r="A1643" s="2" t="s">
         <v>1896</v>
       </c>
@@ -53854,7 +53855,7 @@
       </c>
       <c r="I1643" s="4"/>
     </row>
-    <row r="1644" spans="1:9" ht="24">
+    <row r="1644" spans="1:9" ht="24" hidden="1">
       <c r="A1644" s="2" t="s">
         <v>1903</v>
       </c>
@@ -53881,7 +53882,7 @@
       </c>
       <c r="I1644" s="4"/>
     </row>
-    <row r="1645" spans="1:9" ht="24">
+    <row r="1645" spans="1:9" ht="24" hidden="1">
       <c r="A1645" s="2" t="s">
         <v>1905</v>
       </c>
@@ -53962,7 +53963,7 @@
       </c>
       <c r="I1647" s="4"/>
     </row>
-    <row r="1648" spans="1:9" ht="24">
+    <row r="1648" spans="1:9" ht="24" hidden="1">
       <c r="A1648" s="2" t="s">
         <v>1859</v>
       </c>
@@ -54043,7 +54044,7 @@
       </c>
       <c r="I1650" s="4"/>
     </row>
-    <row r="1651" spans="1:9" ht="24">
+    <row r="1651" spans="1:9" ht="24" hidden="1">
       <c r="A1651" s="2" t="s">
         <v>1865</v>
       </c>
@@ -54070,7 +54071,7 @@
       </c>
       <c r="I1651" s="4"/>
     </row>
-    <row r="1652" spans="1:9" ht="24">
+    <row r="1652" spans="1:9" ht="24" hidden="1">
       <c r="A1652" s="2" t="s">
         <v>1867</v>
       </c>
@@ -54126,7 +54127,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="1654" spans="1:9" ht="36">
+    <row r="1654" spans="1:9" ht="36" hidden="1">
       <c r="A1654" s="2" t="s">
         <v>1847</v>
       </c>
@@ -54153,7 +54154,7 @@
       </c>
       <c r="I1654" s="4"/>
     </row>
-    <row r="1655" spans="1:9" ht="36">
+    <row r="1655" spans="1:9" ht="36" hidden="1">
       <c r="A1655" s="2" t="s">
         <v>1863</v>
       </c>
@@ -54180,7 +54181,7 @@
       </c>
       <c r="I1655" s="4"/>
     </row>
-    <row r="1656" spans="1:9">
+    <row r="1656" spans="1:9" hidden="1">
       <c r="A1656" s="2" t="s">
         <v>1907</v>
       </c>
@@ -54207,7 +54208,7 @@
       </c>
       <c r="I1656" s="4"/>
     </row>
-    <row r="1657" spans="1:9">
+    <row r="1657" spans="1:9" hidden="1">
       <c r="A1657" s="2" t="s">
         <v>1909</v>
       </c>
@@ -54234,7 +54235,7 @@
       </c>
       <c r="I1657" s="4"/>
     </row>
-    <row r="1658" spans="1:9">
+    <row r="1658" spans="1:9" hidden="1">
       <c r="A1658" s="2" t="s">
         <v>1911</v>
       </c>
@@ -54261,7 +54262,7 @@
       </c>
       <c r="I1658" s="4"/>
     </row>
-    <row r="1659" spans="1:9">
+    <row r="1659" spans="1:9" hidden="1">
       <c r="A1659" s="2" t="s">
         <v>1913</v>
       </c>
@@ -54288,7 +54289,7 @@
       </c>
       <c r="I1659" s="4"/>
     </row>
-    <row r="1660" spans="1:9" ht="36">
+    <row r="1660" spans="1:9" ht="36" hidden="1">
       <c r="A1660" s="2" t="s">
         <v>1885</v>
       </c>
@@ -54369,7 +54370,7 @@
       </c>
       <c r="I1662" s="4"/>
     </row>
-    <row r="1663" spans="1:9" ht="36">
+    <row r="1663" spans="1:9" ht="36" hidden="1">
       <c r="A1663" s="2" t="s">
         <v>1919</v>
       </c>
@@ -54396,7 +54397,7 @@
       </c>
       <c r="I1663" s="4"/>
     </row>
-    <row r="1664" spans="1:9" ht="24">
+    <row r="1664" spans="1:9" ht="24" hidden="1">
       <c r="A1664" s="2" t="s">
         <v>1869</v>
       </c>
@@ -54423,7 +54424,7 @@
       </c>
       <c r="I1664" s="4"/>
     </row>
-    <row r="1665" spans="1:9" ht="24">
+    <row r="1665" spans="1:9" ht="24" hidden="1">
       <c r="A1665" s="2" t="s">
         <v>1871</v>
       </c>
@@ -54450,7 +54451,7 @@
       </c>
       <c r="I1665" s="4"/>
     </row>
-    <row r="1666" spans="1:9" ht="24">
+    <row r="1666" spans="1:9" ht="24" hidden="1">
       <c r="A1666" s="2" t="s">
         <v>1873</v>
       </c>
@@ -54477,7 +54478,7 @@
       </c>
       <c r="I1666" s="4"/>
     </row>
-    <row r="1667" spans="1:9" ht="24">
+    <row r="1667" spans="1:9" ht="24" hidden="1">
       <c r="A1667" s="2" t="s">
         <v>1875</v>
       </c>
@@ -54504,7 +54505,7 @@
       </c>
       <c r="I1667" s="4"/>
     </row>
-    <row r="1668" spans="1:9" ht="24">
+    <row r="1668" spans="1:9" ht="24" hidden="1">
       <c r="A1668" s="2" t="s">
         <v>1876</v>
       </c>
@@ -54531,7 +54532,7 @@
       </c>
       <c r="I1668" s="4"/>
     </row>
-    <row r="1669" spans="1:9" ht="24">
+    <row r="1669" spans="1:9" ht="24" hidden="1">
       <c r="A1669" s="2" t="s">
         <v>1878</v>
       </c>
@@ -54558,7 +54559,7 @@
       </c>
       <c r="I1669" s="4"/>
     </row>
-    <row r="1670" spans="1:9" ht="24">
+    <row r="1670" spans="1:9" ht="24" hidden="1">
       <c r="A1670" s="2" t="s">
         <v>1880</v>
       </c>
@@ -54585,7 +54586,7 @@
       </c>
       <c r="I1670" s="4"/>
     </row>
-    <row r="1671" spans="1:9" ht="24">
+    <row r="1671" spans="1:9" ht="24" hidden="1">
       <c r="A1671" s="2" t="s">
         <v>1887</v>
       </c>
@@ -54612,7 +54613,7 @@
       </c>
       <c r="I1671" s="4"/>
     </row>
-    <row r="1672" spans="1:9" ht="24">
+    <row r="1672" spans="1:9" ht="24" hidden="1">
       <c r="A1672" s="2" t="s">
         <v>1891</v>
       </c>
@@ -54639,7 +54640,7 @@
       </c>
       <c r="I1672" s="4"/>
     </row>
-    <row r="1673" spans="1:9" ht="24">
+    <row r="1673" spans="1:9" ht="24" hidden="1">
       <c r="A1673" s="2" t="s">
         <v>1892</v>
       </c>
@@ -54666,7 +54667,7 @@
       </c>
       <c r="I1673" s="4"/>
     </row>
-    <row r="1674" spans="1:9" ht="24">
+    <row r="1674" spans="1:9" ht="24" hidden="1">
       <c r="A1674" s="2" t="s">
         <v>1897</v>
       </c>
@@ -54720,7 +54721,7 @@
       </c>
       <c r="I1675" s="4"/>
     </row>
-    <row r="1676" spans="1:9" ht="24">
+    <row r="1676" spans="1:9" ht="24" hidden="1">
       <c r="A1676" s="2" t="s">
         <v>1901</v>
       </c>
@@ -54747,7 +54748,7 @@
       </c>
       <c r="I1676" s="4"/>
     </row>
-    <row r="1677" spans="1:9" ht="24">
+    <row r="1677" spans="1:9" ht="24" hidden="1">
       <c r="A1677" s="2" t="s">
         <v>1930</v>
       </c>
@@ -54828,7 +54829,7 @@
       </c>
       <c r="I1679" s="4"/>
     </row>
-    <row r="1680" spans="1:9">
+    <row r="1680" spans="1:9" hidden="1">
       <c r="A1680" s="2" t="s">
         <v>1936</v>
       </c>
@@ -54855,7 +54856,7 @@
       </c>
       <c r="I1680" s="4"/>
     </row>
-    <row r="1681" spans="1:9">
+    <row r="1681" spans="1:9" hidden="1">
       <c r="A1681" s="2" t="s">
         <v>1938</v>
       </c>
@@ -54882,7 +54883,7 @@
       </c>
       <c r="I1681" s="4"/>
     </row>
-    <row r="1682" spans="1:9">
+    <row r="1682" spans="1:9" hidden="1">
       <c r="A1682" s="2" t="s">
         <v>1940</v>
       </c>
@@ -54909,7 +54910,7 @@
       </c>
       <c r="I1682" s="4"/>
     </row>
-    <row r="1683" spans="1:9">
+    <row r="1683" spans="1:9" hidden="1">
       <c r="A1683" s="2" t="s">
         <v>1942</v>
       </c>
@@ -54936,7 +54937,7 @@
       </c>
       <c r="I1683" s="4"/>
     </row>
-    <row r="1684" spans="1:9">
+    <row r="1684" spans="1:9" hidden="1">
       <c r="A1684" s="2" t="s">
         <v>1944</v>
       </c>
@@ -54963,7 +54964,7 @@
       </c>
       <c r="I1684" s="4"/>
     </row>
-    <row r="1685" spans="1:9">
+    <row r="1685" spans="1:9" hidden="1">
       <c r="A1685" s="2" t="s">
         <v>1946</v>
       </c>
@@ -55044,7 +55045,7 @@
       </c>
       <c r="I1687" s="4"/>
     </row>
-    <row r="1688" spans="1:9">
+    <row r="1688" spans="1:9" hidden="1">
       <c r="A1688" s="2" t="s">
         <v>1952</v>
       </c>
@@ -55098,7 +55099,7 @@
       </c>
       <c r="I1689" s="4"/>
     </row>
-    <row r="1690" spans="1:9">
+    <row r="1690" spans="1:9" hidden="1">
       <c r="A1690" s="2" t="s">
         <v>1956</v>
       </c>
@@ -55152,7 +55153,7 @@
       </c>
       <c r="I1691" s="4"/>
     </row>
-    <row r="1692" spans="1:9">
+    <row r="1692" spans="1:9" hidden="1">
       <c r="A1692" s="2" t="s">
         <v>1960</v>
       </c>
@@ -55179,7 +55180,7 @@
       </c>
       <c r="I1692" s="4"/>
     </row>
-    <row r="1693" spans="1:9">
+    <row r="1693" spans="1:9" hidden="1">
       <c r="A1693" s="2" t="s">
         <v>1961</v>
       </c>
@@ -55287,7 +55288,7 @@
       </c>
       <c r="I1696" s="4"/>
     </row>
-    <row r="1697" spans="1:9">
+    <row r="1697" spans="1:9" hidden="1">
       <c r="A1697" s="2" t="s">
         <v>1965</v>
       </c>
@@ -55341,7 +55342,7 @@
       </c>
       <c r="I1698" s="4"/>
     </row>
-    <row r="1699" spans="1:9">
+    <row r="1699" spans="1:9" hidden="1">
       <c r="A1699" s="2" t="s">
         <v>1968</v>
       </c>
@@ -55395,7 +55396,7 @@
       </c>
       <c r="I1700" s="4"/>
     </row>
-    <row r="1701" spans="1:9">
+    <row r="1701" spans="1:9" hidden="1">
       <c r="A1701" s="2" t="s">
         <v>1970</v>
       </c>
@@ -55503,7 +55504,7 @@
       </c>
       <c r="I1704" s="4"/>
     </row>
-    <row r="1705" spans="1:9" ht="24">
+    <row r="1705" spans="1:9" ht="24" hidden="1">
       <c r="A1705" s="2" t="s">
         <v>1974</v>
       </c>
@@ -55530,7 +55531,7 @@
       </c>
       <c r="I1705" s="4"/>
     </row>
-    <row r="1706" spans="1:9">
+    <row r="1706" spans="1:9" hidden="1">
       <c r="A1706" s="2" t="s">
         <v>1975</v>
       </c>
@@ -55584,7 +55585,7 @@
       </c>
       <c r="I1707" s="4"/>
     </row>
-    <row r="1708" spans="1:9">
+    <row r="1708" spans="1:9" hidden="1">
       <c r="A1708" s="2" t="s">
         <v>1977</v>
       </c>
@@ -55611,7 +55612,7 @@
       </c>
       <c r="I1708" s="4"/>
     </row>
-    <row r="1709" spans="1:9">
+    <row r="1709" spans="1:9" hidden="1">
       <c r="A1709" s="2" t="s">
         <v>1978</v>
       </c>
@@ -55638,7 +55639,7 @@
       </c>
       <c r="I1709" s="4"/>
     </row>
-    <row r="1710" spans="1:9">
+    <row r="1710" spans="1:9" hidden="1">
       <c r="A1710" s="2" t="s">
         <v>1979</v>
       </c>
@@ -55665,7 +55666,7 @@
       </c>
       <c r="I1710" s="4"/>
     </row>
-    <row r="1711" spans="1:9">
+    <row r="1711" spans="1:9" hidden="1">
       <c r="A1711" s="2" t="s">
         <v>1980</v>
       </c>
@@ -55692,7 +55693,7 @@
       </c>
       <c r="I1711" s="4"/>
     </row>
-    <row r="1712" spans="1:9">
+    <row r="1712" spans="1:9" hidden="1">
       <c r="A1712" s="2" t="s">
         <v>1981</v>
       </c>
@@ -55719,7 +55720,7 @@
       </c>
       <c r="I1712" s="4"/>
     </row>
-    <row r="1713" spans="1:9">
+    <row r="1713" spans="1:9" hidden="1">
       <c r="A1713" s="2" t="s">
         <v>1982</v>
       </c>
@@ -55827,7 +55828,7 @@
       </c>
       <c r="I1716" s="4"/>
     </row>
-    <row r="1717" spans="1:9">
+    <row r="1717" spans="1:9" hidden="1">
       <c r="A1717" s="2" t="s">
         <v>1986</v>
       </c>
@@ -55854,7 +55855,7 @@
       </c>
       <c r="I1717" s="4"/>
     </row>
-    <row r="1718" spans="1:9">
+    <row r="1718" spans="1:9" hidden="1">
       <c r="A1718" s="2" t="s">
         <v>1987</v>
       </c>
@@ -55881,7 +55882,7 @@
       </c>
       <c r="I1718" s="4"/>
     </row>
-    <row r="1719" spans="1:9" ht="24">
+    <row r="1719" spans="1:9" ht="24" hidden="1">
       <c r="A1719" s="2" t="s">
         <v>1988</v>
       </c>
@@ -55908,7 +55909,7 @@
       </c>
       <c r="I1719" s="4"/>
     </row>
-    <row r="1720" spans="1:9">
+    <row r="1720" spans="1:9" hidden="1">
       <c r="A1720" s="2" t="s">
         <v>1989</v>
       </c>
@@ -55935,7 +55936,7 @@
       </c>
       <c r="I1720" s="4"/>
     </row>
-    <row r="1721" spans="1:9">
+    <row r="1721" spans="1:9" hidden="1">
       <c r="A1721" s="2" t="s">
         <v>1990</v>
       </c>
@@ -55962,7 +55963,7 @@
       </c>
       <c r="I1721" s="4"/>
     </row>
-    <row r="1722" spans="1:9">
+    <row r="1722" spans="1:9" hidden="1">
       <c r="A1722" s="2" t="s">
         <v>1991</v>
       </c>
@@ -55989,7 +55990,7 @@
       </c>
       <c r="I1722" s="4"/>
     </row>
-    <row r="1723" spans="1:9">
+    <row r="1723" spans="1:9" hidden="1">
       <c r="A1723" s="2" t="s">
         <v>1993</v>
       </c>
@@ -56043,7 +56044,7 @@
       </c>
       <c r="I1724" s="4"/>
     </row>
-    <row r="1725" spans="1:9">
+    <row r="1725" spans="1:9" hidden="1">
       <c r="A1725" s="2" t="s">
         <v>1997</v>
       </c>
@@ -56070,7 +56071,7 @@
       </c>
       <c r="I1725" s="4"/>
     </row>
-    <row r="1726" spans="1:9">
+    <row r="1726" spans="1:9" hidden="1">
       <c r="A1726" s="2" t="s">
         <v>1999</v>
       </c>
@@ -56097,7 +56098,7 @@
       </c>
       <c r="I1726" s="4"/>
     </row>
-    <row r="1727" spans="1:9">
+    <row r="1727" spans="1:9" hidden="1">
       <c r="A1727" s="2" t="s">
         <v>2001</v>
       </c>
@@ -56124,7 +56125,7 @@
       </c>
       <c r="I1727" s="4"/>
     </row>
-    <row r="1728" spans="1:9" ht="36">
+    <row r="1728" spans="1:9" ht="36" hidden="1">
       <c r="A1728" s="2" t="s">
         <v>2003</v>
       </c>
@@ -56151,7 +56152,7 @@
       </c>
       <c r="I1728" s="4"/>
     </row>
-    <row r="1729" spans="1:9" ht="36">
+    <row r="1729" spans="1:9" ht="36" hidden="1">
       <c r="A1729" s="2" t="s">
         <v>2006</v>
       </c>
@@ -56178,7 +56179,7 @@
       </c>
       <c r="I1729" s="4"/>
     </row>
-    <row r="1730" spans="1:9" ht="36">
+    <row r="1730" spans="1:9" ht="36" hidden="1">
       <c r="A1730" s="2" t="s">
         <v>2008</v>
       </c>
@@ -56205,7 +56206,7 @@
       </c>
       <c r="I1730" s="4"/>
     </row>
-    <row r="1731" spans="1:9" ht="36">
+    <row r="1731" spans="1:9" ht="36" hidden="1">
       <c r="A1731" s="2" t="s">
         <v>2010</v>
       </c>
@@ -56232,7 +56233,7 @@
       </c>
       <c r="I1731" s="4"/>
     </row>
-    <row r="1732" spans="1:9" ht="36">
+    <row r="1732" spans="1:9" ht="36" hidden="1">
       <c r="A1732" s="2" t="s">
         <v>2012</v>
       </c>
@@ -56286,7 +56287,7 @@
       </c>
       <c r="I1733" s="4"/>
     </row>
-    <row r="1734" spans="1:9" ht="36">
+    <row r="1734" spans="1:9" ht="36" hidden="1">
       <c r="A1734" s="2" t="s">
         <v>2016</v>
       </c>
@@ -56340,7 +56341,7 @@
       </c>
       <c r="I1735" s="4"/>
     </row>
-    <row r="1736" spans="1:9" ht="36">
+    <row r="1736" spans="1:9" ht="36" hidden="1">
       <c r="A1736" s="2" t="s">
         <v>2020</v>
       </c>
@@ -56367,7 +56368,7 @@
       </c>
       <c r="I1736" s="4"/>
     </row>
-    <row r="1737" spans="1:9" ht="36">
+    <row r="1737" spans="1:9" ht="36" hidden="1">
       <c r="A1737" s="2" t="s">
         <v>2022</v>
       </c>
@@ -56421,7 +56422,7 @@
       </c>
       <c r="I1738" s="4"/>
     </row>
-    <row r="1739" spans="1:9" ht="36">
+    <row r="1739" spans="1:9" ht="36" hidden="1">
       <c r="A1739" s="2" t="s">
         <v>2026</v>
       </c>
@@ -56448,7 +56449,7 @@
       </c>
       <c r="I1739" s="4"/>
     </row>
-    <row r="1740" spans="1:9" ht="36">
+    <row r="1740" spans="1:9" ht="36" hidden="1">
       <c r="A1740" s="2" t="s">
         <v>2028</v>
       </c>
@@ -56475,7 +56476,7 @@
       </c>
       <c r="I1740" s="4"/>
     </row>
-    <row r="1741" spans="1:9" ht="36">
+    <row r="1741" spans="1:9" ht="36" hidden="1">
       <c r="A1741" s="2" t="s">
         <v>2030</v>
       </c>
@@ -56502,7 +56503,7 @@
       </c>
       <c r="I1741" s="4"/>
     </row>
-    <row r="1742" spans="1:9" ht="36">
+    <row r="1742" spans="1:9" ht="36" hidden="1">
       <c r="A1742" s="2" t="s">
         <v>2032</v>
       </c>
@@ -56529,7 +56530,7 @@
       </c>
       <c r="I1742" s="4"/>
     </row>
-    <row r="1743" spans="1:9" ht="36">
+    <row r="1743" spans="1:9" ht="36" hidden="1">
       <c r="A1743" s="2" t="s">
         <v>2034</v>
       </c>
@@ -56556,7 +56557,7 @@
       </c>
       <c r="I1743" s="4"/>
     </row>
-    <row r="1744" spans="1:9" ht="36">
+    <row r="1744" spans="1:9" ht="36" hidden="1">
       <c r="A1744" s="2" t="s">
         <v>2036</v>
       </c>
@@ -56583,7 +56584,7 @@
       </c>
       <c r="I1744" s="4"/>
     </row>
-    <row r="1745" spans="1:9" ht="36">
+    <row r="1745" spans="1:9" ht="36" hidden="1">
       <c r="A1745" s="2" t="s">
         <v>2038</v>
       </c>
@@ -56610,7 +56611,7 @@
       </c>
       <c r="I1745" s="4"/>
     </row>
-    <row r="1746" spans="1:9" ht="36">
+    <row r="1746" spans="1:9" ht="36" hidden="1">
       <c r="A1746" s="2" t="s">
         <v>2040</v>
       </c>
@@ -56664,7 +56665,7 @@
       </c>
       <c r="I1747" s="4"/>
     </row>
-    <row r="1748" spans="1:9" ht="36">
+    <row r="1748" spans="1:9" ht="36" hidden="1">
       <c r="A1748" s="2" t="s">
         <v>2044</v>
       </c>
@@ -56691,7 +56692,7 @@
       </c>
       <c r="I1748" s="4"/>
     </row>
-    <row r="1749" spans="1:9" ht="36">
+    <row r="1749" spans="1:9" ht="36" hidden="1">
       <c r="A1749" s="2" t="s">
         <v>2046</v>
       </c>
@@ -56718,7 +56719,7 @@
       </c>
       <c r="I1749" s="4"/>
     </row>
-    <row r="1750" spans="1:9" ht="36">
+    <row r="1750" spans="1:9" ht="36" hidden="1">
       <c r="A1750" s="2" t="s">
         <v>2048</v>
       </c>
@@ -56745,7 +56746,7 @@
       </c>
       <c r="I1750" s="4"/>
     </row>
-    <row r="1751" spans="1:9" ht="36">
+    <row r="1751" spans="1:9" ht="36" hidden="1">
       <c r="A1751" s="2" t="s">
         <v>2050</v>
       </c>
@@ -56772,7 +56773,7 @@
       </c>
       <c r="I1751" s="4"/>
     </row>
-    <row r="1752" spans="1:9" ht="36">
+    <row r="1752" spans="1:9" ht="36" hidden="1">
       <c r="A1752" s="2" t="s">
         <v>2052</v>
       </c>
@@ -56799,7 +56800,7 @@
       </c>
       <c r="I1752" s="4"/>
     </row>
-    <row r="1753" spans="1:9" ht="36">
+    <row r="1753" spans="1:9" ht="36" hidden="1">
       <c r="A1753" s="2" t="s">
         <v>2054</v>
       </c>
@@ -56826,7 +56827,7 @@
       </c>
       <c r="I1753" s="4"/>
     </row>
-    <row r="1754" spans="1:9" ht="36">
+    <row r="1754" spans="1:9" ht="36" hidden="1">
       <c r="A1754" s="2" t="s">
         <v>2056</v>
       </c>
@@ -56853,7 +56854,7 @@
       </c>
       <c r="I1754" s="4"/>
     </row>
-    <row r="1755" spans="1:9" ht="36">
+    <row r="1755" spans="1:9" ht="36" hidden="1">
       <c r="A1755" s="2" t="s">
         <v>2058</v>
       </c>
@@ -56880,7 +56881,7 @@
       </c>
       <c r="I1755" s="4"/>
     </row>
-    <row r="1756" spans="1:9" ht="36">
+    <row r="1756" spans="1:9" ht="36" hidden="1">
       <c r="A1756" s="2" t="s">
         <v>2060</v>
       </c>
@@ -56907,7 +56908,7 @@
       </c>
       <c r="I1756" s="4"/>
     </row>
-    <row r="1757" spans="1:9" ht="36">
+    <row r="1757" spans="1:9" ht="36" hidden="1">
       <c r="A1757" s="2" t="s">
         <v>2062</v>
       </c>
@@ -56934,7 +56935,7 @@
       </c>
       <c r="I1757" s="4"/>
     </row>
-    <row r="1758" spans="1:9" ht="36">
+    <row r="1758" spans="1:9" ht="36" hidden="1">
       <c r="A1758" s="2" t="s">
         <v>2064</v>
       </c>
@@ -56961,7 +56962,7 @@
       </c>
       <c r="I1758" s="4"/>
     </row>
-    <row r="1759" spans="1:9" ht="36">
+    <row r="1759" spans="1:9" ht="36" hidden="1">
       <c r="A1759" s="2" t="s">
         <v>2066</v>
       </c>
@@ -56988,7 +56989,7 @@
       </c>
       <c r="I1759" s="4"/>
     </row>
-    <row r="1760" spans="1:9" ht="36">
+    <row r="1760" spans="1:9" ht="36" hidden="1">
       <c r="A1760" s="2" t="s">
         <v>2068</v>
       </c>
@@ -57015,7 +57016,7 @@
       </c>
       <c r="I1760" s="4"/>
     </row>
-    <row r="1761" spans="1:9" ht="36">
+    <row r="1761" spans="1:9" ht="36" hidden="1">
       <c r="A1761" s="2" t="s">
         <v>2070</v>
       </c>
@@ -57042,7 +57043,7 @@
       </c>
       <c r="I1761" s="4"/>
     </row>
-    <row r="1762" spans="1:9" ht="36">
+    <row r="1762" spans="1:9" ht="36" hidden="1">
       <c r="A1762" s="2" t="s">
         <v>2072</v>
       </c>
@@ -57069,7 +57070,7 @@
       </c>
       <c r="I1762" s="4"/>
     </row>
-    <row r="1763" spans="1:9" ht="36">
+    <row r="1763" spans="1:9" ht="36" hidden="1">
       <c r="A1763" s="2" t="s">
         <v>2074</v>
       </c>
@@ -57096,7 +57097,7 @@
       </c>
       <c r="I1763" s="4"/>
     </row>
-    <row r="1764" spans="1:9" ht="36">
+    <row r="1764" spans="1:9" ht="36" hidden="1">
       <c r="A1764" s="2" t="s">
         <v>2075</v>
       </c>
@@ -57123,7 +57124,7 @@
       </c>
       <c r="I1764" s="4"/>
     </row>
-    <row r="1765" spans="1:9" ht="36">
+    <row r="1765" spans="1:9" ht="36" hidden="1">
       <c r="A1765" s="2" t="s">
         <v>2076</v>
       </c>
@@ -57150,7 +57151,7 @@
       </c>
       <c r="I1765" s="4"/>
     </row>
-    <row r="1766" spans="1:9" ht="36">
+    <row r="1766" spans="1:9" ht="36" hidden="1">
       <c r="A1766" s="2" t="s">
         <v>2077</v>
       </c>
@@ -57177,7 +57178,7 @@
       </c>
       <c r="I1766" s="4"/>
     </row>
-    <row r="1767" spans="1:9" ht="36">
+    <row r="1767" spans="1:9" ht="36" hidden="1">
       <c r="A1767" s="2" t="s">
         <v>2078</v>
       </c>
@@ -57204,7 +57205,7 @@
       </c>
       <c r="I1767" s="4"/>
     </row>
-    <row r="1768" spans="1:9" ht="36">
+    <row r="1768" spans="1:9" ht="36" hidden="1">
       <c r="A1768" s="2" t="s">
         <v>2079</v>
       </c>
@@ -57231,7 +57232,7 @@
       </c>
       <c r="I1768" s="4"/>
     </row>
-    <row r="1769" spans="1:9" ht="36">
+    <row r="1769" spans="1:9" ht="36" hidden="1">
       <c r="A1769" s="2" t="s">
         <v>2080</v>
       </c>
@@ -57258,7 +57259,7 @@
       </c>
       <c r="I1769" s="4"/>
     </row>
-    <row r="1770" spans="1:9" ht="36">
+    <row r="1770" spans="1:9" ht="36" hidden="1">
       <c r="A1770" s="2" t="s">
         <v>2081</v>
       </c>
@@ -57285,7 +57286,7 @@
       </c>
       <c r="I1770" s="4"/>
     </row>
-    <row r="1771" spans="1:9" ht="36">
+    <row r="1771" spans="1:9" ht="36" hidden="1">
       <c r="A1771" s="2" t="s">
         <v>2082</v>
       </c>
@@ -57312,7 +57313,7 @@
       </c>
       <c r="I1771" s="4"/>
     </row>
-    <row r="1772" spans="1:9" ht="36">
+    <row r="1772" spans="1:9" ht="36" hidden="1">
       <c r="A1772" s="2" t="s">
         <v>2083</v>
       </c>
@@ -57339,7 +57340,7 @@
       </c>
       <c r="I1772" s="4"/>
     </row>
-    <row r="1773" spans="1:9" ht="36">
+    <row r="1773" spans="1:9" ht="36" hidden="1">
       <c r="A1773" s="2" t="s">
         <v>2084</v>
       </c>
@@ -57366,7 +57367,7 @@
       </c>
       <c r="I1773" s="4"/>
     </row>
-    <row r="1774" spans="1:9" ht="36">
+    <row r="1774" spans="1:9" ht="36" hidden="1">
       <c r="A1774" s="2" t="s">
         <v>2085</v>
       </c>
@@ -57393,7 +57394,7 @@
       </c>
       <c r="I1774" s="4"/>
     </row>
-    <row r="1775" spans="1:9" ht="36">
+    <row r="1775" spans="1:9" ht="36" hidden="1">
       <c r="A1775" s="2" t="s">
         <v>2086</v>
       </c>
@@ -57420,7 +57421,7 @@
       </c>
       <c r="I1775" s="4"/>
     </row>
-    <row r="1776" spans="1:9" ht="36">
+    <row r="1776" spans="1:9" ht="36" hidden="1">
       <c r="A1776" s="2" t="s">
         <v>2087</v>
       </c>
@@ -57447,7 +57448,7 @@
       </c>
       <c r="I1776" s="4"/>
     </row>
-    <row r="1777" spans="1:9" ht="36">
+    <row r="1777" spans="1:9" ht="36" hidden="1">
       <c r="A1777" s="2" t="s">
         <v>2088</v>
       </c>
@@ -57474,7 +57475,7 @@
       </c>
       <c r="I1777" s="4"/>
     </row>
-    <row r="1778" spans="1:9" ht="36">
+    <row r="1778" spans="1:9" ht="36" hidden="1">
       <c r="A1778" s="2" t="s">
         <v>2089</v>
       </c>
@@ -57501,7 +57502,7 @@
       </c>
       <c r="I1778" s="4"/>
     </row>
-    <row r="1779" spans="1:9" ht="36">
+    <row r="1779" spans="1:9" ht="36" hidden="1">
       <c r="A1779" s="2" t="s">
         <v>2090</v>
       </c>
@@ -57528,7 +57529,7 @@
       </c>
       <c r="I1779" s="4"/>
     </row>
-    <row r="1780" spans="1:9" ht="36">
+    <row r="1780" spans="1:9" ht="36" hidden="1">
       <c r="A1780" s="2" t="s">
         <v>2091</v>
       </c>
@@ -57555,7 +57556,7 @@
       </c>
       <c r="I1780" s="4"/>
     </row>
-    <row r="1781" spans="1:9" ht="36">
+    <row r="1781" spans="1:9" ht="36" hidden="1">
       <c r="A1781" s="2" t="s">
         <v>2092</v>
       </c>
@@ -57582,7 +57583,7 @@
       </c>
       <c r="I1781" s="4"/>
     </row>
-    <row r="1782" spans="1:9" ht="36">
+    <row r="1782" spans="1:9" ht="36" hidden="1">
       <c r="A1782" s="2" t="s">
         <v>2093</v>
       </c>
@@ -57609,7 +57610,7 @@
       </c>
       <c r="I1782" s="4"/>
     </row>
-    <row r="1783" spans="1:9" ht="36">
+    <row r="1783" spans="1:9" ht="36" hidden="1">
       <c r="A1783" s="2" t="s">
         <v>2094</v>
       </c>
@@ -57636,7 +57637,7 @@
       </c>
       <c r="I1783" s="4"/>
     </row>
-    <row r="1784" spans="1:9" ht="36">
+    <row r="1784" spans="1:9" ht="36" hidden="1">
       <c r="A1784" s="2" t="s">
         <v>2095</v>
       </c>
@@ -57663,7 +57664,7 @@
       </c>
       <c r="I1784" s="4"/>
     </row>
-    <row r="1785" spans="1:9" ht="36">
+    <row r="1785" spans="1:9" ht="36" hidden="1">
       <c r="A1785" s="2" t="s">
         <v>2096</v>
       </c>
@@ -57690,7 +57691,7 @@
       </c>
       <c r="I1785" s="4"/>
     </row>
-    <row r="1786" spans="1:9" ht="36">
+    <row r="1786" spans="1:9" ht="36" hidden="1">
       <c r="A1786" s="2" t="s">
         <v>2097</v>
       </c>
@@ -57717,7 +57718,7 @@
       </c>
       <c r="I1786" s="4"/>
     </row>
-    <row r="1787" spans="1:9" ht="36">
+    <row r="1787" spans="1:9" ht="36" hidden="1">
       <c r="A1787" s="2" t="s">
         <v>2098</v>
       </c>
@@ -58032,7 +58033,7 @@
         <v>280000000</v>
       </c>
     </row>
-    <row r="1798" spans="1:9" ht="36">
+    <row r="1798" spans="1:9" ht="36" hidden="1">
       <c r="A1798" s="2" t="s">
         <v>2119</v>
       </c>
@@ -58059,7 +58060,7 @@
       </c>
       <c r="I1798" s="4"/>
     </row>
-    <row r="1799" spans="1:9" ht="36">
+    <row r="1799" spans="1:9" ht="36" hidden="1">
       <c r="A1799" s="2" t="s">
         <v>2121</v>
       </c>
@@ -58086,7 +58087,7 @@
       </c>
       <c r="I1799" s="4"/>
     </row>
-    <row r="1800" spans="1:9" ht="36">
+    <row r="1800" spans="1:9" ht="36" hidden="1">
       <c r="A1800" s="2" t="s">
         <v>2124</v>
       </c>
@@ -58113,7 +58114,7 @@
       </c>
       <c r="I1800" s="4"/>
     </row>
-    <row r="1801" spans="1:9" ht="36">
+    <row r="1801" spans="1:9" ht="36" hidden="1">
       <c r="A1801" s="2" t="s">
         <v>2126</v>
       </c>
@@ -58140,7 +58141,7 @@
       </c>
       <c r="I1801" s="4"/>
     </row>
-    <row r="1802" spans="1:9" ht="36">
+    <row r="1802" spans="1:9" ht="36" hidden="1">
       <c r="A1802" s="2" t="s">
         <v>2128</v>
       </c>
@@ -58167,7 +58168,7 @@
       </c>
       <c r="I1802" s="4"/>
     </row>
-    <row r="1803" spans="1:9" ht="36">
+    <row r="1803" spans="1:9" ht="36" hidden="1">
       <c r="A1803" s="2" t="s">
         <v>2130</v>
       </c>
@@ -58194,7 +58195,7 @@
       </c>
       <c r="I1803" s="4"/>
     </row>
-    <row r="1804" spans="1:9" ht="36">
+    <row r="1804" spans="1:9" ht="36" hidden="1">
       <c r="A1804" s="2" t="s">
         <v>2132</v>
       </c>
@@ -58248,7 +58249,7 @@
       </c>
       <c r="I1805" s="4"/>
     </row>
-    <row r="1806" spans="1:9" ht="36">
+    <row r="1806" spans="1:9" ht="36" hidden="1">
       <c r="A1806" s="2" t="s">
         <v>2136</v>
       </c>
@@ -58275,7 +58276,7 @@
       </c>
       <c r="I1806" s="4"/>
     </row>
-    <row r="1807" spans="1:9" ht="36">
+    <row r="1807" spans="1:9" ht="36" hidden="1">
       <c r="A1807" s="2" t="s">
         <v>2138</v>
       </c>
@@ -58302,7 +58303,7 @@
       </c>
       <c r="I1807" s="4"/>
     </row>
-    <row r="1808" spans="1:9" ht="36">
+    <row r="1808" spans="1:9" ht="36" hidden="1">
       <c r="A1808" s="2" t="s">
         <v>2140</v>
       </c>
@@ -58329,7 +58330,7 @@
       </c>
       <c r="I1808" s="4"/>
     </row>
-    <row r="1809" spans="1:9" ht="36">
+    <row r="1809" spans="1:9" ht="36" hidden="1">
       <c r="A1809" s="2" t="s">
         <v>2142</v>
       </c>
@@ -58356,7 +58357,7 @@
       </c>
       <c r="I1809" s="4"/>
     </row>
-    <row r="1810" spans="1:9" ht="48">
+    <row r="1810" spans="1:9" ht="48" hidden="1">
       <c r="A1810" s="2" t="s">
         <v>2144</v>
       </c>
@@ -58383,7 +58384,7 @@
       </c>
       <c r="I1810" s="4"/>
     </row>
-    <row r="1811" spans="1:9" ht="36">
+    <row r="1811" spans="1:9" ht="36" hidden="1">
       <c r="A1811" s="2" t="s">
         <v>2146</v>
       </c>
@@ -58410,7 +58411,7 @@
       </c>
       <c r="I1811" s="4"/>
     </row>
-    <row r="1812" spans="1:9" ht="36">
+    <row r="1812" spans="1:9" ht="36" hidden="1">
       <c r="A1812" s="2" t="s">
         <v>2148</v>
       </c>
@@ -58437,7 +58438,7 @@
       </c>
       <c r="I1812" s="4"/>
     </row>
-    <row r="1813" spans="1:9" ht="36">
+    <row r="1813" spans="1:9" ht="36" hidden="1">
       <c r="A1813" s="2" t="s">
         <v>2150</v>
       </c>
@@ -58464,7 +58465,7 @@
       </c>
       <c r="I1813" s="4"/>
     </row>
-    <row r="1814" spans="1:9" ht="36">
+    <row r="1814" spans="1:9" ht="36" hidden="1">
       <c r="A1814" s="2" t="s">
         <v>2152</v>
       </c>
@@ -58491,7 +58492,7 @@
       </c>
       <c r="I1814" s="4"/>
     </row>
-    <row r="1815" spans="1:9" ht="36">
+    <row r="1815" spans="1:9" ht="36" hidden="1">
       <c r="A1815" s="2" t="s">
         <v>2154</v>
       </c>
@@ -58518,7 +58519,7 @@
       </c>
       <c r="I1815" s="4"/>
     </row>
-    <row r="1816" spans="1:9" ht="36">
+    <row r="1816" spans="1:9" ht="36" hidden="1">
       <c r="A1816" s="2" t="s">
         <v>2156</v>
       </c>
@@ -58545,7 +58546,7 @@
       </c>
       <c r="I1816" s="4"/>
     </row>
-    <row r="1817" spans="1:9" ht="48">
+    <row r="1817" spans="1:9" ht="48" hidden="1">
       <c r="A1817" s="2" t="s">
         <v>2158</v>
       </c>
@@ -58572,7 +58573,7 @@
       </c>
       <c r="I1817" s="4"/>
     </row>
-    <row r="1818" spans="1:9" ht="36">
+    <row r="1818" spans="1:9" ht="36" hidden="1">
       <c r="A1818" s="2" t="s">
         <v>2160</v>
       </c>
@@ -58680,7 +58681,7 @@
       </c>
       <c r="I1821" s="4"/>
     </row>
-    <row r="1822" spans="1:9" ht="36">
+    <row r="1822" spans="1:9" ht="36" hidden="1">
       <c r="A1822" s="2" t="s">
         <v>2168</v>
       </c>
@@ -58734,7 +58735,7 @@
       </c>
       <c r="I1823" s="4"/>
     </row>
-    <row r="1824" spans="1:9" ht="36">
+    <row r="1824" spans="1:9" ht="36" hidden="1">
       <c r="A1824" s="2" t="s">
         <v>2172</v>
       </c>
@@ -58842,7 +58843,7 @@
       </c>
       <c r="I1827" s="4"/>
     </row>
-    <row r="1828" spans="1:9" ht="36">
+    <row r="1828" spans="1:9" ht="36" hidden="1">
       <c r="A1828" s="2" t="s">
         <v>2182</v>
       </c>
@@ -58869,7 +58870,7 @@
       </c>
       <c r="I1828" s="4"/>
     </row>
-    <row r="1829" spans="1:9" ht="36">
+    <row r="1829" spans="1:9" ht="36" hidden="1">
       <c r="A1829" s="2" t="s">
         <v>2184</v>
       </c>
@@ -58896,7 +58897,7 @@
       </c>
       <c r="I1829" s="4"/>
     </row>
-    <row r="1830" spans="1:9" ht="36">
+    <row r="1830" spans="1:9" ht="36" hidden="1">
       <c r="A1830" s="2" t="s">
         <v>2186</v>
       </c>
@@ -58923,7 +58924,7 @@
       </c>
       <c r="I1830" s="4"/>
     </row>
-    <row r="1831" spans="1:9" ht="36">
+    <row r="1831" spans="1:9" ht="36" hidden="1">
       <c r="A1831" s="2" t="s">
         <v>2188</v>
       </c>
@@ -58950,7 +58951,7 @@
       </c>
       <c r="I1831" s="4"/>
     </row>
-    <row r="1832" spans="1:9" ht="36">
+    <row r="1832" spans="1:9" ht="36" hidden="1">
       <c r="A1832" s="2" t="s">
         <v>2190</v>
       </c>
@@ -58977,7 +58978,7 @@
       </c>
       <c r="I1832" s="4"/>
     </row>
-    <row r="1833" spans="1:9" ht="36">
+    <row r="1833" spans="1:9" ht="36" hidden="1">
       <c r="A1833" s="2" t="s">
         <v>2192</v>
       </c>
@@ -59004,7 +59005,7 @@
       </c>
       <c r="I1833" s="4"/>
     </row>
-    <row r="1834" spans="1:9" ht="36">
+    <row r="1834" spans="1:9" ht="36" hidden="1">
       <c r="A1834" s="2" t="s">
         <v>2194</v>
       </c>
@@ -59031,7 +59032,7 @@
       </c>
       <c r="I1834" s="4"/>
     </row>
-    <row r="1835" spans="1:9" ht="36">
+    <row r="1835" spans="1:9" ht="36" hidden="1">
       <c r="A1835" s="2" t="s">
         <v>2196</v>
       </c>
@@ -59058,7 +59059,7 @@
       </c>
       <c r="I1835" s="4"/>
     </row>
-    <row r="1836" spans="1:9" ht="36">
+    <row r="1836" spans="1:9" ht="36" hidden="1">
       <c r="A1836" s="2" t="s">
         <v>2198</v>
       </c>
@@ -59085,7 +59086,7 @@
       </c>
       <c r="I1836" s="4"/>
     </row>
-    <row r="1837" spans="1:9" ht="36">
+    <row r="1837" spans="1:9" ht="36" hidden="1">
       <c r="A1837" s="2" t="s">
         <v>2199</v>
       </c>
@@ -59112,7 +59113,7 @@
       </c>
       <c r="I1837" s="4"/>
     </row>
-    <row r="1838" spans="1:9" ht="36">
+    <row r="1838" spans="1:9" ht="36" hidden="1">
       <c r="A1838" s="2" t="s">
         <v>2200</v>
       </c>
@@ -59139,7 +59140,7 @@
       </c>
       <c r="I1838" s="4"/>
     </row>
-    <row r="1839" spans="1:9" ht="36">
+    <row r="1839" spans="1:9" ht="36" hidden="1">
       <c r="A1839" s="2" t="s">
         <v>2201</v>
       </c>
@@ -59166,7 +59167,7 @@
       </c>
       <c r="I1839" s="4"/>
     </row>
-    <row r="1840" spans="1:9" ht="36">
+    <row r="1840" spans="1:9" ht="36" hidden="1">
       <c r="A1840" s="2" t="s">
         <v>2202</v>
       </c>
@@ -59193,7 +59194,7 @@
       </c>
       <c r="I1840" s="4"/>
     </row>
-    <row r="1841" spans="1:9" ht="36">
+    <row r="1841" spans="1:9" ht="36" hidden="1">
       <c r="A1841" s="2" t="s">
         <v>2203</v>
       </c>
@@ -59220,7 +59221,7 @@
       </c>
       <c r="I1841" s="4"/>
     </row>
-    <row r="1842" spans="1:9" ht="36">
+    <row r="1842" spans="1:9" ht="36" hidden="1">
       <c r="A1842" s="2" t="s">
         <v>2204</v>
       </c>
@@ -59247,7 +59248,7 @@
       </c>
       <c r="I1842" s="4"/>
     </row>
-    <row r="1843" spans="1:9" ht="36">
+    <row r="1843" spans="1:9" ht="36" hidden="1">
       <c r="A1843" s="2" t="s">
         <v>2205</v>
       </c>
@@ -59274,7 +59275,7 @@
       </c>
       <c r="I1843" s="4"/>
     </row>
-    <row r="1844" spans="1:9" ht="36">
+    <row r="1844" spans="1:9" ht="36" hidden="1">
       <c r="A1844" s="2" t="s">
         <v>2206</v>
       </c>
@@ -59301,7 +59302,7 @@
       </c>
       <c r="I1844" s="4"/>
     </row>
-    <row r="1845" spans="1:9" ht="36">
+    <row r="1845" spans="1:9" ht="36" hidden="1">
       <c r="A1845" s="2" t="s">
         <v>2207</v>
       </c>
@@ -59328,7 +59329,7 @@
       </c>
       <c r="I1845" s="4"/>
     </row>
-    <row r="1846" spans="1:9" ht="36">
+    <row r="1846" spans="1:9" ht="36" hidden="1">
       <c r="A1846" s="2" t="s">
         <v>2208</v>
       </c>
@@ -59355,7 +59356,7 @@
       </c>
       <c r="I1846" s="4"/>
     </row>
-    <row r="1847" spans="1:9" ht="36">
+    <row r="1847" spans="1:9" ht="36" hidden="1">
       <c r="A1847" s="2" t="s">
         <v>2209</v>
       </c>
@@ -59382,7 +59383,7 @@
       </c>
       <c r="I1847" s="4"/>
     </row>
-    <row r="1848" spans="1:9" ht="36">
+    <row r="1848" spans="1:9" ht="36" hidden="1">
       <c r="A1848" s="2" t="s">
         <v>2210</v>
       </c>
@@ -59409,7 +59410,7 @@
       </c>
       <c r="I1848" s="4"/>
     </row>
-    <row r="1849" spans="1:9" ht="36">
+    <row r="1849" spans="1:9" ht="36" hidden="1">
       <c r="A1849" s="2" t="s">
         <v>2211</v>
       </c>
@@ -59436,7 +59437,7 @@
       </c>
       <c r="I1849" s="4"/>
     </row>
-    <row r="1850" spans="1:9" ht="36">
+    <row r="1850" spans="1:9" ht="36" hidden="1">
       <c r="A1850" s="2" t="s">
         <v>2212</v>
       </c>
@@ -59463,7 +59464,7 @@
       </c>
       <c r="I1850" s="4"/>
     </row>
-    <row r="1851" spans="1:9" ht="36">
+    <row r="1851" spans="1:9" ht="36" hidden="1">
       <c r="A1851" s="2" t="s">
         <v>2213</v>
       </c>
@@ -59490,7 +59491,7 @@
       </c>
       <c r="I1851" s="4"/>
     </row>
-    <row r="1852" spans="1:9" ht="36">
+    <row r="1852" spans="1:9" ht="36" hidden="1">
       <c r="A1852" s="2" t="s">
         <v>2214</v>
       </c>
@@ -59517,7 +59518,7 @@
       </c>
       <c r="I1852" s="4"/>
     </row>
-    <row r="1853" spans="1:9" ht="36">
+    <row r="1853" spans="1:9" ht="36" hidden="1">
       <c r="A1853" s="2" t="s">
         <v>2215</v>
       </c>
@@ -59544,7 +59545,7 @@
       </c>
       <c r="I1853" s="4"/>
     </row>
-    <row r="1854" spans="1:9" ht="36">
+    <row r="1854" spans="1:9" ht="36" hidden="1">
       <c r="A1854" s="2" t="s">
         <v>2216</v>
       </c>
@@ -59571,7 +59572,7 @@
       </c>
       <c r="I1854" s="4"/>
     </row>
-    <row r="1855" spans="1:9" ht="36">
+    <row r="1855" spans="1:9" ht="36" hidden="1">
       <c r="A1855" s="2" t="s">
         <v>2217</v>
       </c>
@@ -59598,7 +59599,7 @@
       </c>
       <c r="I1855" s="4"/>
     </row>
-    <row r="1856" spans="1:9" ht="36">
+    <row r="1856" spans="1:9" ht="36" hidden="1">
       <c r="A1856" s="2" t="s">
         <v>2218</v>
       </c>
@@ -59625,7 +59626,7 @@
       </c>
       <c r="I1856" s="4"/>
     </row>
-    <row r="1857" spans="1:9" ht="36">
+    <row r="1857" spans="1:9" ht="36" hidden="1">
       <c r="A1857" s="2" t="s">
         <v>2219</v>
       </c>
@@ -59652,7 +59653,7 @@
       </c>
       <c r="I1857" s="4"/>
     </row>
-    <row r="1858" spans="1:9" ht="36">
+    <row r="1858" spans="1:9" ht="36" hidden="1">
       <c r="A1858" s="2" t="s">
         <v>2220</v>
       </c>
@@ -59679,7 +59680,7 @@
       </c>
       <c r="I1858" s="4"/>
     </row>
-    <row r="1859" spans="1:9" ht="36">
+    <row r="1859" spans="1:9" ht="36" hidden="1">
       <c r="A1859" s="2" t="s">
         <v>2222</v>
       </c>
@@ -59706,7 +59707,7 @@
       </c>
       <c r="I1859" s="4"/>
     </row>
-    <row r="1860" spans="1:9" ht="36">
+    <row r="1860" spans="1:9" ht="36" hidden="1">
       <c r="A1860" s="2" t="s">
         <v>2223</v>
       </c>
@@ -59760,7 +59761,7 @@
       </c>
       <c r="I1861" s="4"/>
     </row>
-    <row r="1862" spans="1:9" ht="36">
+    <row r="1862" spans="1:9" ht="36" hidden="1">
       <c r="A1862" s="2" t="s">
         <v>2225</v>
       </c>
@@ -59787,7 +59788,7 @@
       </c>
       <c r="I1862" s="4"/>
     </row>
-    <row r="1863" spans="1:9" ht="36">
+    <row r="1863" spans="1:9" ht="36" hidden="1">
       <c r="A1863" s="2" t="s">
         <v>2226</v>
       </c>
@@ -59814,7 +59815,7 @@
       </c>
       <c r="I1863" s="4"/>
     </row>
-    <row r="1864" spans="1:9" ht="36">
+    <row r="1864" spans="1:9" ht="36" hidden="1">
       <c r="A1864" s="2" t="s">
         <v>2227</v>
       </c>
@@ -59841,7 +59842,7 @@
       </c>
       <c r="I1864" s="4"/>
     </row>
-    <row r="1865" spans="1:9" ht="24">
+    <row r="1865" spans="1:9" ht="24" hidden="1">
       <c r="A1865" s="2" t="s">
         <v>2228</v>
       </c>
@@ -59868,7 +59869,7 @@
       </c>
       <c r="I1865" s="4"/>
     </row>
-    <row r="1866" spans="1:9" ht="24">
+    <row r="1866" spans="1:9" ht="24" hidden="1">
       <c r="A1866" s="2" t="s">
         <v>2231</v>
       </c>
@@ -59895,7 +59896,7 @@
       </c>
       <c r="I1866" s="4"/>
     </row>
-    <row r="1867" spans="1:9" ht="24">
+    <row r="1867" spans="1:9" ht="24" hidden="1">
       <c r="A1867" s="2" t="s">
         <v>2233</v>
       </c>
@@ -59922,7 +59923,7 @@
       </c>
       <c r="I1867" s="4"/>
     </row>
-    <row r="1868" spans="1:9" ht="24">
+    <row r="1868" spans="1:9" ht="24" hidden="1">
       <c r="A1868" s="2" t="s">
         <v>2235</v>
       </c>
@@ -59949,7 +59950,7 @@
       </c>
       <c r="I1868" s="4"/>
     </row>
-    <row r="1869" spans="1:9" ht="24">
+    <row r="1869" spans="1:9" ht="24" hidden="1">
       <c r="A1869" s="2" t="s">
         <v>2237</v>
       </c>
@@ -59976,7 +59977,7 @@
       </c>
       <c r="I1869" s="4"/>
     </row>
-    <row r="1870" spans="1:9" ht="24">
+    <row r="1870" spans="1:9" ht="24" hidden="1">
       <c r="A1870" s="2" t="s">
         <v>2239</v>
       </c>
@@ -60003,7 +60004,7 @@
       </c>
       <c r="I1870" s="4"/>
     </row>
-    <row r="1871" spans="1:9" ht="36">
+    <row r="1871" spans="1:9" ht="36" hidden="1">
       <c r="A1871" s="2" t="s">
         <v>2241</v>
       </c>
@@ -60030,7 +60031,7 @@
       </c>
       <c r="I1871" s="4"/>
     </row>
-    <row r="1872" spans="1:9" ht="24">
+    <row r="1872" spans="1:9" ht="24" hidden="1">
       <c r="A1872" s="2" t="s">
         <v>2243</v>
       </c>
@@ -60057,7 +60058,7 @@
       </c>
       <c r="I1872" s="4"/>
     </row>
-    <row r="1873" spans="1:9" ht="24">
+    <row r="1873" spans="1:9" ht="24" hidden="1">
       <c r="A1873" s="2" t="s">
         <v>2245</v>
       </c>
@@ -60084,7 +60085,7 @@
       </c>
       <c r="I1873" s="4"/>
     </row>
-    <row r="1874" spans="1:9" ht="24">
+    <row r="1874" spans="1:9" ht="24" hidden="1">
       <c r="A1874" s="2" t="s">
         <v>2247</v>
       </c>
@@ -60111,7 +60112,7 @@
       </c>
       <c r="I1874" s="4"/>
     </row>
-    <row r="1875" spans="1:9" ht="24">
+    <row r="1875" spans="1:9" ht="24" hidden="1">
       <c r="A1875" s="2" t="s">
         <v>2249</v>
       </c>
@@ -60138,7 +60139,7 @@
       </c>
       <c r="I1875" s="4"/>
     </row>
-    <row r="1876" spans="1:9" ht="24">
+    <row r="1876" spans="1:9" ht="24" hidden="1">
       <c r="A1876" s="2" t="s">
         <v>2251</v>
       </c>
@@ -60165,7 +60166,7 @@
       </c>
       <c r="I1876" s="4"/>
     </row>
-    <row r="1877" spans="1:9" ht="24">
+    <row r="1877" spans="1:9" ht="24" hidden="1">
       <c r="A1877" s="2" t="s">
         <v>2198</v>
       </c>
@@ -60246,7 +60247,7 @@
       </c>
       <c r="I1879" s="4"/>
     </row>
-    <row r="1880" spans="1:9" ht="24">
+    <row r="1880" spans="1:9" ht="24" hidden="1">
       <c r="A1880" s="2" t="s">
         <v>2203</v>
       </c>
@@ -60273,7 +60274,7 @@
       </c>
       <c r="I1880" s="4"/>
     </row>
-    <row r="1881" spans="1:9" ht="24">
+    <row r="1881" spans="1:9" ht="24" hidden="1">
       <c r="A1881" s="2" t="s">
         <v>2253</v>
       </c>
@@ -60300,7 +60301,7 @@
       </c>
       <c r="I1881" s="4"/>
     </row>
-    <row r="1882" spans="1:9" ht="24">
+    <row r="1882" spans="1:9" ht="24" hidden="1">
       <c r="A1882" s="2" t="s">
         <v>2204</v>
       </c>
@@ -60327,7 +60328,7 @@
       </c>
       <c r="I1882" s="4"/>
     </row>
-    <row r="1883" spans="1:9" ht="24">
+    <row r="1883" spans="1:9" ht="24" hidden="1">
       <c r="A1883" s="2" t="s">
         <v>2205</v>
       </c>
@@ -60354,7 +60355,7 @@
       </c>
       <c r="I1883" s="4"/>
     </row>
-    <row r="1884" spans="1:9" ht="24">
+    <row r="1884" spans="1:9" ht="24" hidden="1">
       <c r="A1884" s="2" t="s">
         <v>2254</v>
       </c>
@@ -60381,7 +60382,7 @@
       </c>
       <c r="I1884" s="4"/>
     </row>
-    <row r="1885" spans="1:9" ht="24">
+    <row r="1885" spans="1:9" ht="24" hidden="1">
       <c r="A1885" s="2" t="s">
         <v>2206</v>
       </c>
@@ -60435,7 +60436,7 @@
       </c>
       <c r="I1886" s="4"/>
     </row>
-    <row r="1887" spans="1:9" ht="24">
+    <row r="1887" spans="1:9" ht="24" hidden="1">
       <c r="A1887" s="2" t="s">
         <v>2256</v>
       </c>
@@ -60462,7 +60463,7 @@
       </c>
       <c r="I1887" s="4"/>
     </row>
-    <row r="1888" spans="1:9" ht="24">
+    <row r="1888" spans="1:9" ht="24" hidden="1">
       <c r="A1888" s="2" t="s">
         <v>2258</v>
       </c>
@@ -60489,7 +60490,7 @@
       </c>
       <c r="I1888" s="4"/>
     </row>
-    <row r="1889" spans="1:9" ht="24">
+    <row r="1889" spans="1:9" ht="24" hidden="1">
       <c r="A1889" s="2" t="s">
         <v>2260</v>
       </c>
@@ -60516,7 +60517,7 @@
       </c>
       <c r="I1889" s="4"/>
     </row>
-    <row r="1890" spans="1:9" ht="24">
+    <row r="1890" spans="1:9" ht="24" hidden="1">
       <c r="A1890" s="2" t="s">
         <v>2208</v>
       </c>
@@ -60543,7 +60544,7 @@
       </c>
       <c r="I1890" s="4"/>
     </row>
-    <row r="1891" spans="1:9" ht="24">
+    <row r="1891" spans="1:9" ht="24" hidden="1">
       <c r="A1891" s="2" t="s">
         <v>2209</v>
       </c>
@@ -60597,7 +60598,7 @@
       </c>
       <c r="I1892" s="4"/>
     </row>
-    <row r="1893" spans="1:9" ht="24">
+    <row r="1893" spans="1:9" ht="24" hidden="1">
       <c r="A1893" s="2" t="s">
         <v>2212</v>
       </c>
@@ -60624,7 +60625,7 @@
       </c>
       <c r="I1893" s="4"/>
     </row>
-    <row r="1894" spans="1:9" ht="24">
+    <row r="1894" spans="1:9" ht="24" hidden="1">
       <c r="A1894" s="2" t="s">
         <v>2261</v>
       </c>
@@ -60678,7 +60679,7 @@
       </c>
       <c r="I1895" s="4"/>
     </row>
-    <row r="1896" spans="1:9" ht="24">
+    <row r="1896" spans="1:9" ht="24" hidden="1">
       <c r="A1896" s="2" t="s">
         <v>2215</v>
       </c>
@@ -60705,7 +60706,7 @@
       </c>
       <c r="I1896" s="4"/>
     </row>
-    <row r="1897" spans="1:9" ht="24">
+    <row r="1897" spans="1:9" ht="24" hidden="1">
       <c r="A1897" s="2" t="s">
         <v>2216</v>
       </c>
@@ -60732,7 +60733,7 @@
       </c>
       <c r="I1897" s="4"/>
     </row>
-    <row r="1898" spans="1:9" ht="24">
+    <row r="1898" spans="1:9" ht="24" hidden="1">
       <c r="A1898" s="2" t="s">
         <v>2217</v>
       </c>
@@ -60759,7 +60760,7 @@
       </c>
       <c r="I1898" s="4"/>
     </row>
-    <row r="1899" spans="1:9" ht="24">
+    <row r="1899" spans="1:9" ht="24" hidden="1">
       <c r="A1899" s="2" t="s">
         <v>2218</v>
       </c>
@@ -60786,7 +60787,7 @@
       </c>
       <c r="I1899" s="4"/>
     </row>
-    <row r="1900" spans="1:9" ht="24">
+    <row r="1900" spans="1:9" ht="24" hidden="1">
       <c r="A1900" s="2" t="s">
         <v>2219</v>
       </c>
@@ -60813,7 +60814,7 @@
       </c>
       <c r="I1900" s="4"/>
     </row>
-    <row r="1901" spans="1:9" ht="24">
+    <row r="1901" spans="1:9" ht="24" hidden="1">
       <c r="A1901" s="2" t="s">
         <v>2263</v>
       </c>
@@ -60840,7 +60841,7 @@
       </c>
       <c r="I1901" s="4"/>
     </row>
-    <row r="1902" spans="1:9" ht="24">
+    <row r="1902" spans="1:9" ht="24" hidden="1">
       <c r="A1902" s="2" t="s">
         <v>2222</v>
       </c>
@@ -60867,7 +60868,7 @@
       </c>
       <c r="I1902" s="4"/>
     </row>
-    <row r="1903" spans="1:9" ht="24">
+    <row r="1903" spans="1:9" ht="24" hidden="1">
       <c r="A1903" s="2" t="s">
         <v>2264</v>
       </c>
@@ -60894,7 +60895,7 @@
       </c>
       <c r="I1903" s="4"/>
     </row>
-    <row r="1904" spans="1:9" ht="24">
+    <row r="1904" spans="1:9" ht="24" hidden="1">
       <c r="A1904" s="2" t="s">
         <v>2265</v>
       </c>
@@ -60921,7 +60922,7 @@
       </c>
       <c r="I1904" s="4"/>
     </row>
-    <row r="1905" spans="1:9" ht="24">
+    <row r="1905" spans="1:9" ht="24" hidden="1">
       <c r="A1905" s="2" t="s">
         <v>2266</v>
       </c>
@@ -60948,7 +60949,7 @@
       </c>
       <c r="I1905" s="4"/>
     </row>
-    <row r="1906" spans="1:9" ht="24">
+    <row r="1906" spans="1:9" ht="24" hidden="1">
       <c r="A1906" s="2" t="s">
         <v>2267</v>
       </c>
@@ -60975,7 +60976,7 @@
       </c>
       <c r="I1906" s="4"/>
     </row>
-    <row r="1907" spans="1:9" ht="24">
+    <row r="1907" spans="1:9" ht="24" hidden="1">
       <c r="A1907" s="2" t="s">
         <v>2223</v>
       </c>
@@ -61002,7 +61003,7 @@
       </c>
       <c r="I1907" s="4"/>
     </row>
-    <row r="1908" spans="1:9" ht="24">
+    <row r="1908" spans="1:9" ht="24" hidden="1">
       <c r="A1908" s="2" t="s">
         <v>2224</v>
       </c>
@@ -61029,7 +61030,7 @@
       </c>
       <c r="I1908" s="4"/>
     </row>
-    <row r="1909" spans="1:9" ht="24">
+    <row r="1909" spans="1:9" ht="24" hidden="1">
       <c r="A1909" s="2" t="s">
         <v>2225</v>
       </c>
@@ -61056,7 +61057,7 @@
       </c>
       <c r="I1909" s="4"/>
     </row>
-    <row r="1910" spans="1:9" ht="24">
+    <row r="1910" spans="1:9" ht="24" hidden="1">
       <c r="A1910" s="2" t="s">
         <v>2268</v>
       </c>
@@ -61083,7 +61084,7 @@
       </c>
       <c r="I1910" s="4"/>
     </row>
-    <row r="1911" spans="1:9" ht="24">
+    <row r="1911" spans="1:9" ht="24" hidden="1">
       <c r="A1911" s="2" t="s">
         <v>2226</v>
       </c>
@@ -61110,7 +61111,7 @@
       </c>
       <c r="I1911" s="4"/>
     </row>
-    <row r="1912" spans="1:9" ht="24">
+    <row r="1912" spans="1:9" ht="24" hidden="1">
       <c r="A1912" s="2" t="s">
         <v>2269</v>
       </c>
@@ -61137,7 +61138,7 @@
       </c>
       <c r="I1912" s="4"/>
     </row>
-    <row r="1913" spans="1:9" ht="24">
+    <row r="1913" spans="1:9" ht="24" hidden="1">
       <c r="A1913" s="2" t="s">
         <v>2270</v>
       </c>
@@ -61164,7 +61165,7 @@
       </c>
       <c r="I1913" s="4"/>
     </row>
-    <row r="1914" spans="1:9" ht="24">
+    <row r="1914" spans="1:9" ht="24" hidden="1">
       <c r="A1914" s="2" t="s">
         <v>2271</v>
       </c>
@@ -61191,7 +61192,7 @@
       </c>
       <c r="I1914" s="4"/>
     </row>
-    <row r="1915" spans="1:9" ht="24">
+    <row r="1915" spans="1:9" ht="24" hidden="1">
       <c r="A1915" s="2" t="s">
         <v>2272</v>
       </c>
@@ -61596,7 +61597,7 @@
       </c>
       <c r="I1929" s="4"/>
     </row>
-    <row r="1930" spans="1:9" ht="48">
+    <row r="1930" spans="1:9" ht="48" hidden="1">
       <c r="A1930" s="2" t="s">
         <v>2300</v>
       </c>
@@ -61704,7 +61705,7 @@
       </c>
       <c r="I1933" s="4"/>
     </row>
-    <row r="1934" spans="1:9" ht="48">
+    <row r="1934" spans="1:9" ht="48" hidden="1">
       <c r="A1934" s="2" t="s">
         <v>2304</v>
       </c>
@@ -61731,7 +61732,7 @@
       </c>
       <c r="I1934" s="4"/>
     </row>
-    <row r="1935" spans="1:9" ht="48">
+    <row r="1935" spans="1:9" ht="48" hidden="1">
       <c r="A1935" s="2" t="s">
         <v>2305</v>
       </c>
@@ -61758,7 +61759,7 @@
       </c>
       <c r="I1935" s="4"/>
     </row>
-    <row r="1936" spans="1:9" ht="48">
+    <row r="1936" spans="1:9" ht="48" hidden="1">
       <c r="A1936" s="2" t="s">
         <v>2306</v>
       </c>
@@ -61785,7 +61786,7 @@
       </c>
       <c r="I1936" s="4"/>
     </row>
-    <row r="1937" spans="1:9" ht="48">
+    <row r="1937" spans="1:9" ht="48" hidden="1">
       <c r="A1937" s="2" t="s">
         <v>2307</v>
       </c>
@@ -61812,7 +61813,7 @@
       </c>
       <c r="I1937" s="4"/>
     </row>
-    <row r="1938" spans="1:9" ht="48">
+    <row r="1938" spans="1:9" ht="48" hidden="1">
       <c r="A1938" s="2" t="s">
         <v>2308</v>
       </c>
@@ -61839,7 +61840,7 @@
       </c>
       <c r="I1938" s="4"/>
     </row>
-    <row r="1939" spans="1:9" ht="48">
+    <row r="1939" spans="1:9" ht="48" hidden="1">
       <c r="A1939" s="2" t="s">
         <v>2309</v>
       </c>
@@ -61866,7 +61867,7 @@
       </c>
       <c r="I1939" s="4"/>
     </row>
-    <row r="1940" spans="1:9" ht="48">
+    <row r="1940" spans="1:9" ht="48" hidden="1">
       <c r="A1940" s="2" t="s">
         <v>2310</v>
       </c>
@@ -61893,7 +61894,7 @@
       </c>
       <c r="I1940" s="4"/>
     </row>
-    <row r="1941" spans="1:9" ht="48">
+    <row r="1941" spans="1:9" ht="48" hidden="1">
       <c r="A1941" s="2" t="s">
         <v>2311</v>
       </c>
@@ -61920,7 +61921,7 @@
       </c>
       <c r="I1941" s="4"/>
     </row>
-    <row r="1942" spans="1:9" ht="48">
+    <row r="1942" spans="1:9" ht="48" hidden="1">
       <c r="A1942" s="2" t="s">
         <v>2312</v>
       </c>
@@ -61947,7 +61948,7 @@
       </c>
       <c r="I1942" s="4"/>
     </row>
-    <row r="1943" spans="1:9" ht="48">
+    <row r="1943" spans="1:9" ht="48" hidden="1">
       <c r="A1943" s="2" t="s">
         <v>2313</v>
       </c>
@@ -62028,7 +62029,7 @@
       </c>
       <c r="I1945" s="4"/>
     </row>
-    <row r="1946" spans="1:9" ht="48">
+    <row r="1946" spans="1:9" ht="48" hidden="1">
       <c r="A1946" s="2" t="s">
         <v>2317</v>
       </c>
@@ -62055,7 +62056,7 @@
       </c>
       <c r="I1946" s="4"/>
     </row>
-    <row r="1947" spans="1:9">
+    <row r="1947" spans="1:9" hidden="1">
       <c r="A1947" s="2" t="s">
         <v>2319</v>
       </c>
@@ -62082,7 +62083,7 @@
       </c>
       <c r="I1947" s="4"/>
     </row>
-    <row r="1948" spans="1:9">
+    <row r="1948" spans="1:9" hidden="1">
       <c r="A1948" s="2" t="s">
         <v>2322</v>
       </c>
@@ -62109,7 +62110,7 @@
       </c>
       <c r="I1948" s="4"/>
     </row>
-    <row r="1949" spans="1:9">
+    <row r="1949" spans="1:9" hidden="1">
       <c r="A1949" s="2" t="s">
         <v>2324</v>
       </c>
@@ -62136,7 +62137,7 @@
       </c>
       <c r="I1949" s="4"/>
     </row>
-    <row r="1950" spans="1:9">
+    <row r="1950" spans="1:9" hidden="1">
       <c r="A1950" s="2" t="s">
         <v>2326</v>
       </c>
@@ -62163,7 +62164,7 @@
       </c>
       <c r="I1950" s="4"/>
     </row>
-    <row r="1951" spans="1:9">
+    <row r="1951" spans="1:9" hidden="1">
       <c r="A1951" s="2" t="s">
         <v>2328</v>
       </c>
@@ -62190,7 +62191,7 @@
       </c>
       <c r="I1951" s="4"/>
     </row>
-    <row r="1952" spans="1:9">
+    <row r="1952" spans="1:9" hidden="1">
       <c r="A1952" s="2" t="s">
         <v>2330</v>
       </c>
@@ -62217,7 +62218,7 @@
       </c>
       <c r="I1952" s="4"/>
     </row>
-    <row r="1953" spans="1:9" ht="24">
+    <row r="1953" spans="1:9" ht="24" hidden="1">
       <c r="A1953" s="2" t="s">
         <v>2332</v>
       </c>
@@ -62244,7 +62245,7 @@
       </c>
       <c r="I1953" s="4"/>
     </row>
-    <row r="1954" spans="1:9">
+    <row r="1954" spans="1:9" hidden="1">
       <c r="A1954" s="2" t="s">
         <v>2334</v>
       </c>
@@ -62271,7 +62272,7 @@
       </c>
       <c r="I1954" s="4"/>
     </row>
-    <row r="1955" spans="1:9">
+    <row r="1955" spans="1:9" hidden="1">
       <c r="A1955" s="2" t="s">
         <v>2336</v>
       </c>
@@ -62298,7 +62299,7 @@
       </c>
       <c r="I1955" s="4"/>
     </row>
-    <row r="1956" spans="1:9">
+    <row r="1956" spans="1:9" hidden="1">
       <c r="A1956" s="2" t="s">
         <v>2338</v>
       </c>
@@ -62325,7 +62326,7 @@
       </c>
       <c r="I1956" s="4"/>
     </row>
-    <row r="1957" spans="1:9">
+    <row r="1957" spans="1:9" hidden="1">
       <c r="A1957" s="2" t="s">
         <v>2340</v>
       </c>
@@ -62352,7 +62353,7 @@
       </c>
       <c r="I1957" s="4"/>
     </row>
-    <row r="1958" spans="1:9">
+    <row r="1958" spans="1:9" hidden="1">
       <c r="A1958" s="2" t="s">
         <v>2342</v>
       </c>
@@ -62379,7 +62380,7 @@
       </c>
       <c r="I1958" s="4"/>
     </row>
-    <row r="1959" spans="1:9" ht="24">
+    <row r="1959" spans="1:9" ht="24" hidden="1">
       <c r="A1959" s="2" t="s">
         <v>2344</v>
       </c>
@@ -62406,7 +62407,7 @@
       </c>
       <c r="I1959" s="4"/>
     </row>
-    <row r="1960" spans="1:9" ht="24">
+    <row r="1960" spans="1:9" ht="24" hidden="1">
       <c r="A1960" s="2" t="s">
         <v>2346</v>
       </c>
@@ -62433,7 +62434,7 @@
       </c>
       <c r="I1960" s="4"/>
     </row>
-    <row r="1961" spans="1:9">
+    <row r="1961" spans="1:9" hidden="1">
       <c r="A1961" s="2" t="s">
         <v>2348</v>
       </c>
@@ -62460,7 +62461,7 @@
       </c>
       <c r="I1961" s="4"/>
     </row>
-    <row r="1962" spans="1:9">
+    <row r="1962" spans="1:9" hidden="1">
       <c r="A1962" s="2" t="s">
         <v>2350</v>
       </c>
@@ -62487,7 +62488,7 @@
       </c>
       <c r="I1962" s="4"/>
     </row>
-    <row r="1963" spans="1:9">
+    <row r="1963" spans="1:9" hidden="1">
       <c r="A1963" s="2" t="s">
         <v>2351</v>
       </c>
@@ -62514,7 +62515,7 @@
       </c>
       <c r="I1963" s="4"/>
     </row>
-    <row r="1964" spans="1:9">
+    <row r="1964" spans="1:9" hidden="1">
       <c r="A1964" s="2" t="s">
         <v>2352</v>
       </c>
@@ -62541,7 +62542,7 @@
       </c>
       <c r="I1964" s="4"/>
     </row>
-    <row r="1965" spans="1:9">
+    <row r="1965" spans="1:9" hidden="1">
       <c r="A1965" s="2" t="s">
         <v>2353</v>
       </c>
@@ -62568,7 +62569,7 @@
       </c>
       <c r="I1965" s="4"/>
     </row>
-    <row r="1966" spans="1:9">
+    <row r="1966" spans="1:9" hidden="1">
       <c r="A1966" s="2" t="s">
         <v>2354</v>
       </c>
@@ -62595,7 +62596,7 @@
       </c>
       <c r="I1966" s="4"/>
     </row>
-    <row r="1967" spans="1:9">
+    <row r="1967" spans="1:9" hidden="1">
       <c r="A1967" s="2" t="s">
         <v>2355</v>
       </c>
@@ -62622,7 +62623,7 @@
       </c>
       <c r="I1967" s="4"/>
     </row>
-    <row r="1968" spans="1:9">
+    <row r="1968" spans="1:9" hidden="1">
       <c r="A1968" s="2" t="s">
         <v>2356</v>
       </c>
@@ -62649,7 +62650,7 @@
       </c>
       <c r="I1968" s="4"/>
     </row>
-    <row r="1969" spans="1:9">
+    <row r="1969" spans="1:9" hidden="1">
       <c r="A1969" s="2" t="s">
         <v>2357</v>
       </c>
@@ -62676,7 +62677,7 @@
       </c>
       <c r="I1969" s="4"/>
     </row>
-    <row r="1970" spans="1:9">
+    <row r="1970" spans="1:9" hidden="1">
       <c r="A1970" s="2" t="s">
         <v>2358</v>
       </c>
@@ -62703,7 +62704,7 @@
       </c>
       <c r="I1970" s="4"/>
     </row>
-    <row r="1971" spans="1:9">
+    <row r="1971" spans="1:9" hidden="1">
       <c r="A1971" s="2" t="s">
         <v>2359</v>
       </c>
@@ -62730,7 +62731,7 @@
       </c>
       <c r="I1971" s="4"/>
     </row>
-    <row r="1972" spans="1:9" ht="24">
+    <row r="1972" spans="1:9" ht="24" hidden="1">
       <c r="A1972" s="2" t="s">
         <v>2360</v>
       </c>
@@ -62784,7 +62785,7 @@
       </c>
       <c r="I1973" s="4"/>
     </row>
-    <row r="1974" spans="1:9">
+    <row r="1974" spans="1:9" hidden="1">
       <c r="A1974" s="2" t="s">
         <v>2362</v>
       </c>
@@ -62811,7 +62812,7 @@
       </c>
       <c r="I1974" s="4"/>
     </row>
-    <row r="1975" spans="1:9">
+    <row r="1975" spans="1:9" hidden="1">
       <c r="A1975" s="2" t="s">
         <v>2363</v>
       </c>
@@ -62838,7 +62839,7 @@
       </c>
       <c r="I1975" s="4"/>
     </row>
-    <row r="1976" spans="1:9" ht="24">
+    <row r="1976" spans="1:9" ht="24" hidden="1">
       <c r="A1976" s="2" t="s">
         <v>2364</v>
       </c>
@@ -62865,7 +62866,7 @@
       </c>
       <c r="I1976" s="4"/>
     </row>
-    <row r="1977" spans="1:9">
+    <row r="1977" spans="1:9" hidden="1">
       <c r="A1977" s="2" t="s">
         <v>2365</v>
       </c>
@@ -62892,7 +62893,7 @@
       </c>
       <c r="I1977" s="4"/>
     </row>
-    <row r="1978" spans="1:9" ht="24">
+    <row r="1978" spans="1:9" ht="24" hidden="1">
       <c r="A1978" s="2" t="s">
         <v>2366</v>
       </c>
@@ -62919,7 +62920,7 @@
       </c>
       <c r="I1978" s="4"/>
     </row>
-    <row r="1979" spans="1:9" ht="36">
+    <row r="1979" spans="1:9" ht="36" hidden="1">
       <c r="A1979" s="2" t="s">
         <v>2367</v>
       </c>
@@ -63027,7 +63028,7 @@
       </c>
       <c r="I1982" s="4"/>
     </row>
-    <row r="1983" spans="1:9" ht="24">
+    <row r="1983" spans="1:9" ht="24" hidden="1">
       <c r="A1983" s="2" t="s">
         <v>2376</v>
       </c>
@@ -63054,7 +63055,7 @@
       </c>
       <c r="I1983" s="4"/>
     </row>
-    <row r="1984" spans="1:9" ht="36">
+    <row r="1984" spans="1:9" ht="36" hidden="1">
       <c r="A1984" s="2" t="s">
         <v>2378</v>
       </c>
@@ -63081,7 +63082,7 @@
       </c>
       <c r="I1984" s="4"/>
     </row>
-    <row r="1985" spans="1:9" ht="60">
+    <row r="1985" spans="1:9" ht="60" hidden="1">
       <c r="A1985" s="2" t="s">
         <v>2380</v>
       </c>
@@ -63108,7 +63109,7 @@
       </c>
       <c r="I1985" s="4"/>
     </row>
-    <row r="1986" spans="1:9" ht="24">
+    <row r="1986" spans="1:9" ht="24" hidden="1">
       <c r="A1986" s="2" t="s">
         <v>2382</v>
       </c>
@@ -63135,7 +63136,7 @@
       </c>
       <c r="I1986" s="4"/>
     </row>
-    <row r="1987" spans="1:9" ht="24">
+    <row r="1987" spans="1:9" ht="24" hidden="1">
       <c r="A1987" s="2" t="s">
         <v>2384</v>
       </c>
@@ -63189,7 +63190,7 @@
       </c>
       <c r="I1988" s="4"/>
     </row>
-    <row r="1989" spans="1:9">
+    <row r="1989" spans="1:9" hidden="1">
       <c r="A1989" s="2" t="s">
         <v>2387</v>
       </c>
@@ -63216,7 +63217,7 @@
       </c>
       <c r="I1989" s="4"/>
     </row>
-    <row r="1990" spans="1:9">
+    <row r="1990" spans="1:9" hidden="1">
       <c r="A1990" s="2" t="s">
         <v>2388</v>
       </c>
@@ -63270,7 +63271,7 @@
       </c>
       <c r="I1991" s="4"/>
     </row>
-    <row r="1992" spans="1:9">
+    <row r="1992" spans="1:9" hidden="1">
       <c r="A1992" s="2" t="s">
         <v>2390</v>
       </c>
@@ -63297,7 +63298,7 @@
       </c>
       <c r="I1992" s="4"/>
     </row>
-    <row r="1993" spans="1:9">
+    <row r="1993" spans="1:9" hidden="1">
       <c r="A1993" s="2" t="s">
         <v>2391</v>
       </c>
@@ -63351,7 +63352,7 @@
       </c>
       <c r="I1994" s="4"/>
     </row>
-    <row r="1995" spans="1:9">
+    <row r="1995" spans="1:9" hidden="1">
       <c r="A1995" s="2" t="s">
         <v>2393</v>
       </c>
@@ -63378,7 +63379,7 @@
       </c>
       <c r="I1995" s="4"/>
     </row>
-    <row r="1996" spans="1:9">
+    <row r="1996" spans="1:9" hidden="1">
       <c r="A1996" s="2" t="s">
         <v>2394</v>
       </c>
@@ -63405,7 +63406,7 @@
       </c>
       <c r="I1996" s="4"/>
     </row>
-    <row r="1997" spans="1:9">
+    <row r="1997" spans="1:9" hidden="1">
       <c r="A1997" s="2" t="s">
         <v>2395</v>
       </c>
@@ -63459,7 +63460,7 @@
       </c>
       <c r="I1998" s="4"/>
     </row>
-    <row r="1999" spans="1:9">
+    <row r="1999" spans="1:9" hidden="1">
       <c r="A1999" s="2" t="s">
         <v>2397</v>
       </c>
@@ -63486,7 +63487,7 @@
       </c>
       <c r="I1999" s="4"/>
     </row>
-    <row r="2000" spans="1:9">
+    <row r="2000" spans="1:9" hidden="1">
       <c r="A2000" s="2" t="s">
         <v>2398</v>
       </c>
@@ -63567,7 +63568,7 @@
       </c>
       <c r="I2002" s="4"/>
     </row>
-    <row r="2003" spans="1:9" ht="24">
+    <row r="2003" spans="1:9" ht="24" hidden="1">
       <c r="A2003" s="2" t="s">
         <v>2401</v>
       </c>
@@ -63648,7 +63649,7 @@
       </c>
       <c r="I2005" s="4"/>
     </row>
-    <row r="2006" spans="1:9" ht="24">
+    <row r="2006" spans="1:9" ht="24" hidden="1">
       <c r="A2006" s="2" t="s">
         <v>2403</v>
       </c>
@@ -63675,7 +63676,7 @@
       </c>
       <c r="I2006" s="4"/>
     </row>
-    <row r="2007" spans="1:9" ht="24">
+    <row r="2007" spans="1:9" ht="24" hidden="1">
       <c r="A2007" s="2" t="s">
         <v>2405</v>
       </c>
@@ -63756,7 +63757,7 @@
       </c>
       <c r="I2009" s="4"/>
     </row>
-    <row r="2010" spans="1:9">
+    <row r="2010" spans="1:9" hidden="1">
       <c r="A2010" s="2" t="s">
         <v>2411</v>
       </c>
@@ -63783,7 +63784,7 @@
       </c>
       <c r="I2010" s="4"/>
     </row>
-    <row r="2011" spans="1:9" ht="24">
+    <row r="2011" spans="1:9" ht="24" hidden="1">
       <c r="A2011" s="2" t="s">
         <v>2413</v>
       </c>
@@ -63810,7 +63811,7 @@
       </c>
       <c r="I2011" s="4"/>
     </row>
-    <row r="2012" spans="1:9" ht="24">
+    <row r="2012" spans="1:9" ht="24" hidden="1">
       <c r="A2012" s="2" t="s">
         <v>2415</v>
       </c>
@@ -63837,7 +63838,7 @@
       </c>
       <c r="I2012" s="4"/>
     </row>
-    <row r="2013" spans="1:9">
+    <row r="2013" spans="1:9" hidden="1">
       <c r="A2013" s="2" t="s">
         <v>2386</v>
       </c>
@@ -63891,7 +63892,7 @@
       </c>
       <c r="I2014" s="4"/>
     </row>
-    <row r="2015" spans="1:9">
+    <row r="2015" spans="1:9" hidden="1">
       <c r="A2015" s="2" t="s">
         <v>2387</v>
       </c>
@@ -63972,7 +63973,7 @@
       </c>
       <c r="I2017" s="4"/>
     </row>
-    <row r="2018" spans="1:9">
+    <row r="2018" spans="1:9" hidden="1">
       <c r="A2018" s="2" t="s">
         <v>2390</v>
       </c>
@@ -63999,7 +64000,7 @@
       </c>
       <c r="I2018" s="4"/>
     </row>
-    <row r="2019" spans="1:9">
+    <row r="2019" spans="1:9" hidden="1">
       <c r="A2019" s="2" t="s">
         <v>2391</v>
       </c>
@@ -64026,7 +64027,7 @@
       </c>
       <c r="I2019" s="4"/>
     </row>
-    <row r="2020" spans="1:9">
+    <row r="2020" spans="1:9" hidden="1">
       <c r="A2020" s="2" t="s">
         <v>2393</v>
       </c>
@@ -64053,7 +64054,7 @@
       </c>
       <c r="I2020" s="4"/>
     </row>
-    <row r="2021" spans="1:9">
+    <row r="2021" spans="1:9" hidden="1">
       <c r="A2021" s="2" t="s">
         <v>2394</v>
       </c>
@@ -64107,7 +64108,7 @@
       </c>
       <c r="I2022" s="4"/>
     </row>
-    <row r="2023" spans="1:9">
+    <row r="2023" spans="1:9" hidden="1">
       <c r="A2023" s="2" t="s">
         <v>2395</v>
       </c>
@@ -64134,7 +64135,7 @@
       </c>
       <c r="I2023" s="4"/>
     </row>
-    <row r="2024" spans="1:9">
+    <row r="2024" spans="1:9" hidden="1">
       <c r="A2024" s="2" t="s">
         <v>2397</v>
       </c>
@@ -64161,7 +64162,7 @@
       </c>
       <c r="I2024" s="4"/>
     </row>
-    <row r="2025" spans="1:9">
+    <row r="2025" spans="1:9" hidden="1">
       <c r="A2025" s="2" t="s">
         <v>2398</v>
       </c>
@@ -64188,7 +64189,7 @@
       </c>
       <c r="I2025" s="4"/>
     </row>
-    <row r="2026" spans="1:9" ht="24">
+    <row r="2026" spans="1:9" ht="24" hidden="1">
       <c r="A2026" s="2" t="s">
         <v>2399</v>
       </c>
@@ -64269,7 +64270,7 @@
       </c>
       <c r="I2028" s="4"/>
     </row>
-    <row r="2029" spans="1:9">
+    <row r="2029" spans="1:9" hidden="1">
       <c r="A2029" s="2" t="s">
         <v>2400</v>
       </c>
@@ -64323,7 +64324,7 @@
       </c>
       <c r="I2030" s="4"/>
     </row>
-    <row r="2031" spans="1:9" ht="24">
+    <row r="2031" spans="1:9" ht="24" hidden="1">
       <c r="A2031" s="2" t="s">
         <v>2370</v>
       </c>
@@ -64404,7 +64405,7 @@
       </c>
       <c r="I2033" s="4"/>
     </row>
-    <row r="2034" spans="1:9" ht="36">
+    <row r="2034" spans="1:9" ht="36" hidden="1">
       <c r="A2034" s="2" t="s">
         <v>2378</v>
       </c>
@@ -64431,7 +64432,7 @@
       </c>
       <c r="I2034" s="4"/>
     </row>
-    <row r="2035" spans="1:9" ht="24">
+    <row r="2035" spans="1:9" ht="24" hidden="1">
       <c r="A2035" s="2" t="s">
         <v>2405</v>
       </c>
@@ -64458,7 +64459,7 @@
       </c>
       <c r="I2035" s="4"/>
     </row>
-    <row r="2036" spans="1:9" ht="60">
+    <row r="2036" spans="1:9" ht="60" hidden="1">
       <c r="A2036" s="2" t="s">
         <v>2380</v>
       </c>
@@ -64485,7 +64486,7 @@
       </c>
       <c r="I2036" s="4"/>
     </row>
-    <row r="2037" spans="1:9" ht="24">
+    <row r="2037" spans="1:9" ht="24" hidden="1">
       <c r="A2037" s="2" t="s">
         <v>2413</v>
       </c>
@@ -64539,7 +64540,7 @@
       </c>
       <c r="I2038" s="4"/>
     </row>
-    <row r="2039" spans="1:9" ht="24">
+    <row r="2039" spans="1:9" ht="24" hidden="1">
       <c r="A2039" s="2" t="s">
         <v>2384</v>
       </c>
@@ -64593,7 +64594,7 @@
       </c>
       <c r="I2040" s="4"/>
     </row>
-    <row r="2041" spans="1:9" ht="24">
+    <row r="2041" spans="1:9" ht="24" hidden="1">
       <c r="A2041" s="2" t="s">
         <v>2417</v>
       </c>
@@ -64620,7 +64621,7 @@
       </c>
       <c r="I2041" s="4"/>
     </row>
-    <row r="2042" spans="1:9">
+    <row r="2042" spans="1:9" hidden="1">
       <c r="A2042" s="2" t="s">
         <v>2387</v>
       </c>
@@ -64674,7 +64675,7 @@
       </c>
       <c r="I2043" s="4"/>
     </row>
-    <row r="2044" spans="1:9">
+    <row r="2044" spans="1:9" hidden="1">
       <c r="A2044" s="2" t="s">
         <v>2389</v>
       </c>
@@ -64701,7 +64702,7 @@
       </c>
       <c r="I2044" s="4"/>
     </row>
-    <row r="2045" spans="1:9">
+    <row r="2045" spans="1:9" hidden="1">
       <c r="A2045" s="2" t="s">
         <v>2424</v>
       </c>
@@ -64782,7 +64783,7 @@
       </c>
       <c r="I2047" s="4"/>
     </row>
-    <row r="2048" spans="1:9">
+    <row r="2048" spans="1:9" hidden="1">
       <c r="A2048" s="2" t="s">
         <v>2390</v>
       </c>
@@ -64809,7 +64810,7 @@
       </c>
       <c r="I2048" s="4"/>
     </row>
-    <row r="2049" spans="1:9">
+    <row r="2049" spans="1:9" hidden="1">
       <c r="A2049" s="2" t="s">
         <v>2391</v>
       </c>
@@ -64863,7 +64864,7 @@
       </c>
       <c r="I2050" s="4"/>
     </row>
-    <row r="2051" spans="1:9">
+    <row r="2051" spans="1:9" hidden="1">
       <c r="A2051" s="2" t="s">
         <v>2393</v>
       </c>
@@ -64944,7 +64945,7 @@
       </c>
       <c r="I2053" s="4"/>
     </row>
-    <row r="2054" spans="1:9" ht="24">
+    <row r="2054" spans="1:9" ht="24" hidden="1">
       <c r="A2054" s="2" t="s">
         <v>2396</v>
       </c>
@@ -64998,7 +64999,7 @@
       </c>
       <c r="I2055" s="4"/>
     </row>
-    <row r="2056" spans="1:9">
+    <row r="2056" spans="1:9" hidden="1">
       <c r="A2056" s="2" t="s">
         <v>2398</v>
       </c>
@@ -65052,7 +65053,7 @@
       </c>
       <c r="I2057" s="4"/>
     </row>
-    <row r="2058" spans="1:9" ht="24">
+    <row r="2058" spans="1:9" ht="24" hidden="1">
       <c r="A2058" s="2" t="s">
         <v>2401</v>
       </c>
@@ -65079,7 +65080,7 @@
       </c>
       <c r="I2058" s="4"/>
     </row>
-    <row r="2059" spans="1:9" ht="36">
+    <row r="2059" spans="1:9" ht="36" hidden="1">
       <c r="A2059" s="2" t="s">
         <v>2367</v>
       </c>
@@ -65160,7 +65161,7 @@
       </c>
       <c r="I2061" s="4"/>
     </row>
-    <row r="2062" spans="1:9" ht="24">
+    <row r="2062" spans="1:9" ht="24" hidden="1">
       <c r="A2062" s="2" t="s">
         <v>2428</v>
       </c>
@@ -65214,7 +65215,7 @@
       </c>
       <c r="I2063" s="4"/>
     </row>
-    <row r="2064" spans="1:9" ht="24">
+    <row r="2064" spans="1:9" ht="24" hidden="1">
       <c r="A2064" s="2" t="s">
         <v>2405</v>
       </c>
@@ -65241,7 +65242,7 @@
       </c>
       <c r="I2064" s="4"/>
     </row>
-    <row r="2065" spans="1:9" ht="24">
+    <row r="2065" spans="1:9" ht="24" hidden="1">
       <c r="A2065" s="2" t="s">
         <v>2382</v>
       </c>
@@ -65268,7 +65269,7 @@
       </c>
       <c r="I2065" s="4"/>
     </row>
-    <row r="2066" spans="1:9" ht="24">
+    <row r="2066" spans="1:9" ht="24" hidden="1">
       <c r="A2066" s="2" t="s">
         <v>2413</v>
       </c>
@@ -65322,7 +65323,7 @@
       </c>
       <c r="I2067" s="4"/>
     </row>
-    <row r="2068" spans="1:9">
+    <row r="2068" spans="1:9" hidden="1">
       <c r="A2068" s="2" t="s">
         <v>2386</v>
       </c>
@@ -65349,7 +65350,7 @@
       </c>
       <c r="I2068" s="4"/>
     </row>
-    <row r="2069" spans="1:9">
+    <row r="2069" spans="1:9" hidden="1">
       <c r="A2069" s="2" t="s">
         <v>2387</v>
       </c>
@@ -65376,7 +65377,7 @@
       </c>
       <c r="I2069" s="4"/>
     </row>
-    <row r="2070" spans="1:9">
+    <row r="2070" spans="1:9" hidden="1">
       <c r="A2070" s="2" t="s">
         <v>2388</v>
       </c>
@@ -65430,7 +65431,7 @@
       </c>
       <c r="I2071" s="4"/>
     </row>
-    <row r="2072" spans="1:9">
+    <row r="2072" spans="1:9" hidden="1">
       <c r="A2072" s="2" t="s">
         <v>2390</v>
       </c>
@@ -65457,7 +65458,7 @@
       </c>
       <c r="I2072" s="4"/>
     </row>
-    <row r="2073" spans="1:9">
+    <row r="2073" spans="1:9" hidden="1">
       <c r="A2073" s="2" t="s">
         <v>2391</v>
       </c>
@@ -65511,7 +65512,7 @@
       </c>
       <c r="I2074" s="4"/>
     </row>
-    <row r="2075" spans="1:9">
+    <row r="2075" spans="1:9" hidden="1">
       <c r="A2075" s="2" t="s">
         <v>2393</v>
       </c>
@@ -65538,7 +65539,7 @@
       </c>
       <c r="I2075" s="4"/>
     </row>
-    <row r="2076" spans="1:9">
+    <row r="2076" spans="1:9" hidden="1">
       <c r="A2076" s="2" t="s">
         <v>2394</v>
       </c>
@@ -65592,7 +65593,7 @@
       </c>
       <c r="I2077" s="4"/>
     </row>
-    <row r="2078" spans="1:9">
+    <row r="2078" spans="1:9" hidden="1">
       <c r="A2078" s="2" t="s">
         <v>2397</v>
       </c>
@@ -65619,7 +65620,7 @@
       </c>
       <c r="I2078" s="4"/>
     </row>
-    <row r="2079" spans="1:9">
+    <row r="2079" spans="1:9" hidden="1">
       <c r="A2079" s="2" t="s">
         <v>2398</v>
       </c>
@@ -65646,7 +65647,7 @@
       </c>
       <c r="I2079" s="4"/>
     </row>
-    <row r="2080" spans="1:9" ht="24">
+    <row r="2080" spans="1:9" ht="24" hidden="1">
       <c r="A2080" s="2" t="s">
         <v>2399</v>
       </c>
@@ -65673,7 +65674,7 @@
       </c>
       <c r="I2080" s="4"/>
     </row>
-    <row r="2081" spans="1:9">
+    <row r="2081" spans="1:9" hidden="1">
       <c r="A2081" s="2" t="s">
         <v>2400</v>
       </c>
@@ -65700,7 +65701,7 @@
       </c>
       <c r="I2081" s="4"/>
     </row>
-    <row r="2082" spans="1:9" ht="24">
+    <row r="2082" spans="1:9" ht="24" hidden="1">
       <c r="A2082" s="2" t="s">
         <v>2370</v>
       </c>
@@ -65727,7 +65728,7 @@
       </c>
       <c r="I2082" s="4"/>
     </row>
-    <row r="2083" spans="1:9" ht="24">
+    <row r="2083" spans="1:9" ht="24" hidden="1">
       <c r="A2083" s="2" t="s">
         <v>2431</v>
       </c>
@@ -65754,7 +65755,7 @@
       </c>
       <c r="I2083" s="4"/>
     </row>
-    <row r="2084" spans="1:9" ht="24">
+    <row r="2084" spans="1:9" ht="24" hidden="1">
       <c r="A2084" s="2" t="s">
         <v>2403</v>
       </c>
@@ -65781,7 +65782,7 @@
       </c>
       <c r="I2084" s="4"/>
     </row>
-    <row r="2085" spans="1:9" ht="24">
+    <row r="2085" spans="1:9" ht="24" hidden="1">
       <c r="A2085" s="2" t="s">
         <v>2409</v>
       </c>
@@ -65808,7 +65809,7 @@
       </c>
       <c r="I2085" s="4"/>
     </row>
-    <row r="2086" spans="1:9" ht="60">
+    <row r="2086" spans="1:9" ht="60" hidden="1">
       <c r="A2086" s="2" t="s">
         <v>2380</v>
       </c>
@@ -65862,7 +65863,7 @@
       </c>
       <c r="I2087" s="4"/>
     </row>
-    <row r="2088" spans="1:9" ht="36">
+    <row r="2088" spans="1:9" ht="36" hidden="1">
       <c r="A2088" s="2" t="s">
         <v>2435</v>
       </c>
@@ -65889,7 +65890,7 @@
       </c>
       <c r="I2088" s="4"/>
     </row>
-    <row r="2089" spans="1:9">
+    <row r="2089" spans="1:9" hidden="1">
       <c r="A2089" s="2" t="s">
         <v>2437</v>
       </c>
@@ -65916,7 +65917,7 @@
       </c>
       <c r="I2089" s="4"/>
     </row>
-    <row r="2090" spans="1:9" ht="24">
+    <row r="2090" spans="1:9" ht="24" hidden="1">
       <c r="A2090" s="2" t="s">
         <v>2439</v>
       </c>
@@ -65943,7 +65944,7 @@
       </c>
       <c r="I2090" s="4"/>
     </row>
-    <row r="2091" spans="1:9">
+    <row r="2091" spans="1:9" hidden="1">
       <c r="A2091" s="2" t="s">
         <v>2441</v>
       </c>
@@ -65970,7 +65971,7 @@
       </c>
       <c r="I2091" s="4"/>
     </row>
-    <row r="2092" spans="1:9" ht="24">
+    <row r="2092" spans="1:9" ht="24" hidden="1">
       <c r="A2092" s="2" t="s">
         <v>2384</v>
       </c>
@@ -65997,7 +65998,7 @@
       </c>
       <c r="I2092" s="4"/>
     </row>
-    <row r="2093" spans="1:9">
+    <row r="2093" spans="1:9" hidden="1">
       <c r="A2093" s="2" t="s">
         <v>2386</v>
       </c>
@@ -66024,7 +66025,7 @@
       </c>
       <c r="I2093" s="4"/>
     </row>
-    <row r="2094" spans="1:9" ht="24">
+    <row r="2094" spans="1:9" ht="24" hidden="1">
       <c r="A2094" s="2" t="s">
         <v>2417</v>
       </c>
@@ -66051,7 +66052,7 @@
       </c>
       <c r="I2094" s="4"/>
     </row>
-    <row r="2095" spans="1:9">
+    <row r="2095" spans="1:9" hidden="1">
       <c r="A2095" s="2" t="s">
         <v>2387</v>
       </c>
@@ -66078,7 +66079,7 @@
       </c>
       <c r="I2095" s="4"/>
     </row>
-    <row r="2096" spans="1:9">
+    <row r="2096" spans="1:9" hidden="1">
       <c r="A2096" s="2" t="s">
         <v>2388</v>
       </c>
@@ -66105,7 +66106,7 @@
       </c>
       <c r="I2096" s="4"/>
     </row>
-    <row r="2097" spans="1:9">
+    <row r="2097" spans="1:9" hidden="1">
       <c r="A2097" s="2" t="s">
         <v>2389</v>
       </c>
@@ -66132,7 +66133,7 @@
       </c>
       <c r="I2097" s="4"/>
     </row>
-    <row r="2098" spans="1:9" ht="24">
+    <row r="2098" spans="1:9" ht="24" hidden="1">
       <c r="A2098" s="2" t="s">
         <v>2425</v>
       </c>
@@ -66159,7 +66160,7 @@
       </c>
       <c r="I2098" s="4"/>
     </row>
-    <row r="2099" spans="1:9">
+    <row r="2099" spans="1:9" hidden="1">
       <c r="A2099" s="2" t="s">
         <v>2390</v>
       </c>
@@ -66267,7 +66268,7 @@
       </c>
       <c r="I2102" s="4"/>
     </row>
-    <row r="2103" spans="1:9">
+    <row r="2103" spans="1:9" hidden="1">
       <c r="A2103" s="2" t="s">
         <v>2398</v>
       </c>
@@ -66321,7 +66322,7 @@
       </c>
       <c r="I2104" s="4"/>
     </row>
-    <row r="2105" spans="1:9" ht="24">
+    <row r="2105" spans="1:9" ht="24" hidden="1">
       <c r="A2105" s="2" t="s">
         <v>2399</v>
       </c>
@@ -66510,7 +66511,7 @@
       </c>
       <c r="I2111" s="4"/>
     </row>
-    <row r="2112" spans="1:9" ht="24">
+    <row r="2112" spans="1:9" ht="24" hidden="1">
       <c r="A2112" s="2" t="s">
         <v>2413</v>
       </c>
@@ -66564,7 +66565,7 @@
       </c>
       <c r="I2113" s="4"/>
     </row>
-    <row r="2114" spans="1:9" ht="24">
+    <row r="2114" spans="1:9" ht="24" hidden="1">
       <c r="A2114" s="2" t="s">
         <v>2448</v>
       </c>
@@ -66591,7 +66592,7 @@
       </c>
       <c r="I2114" s="4"/>
     </row>
-    <row r="2115" spans="1:9" ht="24">
+    <row r="2115" spans="1:9" ht="24" hidden="1">
       <c r="A2115" s="2" t="s">
         <v>2386</v>
       </c>
@@ -66618,7 +66619,7 @@
       </c>
       <c r="I2115" s="4"/>
     </row>
-    <row r="2116" spans="1:9" ht="24">
+    <row r="2116" spans="1:9" ht="24" hidden="1">
       <c r="A2116" s="2" t="s">
         <v>2450</v>
       </c>
@@ -66645,7 +66646,7 @@
       </c>
       <c r="I2116" s="4"/>
     </row>
-    <row r="2117" spans="1:9" ht="24">
+    <row r="2117" spans="1:9" ht="24" hidden="1">
       <c r="A2117" s="2" t="s">
         <v>2417</v>
       </c>
@@ -66699,7 +66700,7 @@
       </c>
       <c r="I2118" s="4"/>
     </row>
-    <row r="2119" spans="1:9" ht="24">
+    <row r="2119" spans="1:9" ht="24" hidden="1">
       <c r="A2119" s="2" t="s">
         <v>2387</v>
       </c>
@@ -66726,7 +66727,7 @@
       </c>
       <c r="I2119" s="4"/>
     </row>
-    <row r="2120" spans="1:9" ht="24">
+    <row r="2120" spans="1:9" ht="24" hidden="1">
       <c r="A2120" s="2" t="s">
         <v>2388</v>
       </c>
@@ -66834,7 +66835,7 @@
       </c>
       <c r="I2123" s="4"/>
     </row>
-    <row r="2124" spans="1:9" ht="24">
+    <row r="2124" spans="1:9" ht="24" hidden="1">
       <c r="A2124" s="2" t="s">
         <v>2425</v>
       </c>
@@ -66888,7 +66889,7 @@
       </c>
       <c r="I2125" s="4"/>
     </row>
-    <row r="2126" spans="1:9" ht="24">
+    <row r="2126" spans="1:9" ht="24" hidden="1">
       <c r="A2126" s="2" t="s">
         <v>2390</v>
       </c>
@@ -66969,7 +66970,7 @@
       </c>
       <c r="I2128" s="4"/>
     </row>
-    <row r="2129" spans="1:9" ht="24">
+    <row r="2129" spans="1:9" ht="24" hidden="1">
       <c r="A2129" s="2" t="s">
         <v>2393</v>
       </c>
@@ -67023,7 +67024,7 @@
       </c>
       <c r="I2130" s="4"/>
     </row>
-    <row r="2131" spans="1:9" ht="24">
+    <row r="2131" spans="1:9" ht="24" hidden="1">
       <c r="A2131" s="2" t="s">
         <v>2395</v>
       </c>
@@ -67104,7 +67105,7 @@
       </c>
       <c r="I2133" s="4"/>
     </row>
-    <row r="2134" spans="1:9" ht="24">
+    <row r="2134" spans="1:9" ht="24" hidden="1">
       <c r="A2134" s="2" t="s">
         <v>2397</v>
       </c>
@@ -67158,7 +67159,7 @@
       </c>
       <c r="I2135" s="4"/>
     </row>
-    <row r="2136" spans="1:9" ht="24">
+    <row r="2136" spans="1:9" ht="24" hidden="1">
       <c r="A2136" s="2" t="s">
         <v>2398</v>
       </c>
@@ -67185,7 +67186,7 @@
       </c>
       <c r="I2136" s="4"/>
     </row>
-    <row r="2137" spans="1:9" ht="24">
+    <row r="2137" spans="1:9" ht="24" hidden="1">
       <c r="A2137" s="2" t="s">
         <v>2444</v>
       </c>
@@ -67212,7 +67213,7 @@
       </c>
       <c r="I2137" s="4"/>
     </row>
-    <row r="2138" spans="1:9" ht="24">
+    <row r="2138" spans="1:9" ht="24" hidden="1">
       <c r="A2138" s="2" t="s">
         <v>2400</v>
       </c>
@@ -67293,7 +67294,7 @@
       </c>
       <c r="I2140" s="4"/>
     </row>
-    <row r="2141" spans="1:9" ht="24">
+    <row r="2141" spans="1:9" ht="24" hidden="1">
       <c r="A2141" s="2" t="s">
         <v>2370</v>
       </c>
@@ -67347,7 +67348,7 @@
       </c>
       <c r="I2142" s="4"/>
     </row>
-    <row r="2143" spans="1:9" ht="24">
+    <row r="2143" spans="1:9" ht="24" hidden="1">
       <c r="A2143" s="2" t="s">
         <v>2403</v>
       </c>
@@ -67374,7 +67375,7 @@
       </c>
       <c r="I2143" s="4"/>
     </row>
-    <row r="2144" spans="1:9" ht="24">
+    <row r="2144" spans="1:9" ht="24" hidden="1">
       <c r="A2144" s="2" t="s">
         <v>2405</v>
       </c>
@@ -67455,7 +67456,7 @@
       </c>
       <c r="I2146" s="4"/>
     </row>
-    <row r="2147" spans="1:9" ht="24">
+    <row r="2147" spans="1:9" ht="24" hidden="1">
       <c r="A2147" s="2" t="s">
         <v>2413</v>
       </c>
@@ -67482,7 +67483,7 @@
       </c>
       <c r="I2147" s="4"/>
     </row>
-    <row r="2148" spans="1:9" ht="24">
+    <row r="2148" spans="1:9" ht="24" hidden="1">
       <c r="A2148" s="2" t="s">
         <v>2415</v>
       </c>
@@ -67509,7 +67510,7 @@
       </c>
       <c r="I2148" s="4"/>
     </row>
-    <row r="2149" spans="1:9" ht="24">
+    <row r="2149" spans="1:9" ht="24" hidden="1">
       <c r="A2149" s="2" t="s">
         <v>2386</v>
       </c>
@@ -67563,7 +67564,7 @@
       </c>
       <c r="I2150" s="4"/>
     </row>
-    <row r="2151" spans="1:9" ht="24">
+    <row r="2151" spans="1:9" ht="24" hidden="1">
       <c r="A2151" s="2" t="s">
         <v>2387</v>
       </c>
@@ -67590,7 +67591,7 @@
       </c>
       <c r="I2151" s="4"/>
     </row>
-    <row r="2152" spans="1:9" ht="24">
+    <row r="2152" spans="1:9" ht="24" hidden="1">
       <c r="A2152" s="2" t="s">
         <v>2388</v>
       </c>
@@ -67644,7 +67645,7 @@
       </c>
       <c r="I2153" s="4"/>
     </row>
-    <row r="2154" spans="1:9" ht="24">
+    <row r="2154" spans="1:9" ht="24" hidden="1">
       <c r="A2154" s="2" t="s">
         <v>2390</v>
       </c>
@@ -67671,7 +67672,7 @@
       </c>
       <c r="I2154" s="4"/>
     </row>
-    <row r="2155" spans="1:9" ht="24">
+    <row r="2155" spans="1:9" ht="24" hidden="1">
       <c r="A2155" s="2" t="s">
         <v>2391</v>
       </c>
@@ -67698,7 +67699,7 @@
       </c>
       <c r="I2155" s="4"/>
     </row>
-    <row r="2156" spans="1:9" ht="24">
+    <row r="2156" spans="1:9" ht="24" hidden="1">
       <c r="A2156" s="2" t="s">
         <v>2393</v>
       </c>
@@ -67833,7 +67834,7 @@
       </c>
       <c r="I2160" s="4"/>
     </row>
-    <row r="2161" spans="1:9" ht="24">
+    <row r="2161" spans="1:9" ht="24" hidden="1">
       <c r="A2161" s="2" t="s">
         <v>2397</v>
       </c>
@@ -67860,7 +67861,7 @@
       </c>
       <c r="I2161" s="4"/>
     </row>
-    <row r="2162" spans="1:9" ht="24">
+    <row r="2162" spans="1:9" ht="24" hidden="1">
       <c r="A2162" s="2" t="s">
         <v>2398</v>
       </c>
@@ -67887,7 +67888,7 @@
       </c>
       <c r="I2162" s="4"/>
     </row>
-    <row r="2163" spans="1:9" ht="24">
+    <row r="2163" spans="1:9" ht="24" hidden="1">
       <c r="A2163" s="2" t="s">
         <v>2399</v>
       </c>
@@ -67968,7 +67969,7 @@
       </c>
       <c r="I2165" s="4"/>
     </row>
-    <row r="2166" spans="1:9" ht="24">
+    <row r="2166" spans="1:9" ht="24" hidden="1">
       <c r="A2166" s="2" t="s">
         <v>2401</v>
       </c>
@@ -68022,7 +68023,7 @@
       </c>
       <c r="I2167" s="4"/>
     </row>
-    <row r="2168" spans="1:9" ht="24">
+    <row r="2168" spans="1:9" ht="24" hidden="1">
       <c r="A2168" s="2" t="s">
         <v>2370</v>
       </c>
@@ -68103,7 +68104,7 @@
       </c>
       <c r="I2170" s="4"/>
     </row>
-    <row r="2171" spans="1:9" ht="24">
+    <row r="2171" spans="1:9" ht="24" hidden="1">
       <c r="A2171" s="2" t="s">
         <v>2376</v>
       </c>
@@ -68157,7 +68158,7 @@
       </c>
       <c r="I2172" s="4"/>
     </row>
-    <row r="2173" spans="1:9" ht="24">
+    <row r="2173" spans="1:9" ht="24" hidden="1">
       <c r="A2173" s="2" t="s">
         <v>2405</v>
       </c>
@@ -68238,7 +68239,7 @@
       </c>
       <c r="I2175" s="4"/>
     </row>
-    <row r="2176" spans="1:9" ht="24">
+    <row r="2176" spans="1:9" ht="24" hidden="1">
       <c r="A2176" s="2" t="s">
         <v>2415</v>
       </c>
@@ -68292,7 +68293,7 @@
       </c>
       <c r="I2177" s="4"/>
     </row>
-    <row r="2178" spans="1:9" ht="24">
+    <row r="2178" spans="1:9" ht="24" hidden="1">
       <c r="A2178" s="2" t="s">
         <v>2386</v>
       </c>
@@ -68319,7 +68320,7 @@
       </c>
       <c r="I2178" s="4"/>
     </row>
-    <row r="2179" spans="1:9" ht="24">
+    <row r="2179" spans="1:9" ht="24" hidden="1">
       <c r="A2179" s="2" t="s">
         <v>2387</v>
       </c>
@@ -68400,7 +68401,7 @@
       </c>
       <c r="I2181" s="4"/>
     </row>
-    <row r="2182" spans="1:9" ht="24">
+    <row r="2182" spans="1:9" ht="24" hidden="1">
       <c r="A2182" s="2" t="s">
         <v>2390</v>
       </c>
@@ -68427,7 +68428,7 @@
       </c>
       <c r="I2182" s="4"/>
     </row>
-    <row r="2183" spans="1:9" ht="24">
+    <row r="2183" spans="1:9" ht="24" hidden="1">
       <c r="A2183" s="2" t="s">
         <v>2391</v>
       </c>
@@ -68481,7 +68482,7 @@
       </c>
       <c r="I2184" s="4"/>
     </row>
-    <row r="2185" spans="1:9" ht="24">
+    <row r="2185" spans="1:9" ht="24" hidden="1">
       <c r="A2185" s="2" t="s">
         <v>2393</v>
       </c>
@@ -68508,7 +68509,7 @@
       </c>
       <c r="I2185" s="4"/>
     </row>
-    <row r="2186" spans="1:9" ht="24">
+    <row r="2186" spans="1:9" ht="24" hidden="1">
       <c r="A2186" s="2" t="s">
         <v>2394</v>
       </c>
@@ -68535,7 +68536,7 @@
       </c>
       <c r="I2186" s="4"/>
     </row>
-    <row r="2187" spans="1:9" ht="24">
+    <row r="2187" spans="1:9" ht="24" hidden="1">
       <c r="A2187" s="2" t="s">
         <v>2395</v>
       </c>
@@ -68562,7 +68563,7 @@
       </c>
       <c r="I2187" s="4"/>
     </row>
-    <row r="2188" spans="1:9" ht="24">
+    <row r="2188" spans="1:9" ht="24" hidden="1">
       <c r="A2188" s="2" t="s">
         <v>2396</v>
       </c>
@@ -68589,7 +68590,7 @@
       </c>
       <c r="I2188" s="4"/>
     </row>
-    <row r="2189" spans="1:9" ht="24">
+    <row r="2189" spans="1:9" ht="24" hidden="1">
       <c r="A2189" s="2" t="s">
         <v>2397</v>
       </c>
@@ -68616,7 +68617,7 @@
       </c>
       <c r="I2189" s="4"/>
     </row>
-    <row r="2190" spans="1:9" ht="24">
+    <row r="2190" spans="1:9" ht="24" hidden="1">
       <c r="A2190" s="2" t="s">
         <v>2398</v>
       </c>
@@ -68697,7 +68698,7 @@
       </c>
       <c r="I2192" s="4"/>
     </row>
-    <row r="2193" spans="1:9" ht="24">
+    <row r="2193" spans="1:9" ht="24" hidden="1">
       <c r="A2193" s="2" t="s">
         <v>2400</v>
       </c>
@@ -68778,7 +68779,7 @@
       </c>
       <c r="I2195" s="4"/>
     </row>
-    <row r="2196" spans="1:9" ht="24">
+    <row r="2196" spans="1:9" ht="24" hidden="1">
       <c r="A2196" s="2" t="s">
         <v>2376</v>
       </c>
@@ -68859,7 +68860,7 @@
       </c>
       <c r="I2198" s="4"/>
     </row>
-    <row r="2199" spans="1:9" ht="24">
+    <row r="2199" spans="1:9" ht="24" hidden="1">
       <c r="A2199" s="2" t="s">
         <v>2460</v>
       </c>
@@ -68913,7 +68914,7 @@
       </c>
       <c r="I2200" s="4"/>
     </row>
-    <row r="2201" spans="1:9">
+    <row r="2201" spans="1:9" hidden="1">
       <c r="A2201" s="2" t="s">
         <v>2387</v>
       </c>
@@ -68940,7 +68941,7 @@
       </c>
       <c r="I2201" s="4"/>
     </row>
-    <row r="2202" spans="1:9">
+    <row r="2202" spans="1:9" hidden="1">
       <c r="A2202" s="2" t="s">
         <v>2390</v>
       </c>
@@ -68967,7 +68968,7 @@
       </c>
       <c r="I2202" s="4"/>
     </row>
-    <row r="2203" spans="1:9">
+    <row r="2203" spans="1:9" hidden="1">
       <c r="A2203" s="2" t="s">
         <v>2391</v>
       </c>
@@ -68994,7 +68995,7 @@
       </c>
       <c r="I2203" s="4"/>
     </row>
-    <row r="2204" spans="1:9">
+    <row r="2204" spans="1:9" hidden="1">
       <c r="A2204" s="2" t="s">
         <v>2393</v>
       </c>
@@ -69021,7 +69022,7 @@
       </c>
       <c r="I2204" s="4"/>
     </row>
-    <row r="2205" spans="1:9">
+    <row r="2205" spans="1:9" hidden="1">
       <c r="A2205" s="2" t="s">
         <v>2394</v>
       </c>
@@ -69048,7 +69049,7 @@
       </c>
       <c r="I2205" s="4"/>
     </row>
-    <row r="2206" spans="1:9">
+    <row r="2206" spans="1:9" hidden="1">
       <c r="A2206" s="2" t="s">
         <v>2397</v>
       </c>
@@ -69075,7 +69076,7 @@
       </c>
       <c r="I2206" s="4"/>
     </row>
-    <row r="2207" spans="1:9">
+    <row r="2207" spans="1:9" hidden="1">
       <c r="A2207" s="2" t="s">
         <v>2398</v>
       </c>
@@ -69102,7 +69103,7 @@
       </c>
       <c r="I2207" s="4"/>
     </row>
-    <row r="2208" spans="1:9" ht="24">
+    <row r="2208" spans="1:9" ht="24" hidden="1">
       <c r="A2208" s="2" t="s">
         <v>2399</v>
       </c>
@@ -69129,7 +69130,7 @@
       </c>
       <c r="I2208" s="4"/>
     </row>
-    <row r="2209" spans="1:9" ht="24">
+    <row r="2209" spans="1:9" ht="24" hidden="1">
       <c r="A2209" s="2" t="s">
         <v>2409</v>
       </c>
@@ -69156,7 +69157,7 @@
       </c>
       <c r="I2209" s="4"/>
     </row>
-    <row r="2210" spans="1:9" ht="24">
+    <row r="2210" spans="1:9" ht="24" hidden="1">
       <c r="A2210" s="2" t="s">
         <v>2413</v>
       </c>
@@ -69183,7 +69184,7 @@
       </c>
       <c r="I2210" s="4"/>
     </row>
-    <row r="2211" spans="1:9">
+    <row r="2211" spans="1:9" hidden="1">
       <c r="A2211" s="2" t="s">
         <v>2386</v>
       </c>
@@ -69210,7 +69211,7 @@
       </c>
       <c r="I2211" s="4"/>
     </row>
-    <row r="2212" spans="1:9">
+    <row r="2212" spans="1:9" hidden="1">
       <c r="A2212" s="2" t="s">
         <v>2387</v>
       </c>
@@ -69237,7 +69238,7 @@
       </c>
       <c r="I2212" s="4"/>
     </row>
-    <row r="2213" spans="1:9">
+    <row r="2213" spans="1:9" hidden="1">
       <c r="A2213" s="2" t="s">
         <v>2390</v>
       </c>
@@ -69264,7 +69265,7 @@
       </c>
       <c r="I2213" s="4"/>
     </row>
-    <row r="2214" spans="1:9">
+    <row r="2214" spans="1:9" hidden="1">
       <c r="A2214" s="2" t="s">
         <v>2391</v>
       </c>
@@ -69291,7 +69292,7 @@
       </c>
       <c r="I2214" s="4"/>
     </row>
-    <row r="2215" spans="1:9">
+    <row r="2215" spans="1:9" hidden="1">
       <c r="A2215" s="2" t="s">
         <v>2393</v>
       </c>
@@ -69318,7 +69319,7 @@
       </c>
       <c r="I2215" s="4"/>
     </row>
-    <row r="2216" spans="1:9">
+    <row r="2216" spans="1:9" hidden="1">
       <c r="A2216" s="2" t="s">
         <v>2397</v>
       </c>
@@ -69345,7 +69346,7 @@
       </c>
       <c r="I2216" s="4"/>
     </row>
-    <row r="2217" spans="1:9" ht="24">
+    <row r="2217" spans="1:9" ht="24" hidden="1">
       <c r="A2217" s="2" t="s">
         <v>2399</v>
       </c>
@@ -69372,7 +69373,7 @@
       </c>
       <c r="I2217" s="4"/>
     </row>
-    <row r="2218" spans="1:9" ht="36">
+    <row r="2218" spans="1:9" ht="36" hidden="1">
       <c r="A2218" s="2" t="s">
         <v>2463</v>
       </c>
@@ -69399,7 +69400,7 @@
       </c>
       <c r="I2218" s="4"/>
     </row>
-    <row r="2219" spans="1:9" ht="36">
+    <row r="2219" spans="1:9" ht="36" hidden="1">
       <c r="A2219" s="2" t="s">
         <v>2466</v>
       </c>
@@ -69426,7 +69427,7 @@
       </c>
       <c r="I2219" s="4"/>
     </row>
-    <row r="2220" spans="1:9" ht="48">
+    <row r="2220" spans="1:9" ht="48" hidden="1">
       <c r="A2220" s="2" t="s">
         <v>2468</v>
       </c>
@@ -69453,7 +69454,7 @@
       </c>
       <c r="I2220" s="4"/>
     </row>
-    <row r="2221" spans="1:9" ht="60">
+    <row r="2221" spans="1:9" ht="60" hidden="1">
       <c r="A2221" s="2" t="s">
         <v>2470</v>
       </c>
@@ -69480,7 +69481,7 @@
       </c>
       <c r="I2221" s="4"/>
     </row>
-    <row r="2222" spans="1:9" ht="60">
+    <row r="2222" spans="1:9" ht="60" hidden="1">
       <c r="A2222" s="2" t="s">
         <v>2472</v>
       </c>
@@ -69507,7 +69508,7 @@
       </c>
       <c r="I2222" s="4"/>
     </row>
-    <row r="2223" spans="1:9" ht="60">
+    <row r="2223" spans="1:9" ht="60" hidden="1">
       <c r="A2223" s="2" t="s">
         <v>2474</v>
       </c>
@@ -69534,7 +69535,7 @@
       </c>
       <c r="I2223" s="4"/>
     </row>
-    <row r="2224" spans="1:9" ht="60">
+    <row r="2224" spans="1:9" ht="60" hidden="1">
       <c r="A2224" s="2" t="s">
         <v>2476</v>
       </c>
@@ -69588,7 +69589,7 @@
       </c>
       <c r="I2225" s="4"/>
     </row>
-    <row r="2226" spans="1:9" ht="36">
+    <row r="2226" spans="1:9" ht="36" hidden="1">
       <c r="A2226" s="2" t="s">
         <v>2480</v>
       </c>
@@ -69642,7 +69643,7 @@
       </c>
       <c r="I2227" s="4"/>
     </row>
-    <row r="2228" spans="1:9" ht="36">
+    <row r="2228" spans="1:9" ht="36" hidden="1">
       <c r="A2228" s="2" t="s">
         <v>2484</v>
       </c>
@@ -69669,7 +69670,7 @@
       </c>
       <c r="I2228" s="4"/>
     </row>
-    <row r="2229" spans="1:9" ht="36">
+    <row r="2229" spans="1:9" ht="36" hidden="1">
       <c r="A2229" s="2" t="s">
         <v>2486</v>
       </c>
@@ -69696,7 +69697,7 @@
       </c>
       <c r="I2229" s="4"/>
     </row>
-    <row r="2230" spans="1:9" ht="48">
+    <row r="2230" spans="1:9" ht="48" hidden="1">
       <c r="A2230" s="2" t="s">
         <v>2488</v>
       </c>
@@ -69723,7 +69724,7 @@
       </c>
       <c r="I2230" s="4"/>
     </row>
-    <row r="2231" spans="1:9" ht="48">
+    <row r="2231" spans="1:9" ht="48" hidden="1">
       <c r="A2231" s="2" t="s">
         <v>2490</v>
       </c>
@@ -69750,7 +69751,7 @@
       </c>
       <c r="I2231" s="4"/>
     </row>
-    <row r="2232" spans="1:9" ht="48">
+    <row r="2232" spans="1:9" ht="48" hidden="1">
       <c r="A2232" s="2" t="s">
         <v>2492</v>
       </c>
@@ -69777,7 +69778,7 @@
       </c>
       <c r="I2232" s="4"/>
     </row>
-    <row r="2233" spans="1:9" ht="48">
+    <row r="2233" spans="1:9" ht="48" hidden="1">
       <c r="A2233" s="2" t="s">
         <v>2494</v>
       </c>
@@ -69831,7 +69832,7 @@
       </c>
       <c r="I2234" s="4"/>
     </row>
-    <row r="2235" spans="1:9" ht="60">
+    <row r="2235" spans="1:9" ht="60" hidden="1">
       <c r="A2235" s="2" t="s">
         <v>2498</v>
       </c>
@@ -69885,7 +69886,7 @@
       </c>
       <c r="I2236" s="4"/>
     </row>
-    <row r="2237" spans="1:9" ht="24">
+    <row r="2237" spans="1:9" ht="24" hidden="1">
       <c r="A2237" s="2" t="s">
         <v>2502</v>
       </c>
@@ -69912,7 +69913,7 @@
       </c>
       <c r="I2237" s="4"/>
     </row>
-    <row r="2238" spans="1:9" ht="24">
+    <row r="2238" spans="1:9" ht="24" hidden="1">
       <c r="A2238" s="2" t="s">
         <v>2503</v>
       </c>
@@ -69939,7 +69940,7 @@
       </c>
       <c r="I2238" s="4"/>
     </row>
-    <row r="2239" spans="1:9" ht="24">
+    <row r="2239" spans="1:9" ht="24" hidden="1">
       <c r="A2239" s="2" t="s">
         <v>2504</v>
       </c>
@@ -69966,7 +69967,7 @@
       </c>
       <c r="I2239" s="4"/>
     </row>
-    <row r="2240" spans="1:9" ht="24">
+    <row r="2240" spans="1:9" ht="24" hidden="1">
       <c r="A2240" s="2" t="s">
         <v>2505</v>
       </c>
@@ -70047,7 +70048,7 @@
       </c>
       <c r="I2242" s="4"/>
     </row>
-    <row r="2243" spans="1:9" ht="24">
+    <row r="2243" spans="1:9" ht="24" hidden="1">
       <c r="A2243" s="2" t="s">
         <v>2508</v>
       </c>
@@ -70074,7 +70075,7 @@
       </c>
       <c r="I2243" s="4"/>
     </row>
-    <row r="2244" spans="1:9" ht="24">
+    <row r="2244" spans="1:9" ht="24" hidden="1">
       <c r="A2244" s="2" t="s">
         <v>2509</v>
       </c>
@@ -70101,7 +70102,7 @@
       </c>
       <c r="I2244" s="4"/>
     </row>
-    <row r="2245" spans="1:9" ht="24">
+    <row r="2245" spans="1:9" ht="24" hidden="1">
       <c r="A2245" s="2" t="s">
         <v>2510</v>
       </c>
@@ -70128,7 +70129,7 @@
       </c>
       <c r="I2245" s="4"/>
     </row>
-    <row r="2246" spans="1:9" ht="24">
+    <row r="2246" spans="1:9" ht="24" hidden="1">
       <c r="A2246" s="2" t="s">
         <v>2511</v>
       </c>
@@ -70155,7 +70156,7 @@
       </c>
       <c r="I2246" s="4"/>
     </row>
-    <row r="2247" spans="1:9" ht="24">
+    <row r="2247" spans="1:9" ht="24" hidden="1">
       <c r="A2247" s="2" t="s">
         <v>2512</v>
       </c>
@@ -70182,7 +70183,7 @@
       </c>
       <c r="I2247" s="4"/>
     </row>
-    <row r="2248" spans="1:9" ht="24">
+    <row r="2248" spans="1:9" ht="24" hidden="1">
       <c r="A2248" s="2" t="s">
         <v>2513</v>
       </c>
@@ -70209,7 +70210,7 @@
       </c>
       <c r="I2248" s="4"/>
     </row>
-    <row r="2249" spans="1:9" ht="24">
+    <row r="2249" spans="1:9" ht="24" hidden="1">
       <c r="A2249" s="2" t="s">
         <v>2514</v>
       </c>
@@ -70236,7 +70237,7 @@
       </c>
       <c r="I2249" s="4"/>
     </row>
-    <row r="2250" spans="1:9" ht="24">
+    <row r="2250" spans="1:9" ht="24" hidden="1">
       <c r="A2250" s="2" t="s">
         <v>2515</v>
       </c>
@@ -70290,7 +70291,7 @@
       </c>
       <c r="I2251" s="4"/>
     </row>
-    <row r="2252" spans="1:9" ht="24">
+    <row r="2252" spans="1:9" ht="24" hidden="1">
       <c r="A2252" s="2" t="s">
         <v>2517</v>
       </c>
@@ -70317,7 +70318,7 @@
       </c>
       <c r="I2252" s="4"/>
     </row>
-    <row r="2253" spans="1:9" ht="24">
+    <row r="2253" spans="1:9" ht="24" hidden="1">
       <c r="A2253" s="2" t="s">
         <v>2518</v>
       </c>
@@ -70344,7 +70345,7 @@
       </c>
       <c r="I2253" s="4"/>
     </row>
-    <row r="2254" spans="1:9" ht="24">
+    <row r="2254" spans="1:9" ht="24" hidden="1">
       <c r="A2254" s="2" t="s">
         <v>2519</v>
       </c>
